--- a/SPRINT2/Gráfico de dados - Arq Comp.xlsx
+++ b/SPRINT2/Gráfico de dados - Arq Comp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d42371d61bd3278c/Área de Trabalho/Sprint 2/TECCHICKEN/SPRINT2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosec\OneDrive\Documentos\Arquivos PI\Grupo 10\TECCHICKEN\SPRINT2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{62474EAC-AE3B-4880-98EA-58B4B340A074}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B20A49AD-6552-494A-B5E7-5FB14BD696A8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBD1689-902A-4506-8CD3-9636299D2579}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C8895A7-3856-42C1-B635-8216F5FF32B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9C8895A7-3856-42C1-B635-8216F5FF32B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Coleta de dados" sheetId="3" r:id="rId1"/>
@@ -19,15 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -65,9 +56,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0\°"/>
+    <numFmt numFmtId="164" formatCode="0.0\°"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,16 +66,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -92,20 +120,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF6600"/>
+      <color rgb="FFD76213"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -307,97 +372,97 @@
                 <c:formatCode>0.0\°</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>24.112649678737348</c:v>
+                  <c:v>26.29164292820732</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.939082336318858</c:v>
+                  <c:v>21.980409397503998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.687324523880044</c:v>
+                  <c:v>22.023280375049744</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.96269717674069</c:v>
+                  <c:v>26.444678667566279</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.848041074158797</c:v>
+                  <c:v>20.619002986374795</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.160790723904682</c:v>
+                  <c:v>23.294129263050888</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.636497859070143</c:v>
+                  <c:v>26.923804197860477</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.627669603457491</c:v>
+                  <c:v>22.608182097740489</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.153130118841794</c:v>
+                  <c:v>23.99632210560576</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.448824737011762</c:v>
+                  <c:v>22.946105290022043</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25.40101835148625</c:v>
+                  <c:v>25.927609353256084</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23.203890246074106</c:v>
+                  <c:v>20.640877730084302</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22.037040808821509</c:v>
+                  <c:v>22.309443515369203</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22.370824858105948</c:v>
+                  <c:v>23.205777132017261</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.597921160583272</c:v>
+                  <c:v>24.212069938011897</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25.95345601424323</c:v>
+                  <c:v>26.238973074701171</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.112840744803467</c:v>
+                  <c:v>21.656832556975267</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>25.356042698542961</c:v>
+                  <c:v>21.09705838443691</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>25.109909063409845</c:v>
+                  <c:v>20.267433389093803</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>23.834575155248814</c:v>
+                  <c:v>25.616796626350393</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>26.92445576075157</c:v>
+                  <c:v>20.787896932409424</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24.76099448325008</c:v>
+                  <c:v>24.109534272730262</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.147354595094253</c:v>
+                  <c:v>21.811871356961195</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>21.307520092756285</c:v>
+                  <c:v>22.6244478900276</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.916881051482104</c:v>
+                  <c:v>20.494783905159426</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>24.971805034723488</c:v>
+                  <c:v>25.892007475392727</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21.365643480288945</c:v>
+                  <c:v>25.713947328439993</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>24.466125517261535</c:v>
+                  <c:v>21.37711179097397</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>22.862882550237291</c:v>
+                  <c:v>26.967853033009725</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>25.989758300277749</c:v>
+                  <c:v>23.175323219396976</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>23.849877044206192</c:v>
+                  <c:v>24.345970625472802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -410,6 +475,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -429,7 +495,7 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -469,7 +535,8 @@
         <c:axId val="379512400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="18"/>
+          <c:max val="30"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -499,7 +566,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="0.0\°" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1171,15 +1238,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>176211</xdr:rowOff>
+      <xdr:colOff>268094</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>522621</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>187772</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1504,1411 +1571,1426 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F80F733-13BE-4CD8-87FA-4678D668E983}">
-  <dimension ref="A1:E388"/>
+  <dimension ref="A1:J388"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11" style="3" customWidth="1"/>
+    <col min="7" max="8" width="11.7109375" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="E1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <f ca="1">RANDBETWEEN(20,26)+RAND()</f>
-        <v>24.112649678737348</v>
-      </c>
-      <c r="D2" t="s">
+        <v>26.29164292820732</v>
+      </c>
+      <c r="E2" s="5">
+        <f ca="1">_xlfn.QUARTILE.EXC($B$2:$B$32,3)</f>
+        <v>25.713947328439993</v>
+      </c>
+      <c r="F2" s="5">
+        <f ca="1">MIN($B$2:$B$32)</f>
+        <v>20.267433389093803</v>
+      </c>
+      <c r="G2" s="5">
+        <f ca="1">AVERAGE($B$2:$B$32)</f>
+        <v>23.406489575459748</v>
+      </c>
+      <c r="H2" s="5">
+        <f ca="1">MEDIAN($B$2:$B$32)</f>
+        <v>23.175323219396976</v>
+      </c>
+      <c r="I2" s="5">
+        <f ca="1">MAX($B$2:$B$32)</f>
+        <v>26.967853033009725</v>
+      </c>
+      <c r="J2" s="5">
+        <f ca="1">_xlfn.QUARTILE.EXC($B$2:$B$32,1)</f>
+        <v>21.656832556975267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="E2" s="2">
-        <f ca="1">MIN($B$2:$B$32)</f>
-        <v>20.597921160583272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <f t="shared" ref="B3:B32" ca="1" si="0">RANDBETWEEN(20,26)+RAND()</f>
-        <v>20.939082336318858</v>
-      </c>
-      <c r="D3" t="s">
+        <v>21.980409397503998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>22.023280375049744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>26.444678667566279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>20.619002986374795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>23.294129263050888</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="E3" s="2">
-        <f ca="1">MAX($B$2:$B$32)</f>
-        <v>26.92445576075157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="B8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>21.687324523880044</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2">
-        <f ca="1">AVERAGE($B$2:$B$32)</f>
-        <v>23.745726607863563</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
+        <v>26.923804197860477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>20.96269717674069</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2">
-        <f ca="1">MEDIAN($B$2:$B$32)</f>
-        <v>23.849877044206192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
+        <v>22.608182097740489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>24.848041074158797</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2">
-        <f ca="1">_xlfn.QUARTILE.EXC($B$2:$B$32,1)</f>
-        <v>22.037040808821509</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
+        <v>23.99632210560576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>26.160790723904682</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2">
-        <f ca="1">_xlfn.QUARTILE.EXC($B$2:$B$32,3)</f>
-        <v>25.356042698542961</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
+        <v>22.946105290022043</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>25.636497859070143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
+        <v>25.927609353256084</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>21.627669603457491</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
+        <v>20.640877730084302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>24.153130118841794</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
+        <v>22.309443515369203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>23.448824737011762</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
+        <v>23.205777132017261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>25.40101835148625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
+        <v>24.212069938011897</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>23.203890246074106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
+        <v>26.238973074701171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>22.037040808821509</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
+        <v>21.656832556975267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>22.370824858105948</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
+        <v>21.09705838443691</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>20.597921160583272</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
+        <v>20.267433389093803</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>25.95345601424323</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
+        <v>25.616796626350393</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>23.112840744803467</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
+        <v>20.787896932409424</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>25.356042698542961</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
+        <v>24.109534272730262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>25.109909063409845</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2">
+        <v>21.811871356961195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>23.834575155248814</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2">
+        <v>22.6244478900276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>26.92445576075157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2">
+        <v>20.494783905159426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>24.76099448325008</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2">
+        <v>25.892007475392727</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>23.147354595094253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2">
+        <v>25.713947328439993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>21.307520092756285</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2">
+        <v>21.37711179097397</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>25.916881051482104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2">
+        <v>26.967853033009725</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>24.971805034723488</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2">
+        <v>23.175323219396976</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>21.365643480288945</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>24.466125517261535</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>22.862882550237291</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>25.989758300277749</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>23.849877044206192</v>
-      </c>
+        <v>24.345970625472802</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
+      <c r="B33" s="6"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
+      <c r="B34" s="6"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
+      <c r="B35" s="6"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
+      <c r="B36" s="6"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
+      <c r="B37" s="6"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
+      <c r="B38" s="6"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
+      <c r="B39" s="6"/>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
+      <c r="B40" s="6"/>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
+      <c r="B41" s="6"/>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
+      <c r="B42" s="6"/>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
+      <c r="B43" s="6"/>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
+      <c r="B44" s="6"/>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="1"/>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="1"/>
+      <c r="B52" s="6"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
+      <c r="B53" s="6"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="1"/>
+      <c r="B54" s="6"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="1"/>
+      <c r="B55" s="6"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="1"/>
+      <c r="B56" s="6"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="1"/>
+      <c r="B57" s="6"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
+      <c r="B58" s="6"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="1"/>
+      <c r="B59" s="6"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="1"/>
+      <c r="B60" s="6"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="1"/>
+      <c r="B61" s="6"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="1"/>
+      <c r="B62" s="6"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="1"/>
+      <c r="B63" s="6"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="1"/>
+      <c r="B64" s="6"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="1"/>
+      <c r="B65" s="6"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="1"/>
+      <c r="B66" s="6"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="1"/>
+      <c r="B67" s="6"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="1"/>
+      <c r="B68" s="6"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="1"/>
+      <c r="B69" s="6"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="1"/>
+      <c r="B70" s="6"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="1"/>
+      <c r="B71" s="6"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="1"/>
+      <c r="B72" s="6"/>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="1"/>
+      <c r="B73" s="6"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="1"/>
+      <c r="B74" s="6"/>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="1"/>
+      <c r="B75" s="6"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="1"/>
+      <c r="B76" s="6"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="1"/>
+      <c r="B77" s="6"/>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="1"/>
+      <c r="B78" s="6"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="1"/>
+      <c r="B79" s="6"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="1"/>
+      <c r="B80" s="6"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="1"/>
+      <c r="B81" s="6"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="1"/>
+      <c r="B82" s="6"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="B83" s="6"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="B84" s="6"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="B85" s="6"/>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="B86" s="6"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="B87" s="6"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="B88" s="6"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="B89" s="6"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="B90" s="6"/>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="B91" s="6"/>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="B92" s="6"/>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="B93" s="6"/>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="B94" s="6"/>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="B95" s="6"/>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
+      <c r="B96" s="6"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
+      <c r="B97" s="6"/>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
+      <c r="B98" s="6"/>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
+      <c r="B99" s="6"/>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
+      <c r="B100" s="6"/>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
+      <c r="B101" s="6"/>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
+      <c r="B102" s="6"/>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
+      <c r="B103" s="6"/>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
+      <c r="B104" s="6"/>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
+      <c r="B105" s="6"/>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
+      <c r="B106" s="6"/>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
+      <c r="B107" s="6"/>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="1"/>
+      <c r="B108" s="6"/>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="1"/>
+      <c r="B109" s="6"/>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="1"/>
+      <c r="B110" s="6"/>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="1"/>
+      <c r="B111" s="6"/>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="1"/>
+      <c r="B112" s="6"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="1"/>
+      <c r="B113" s="6"/>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="1"/>
+      <c r="B114" s="6"/>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="1"/>
+      <c r="B115" s="6"/>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="1"/>
+      <c r="B116" s="6"/>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="1"/>
+      <c r="B117" s="6"/>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="1"/>
+      <c r="B118" s="6"/>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="1"/>
+      <c r="B119" s="6"/>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="1"/>
+      <c r="B120" s="6"/>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="1"/>
+      <c r="B121" s="6"/>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="1"/>
+      <c r="B122" s="6"/>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="1"/>
+      <c r="B123" s="6"/>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="1"/>
+      <c r="B124" s="6"/>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="1"/>
+      <c r="B125" s="6"/>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="1"/>
+      <c r="B126" s="6"/>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="1"/>
+      <c r="B127" s="6"/>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" s="1"/>
+      <c r="B128" s="6"/>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="1"/>
+      <c r="B129" s="6"/>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="1"/>
+      <c r="B130" s="6"/>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="1"/>
+      <c r="B131" s="6"/>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="1"/>
+      <c r="B132" s="6"/>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="1"/>
+      <c r="B133" s="6"/>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="1"/>
+      <c r="B134" s="6"/>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="1"/>
+      <c r="B135" s="6"/>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="1"/>
+      <c r="B136" s="6"/>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" s="1"/>
+      <c r="B137" s="6"/>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" s="1"/>
+      <c r="B138" s="6"/>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" s="1"/>
+      <c r="B139" s="6"/>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="1"/>
+      <c r="B140" s="6"/>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B141" s="1"/>
+      <c r="B141" s="6"/>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B142" s="1"/>
+      <c r="B142" s="6"/>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B143" s="1"/>
+      <c r="B143" s="6"/>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B144" s="1"/>
+      <c r="B144" s="6"/>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="1"/>
+      <c r="B145" s="6"/>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" s="1"/>
+      <c r="B146" s="6"/>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" s="1"/>
+      <c r="B147" s="6"/>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" s="1"/>
+      <c r="B148" s="6"/>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" s="1"/>
+      <c r="B149" s="6"/>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="1"/>
+      <c r="B150" s="6"/>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" s="1"/>
+      <c r="B151" s="6"/>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B152" s="1"/>
+      <c r="B152" s="6"/>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" s="1"/>
+      <c r="B153" s="6"/>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B154" s="1"/>
+      <c r="B154" s="6"/>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B155" s="1"/>
+      <c r="B155" s="6"/>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B156" s="1"/>
+      <c r="B156" s="6"/>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B157" s="1"/>
+      <c r="B157" s="6"/>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B158" s="1"/>
+      <c r="B158" s="6"/>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B159" s="1"/>
+      <c r="B159" s="6"/>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B160" s="1"/>
+      <c r="B160" s="6"/>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B161" s="1"/>
+      <c r="B161" s="6"/>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B162" s="1"/>
+      <c r="B162" s="6"/>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B163" s="1"/>
+      <c r="B163" s="6"/>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B164" s="1"/>
+      <c r="B164" s="6"/>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B165" s="1"/>
+      <c r="B165" s="6"/>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B166" s="1"/>
+      <c r="B166" s="6"/>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B167" s="1"/>
+      <c r="B167" s="6"/>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B168" s="1"/>
+      <c r="B168" s="6"/>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B169" s="1"/>
+      <c r="B169" s="6"/>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B170" s="1"/>
+      <c r="B170" s="6"/>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B171" s="1"/>
+      <c r="B171" s="6"/>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B172" s="1"/>
+      <c r="B172" s="6"/>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B173" s="1"/>
+      <c r="B173" s="6"/>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B174" s="1"/>
+      <c r="B174" s="6"/>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B175" s="1"/>
+      <c r="B175" s="6"/>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B176" s="1"/>
+      <c r="B176" s="6"/>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B177" s="1"/>
+      <c r="B177" s="6"/>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B178" s="1"/>
+      <c r="B178" s="6"/>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B179" s="1"/>
+      <c r="B179" s="6"/>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B180" s="1"/>
+      <c r="B180" s="6"/>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B181" s="1"/>
+      <c r="B181" s="6"/>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B182" s="1"/>
+      <c r="B182" s="6"/>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B183" s="1"/>
+      <c r="B183" s="6"/>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B184" s="1"/>
+      <c r="B184" s="6"/>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B185" s="1"/>
+      <c r="B185" s="6"/>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B186" s="1"/>
+      <c r="B186" s="6"/>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B187" s="1"/>
+      <c r="B187" s="6"/>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B188" s="1"/>
+      <c r="B188" s="6"/>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B189" s="1"/>
+      <c r="B189" s="6"/>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B190" s="1"/>
+      <c r="B190" s="6"/>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B191" s="1"/>
+      <c r="B191" s="6"/>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B192" s="1"/>
+      <c r="B192" s="6"/>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B193" s="1"/>
+      <c r="B193" s="6"/>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B194" s="1"/>
+      <c r="B194" s="6"/>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B195" s="1"/>
+      <c r="B195" s="6"/>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B196" s="1"/>
+      <c r="B196" s="6"/>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B197" s="1"/>
+      <c r="B197" s="6"/>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B198" s="1"/>
+      <c r="B198" s="6"/>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B199" s="1"/>
+      <c r="B199" s="6"/>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B200" s="1"/>
+      <c r="B200" s="6"/>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B201" s="1"/>
+      <c r="B201" s="6"/>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B202" s="1"/>
+      <c r="B202" s="6"/>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B203" s="1"/>
+      <c r="B203" s="6"/>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B204" s="1"/>
+      <c r="B204" s="6"/>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B205" s="1"/>
+      <c r="B205" s="6"/>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B206" s="1"/>
+      <c r="B206" s="6"/>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B207" s="1"/>
+      <c r="B207" s="6"/>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B208" s="1"/>
+      <c r="B208" s="6"/>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B209" s="1"/>
+      <c r="B209" s="6"/>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B210" s="1"/>
+      <c r="B210" s="6"/>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B211" s="1"/>
+      <c r="B211" s="6"/>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B212" s="1"/>
+      <c r="B212" s="6"/>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B213" s="1"/>
+      <c r="B213" s="6"/>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B214" s="1"/>
+      <c r="B214" s="6"/>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B215" s="1"/>
+      <c r="B215" s="6"/>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B216" s="1"/>
+      <c r="B216" s="6"/>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B217" s="1"/>
+      <c r="B217" s="6"/>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B218" s="1"/>
+      <c r="B218" s="6"/>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B219" s="1"/>
+      <c r="B219" s="6"/>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B220" s="1"/>
+      <c r="B220" s="6"/>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B221" s="1"/>
+      <c r="B221" s="6"/>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B222" s="1"/>
+      <c r="B222" s="6"/>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B223" s="1"/>
+      <c r="B223" s="6"/>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B224" s="1"/>
+      <c r="B224" s="6"/>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B225" s="1"/>
+      <c r="B225" s="6"/>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B226" s="1"/>
+      <c r="B226" s="6"/>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B227" s="1"/>
+      <c r="B227" s="6"/>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B228" s="1"/>
+      <c r="B228" s="6"/>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B229" s="1"/>
+      <c r="B229" s="6"/>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B230" s="1"/>
+      <c r="B230" s="6"/>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B231" s="1"/>
+      <c r="B231" s="6"/>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B232" s="1"/>
+      <c r="B232" s="6"/>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B233" s="1"/>
+      <c r="B233" s="6"/>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B234" s="1"/>
+      <c r="B234" s="6"/>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B235" s="1"/>
+      <c r="B235" s="6"/>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B236" s="1"/>
+      <c r="B236" s="6"/>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B237" s="1"/>
+      <c r="B237" s="6"/>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B238" s="1"/>
+      <c r="B238" s="6"/>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B239" s="1"/>
+      <c r="B239" s="6"/>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B240" s="1"/>
+      <c r="B240" s="6"/>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B241" s="1"/>
+      <c r="B241" s="6"/>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B242" s="1"/>
+      <c r="B242" s="6"/>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B243" s="1"/>
+      <c r="B243" s="6"/>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B244" s="1"/>
+      <c r="B244" s="6"/>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B245" s="1"/>
+      <c r="B245" s="6"/>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B246" s="1"/>
+      <c r="B246" s="6"/>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B247" s="1"/>
+      <c r="B247" s="6"/>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B248" s="1"/>
+      <c r="B248" s="6"/>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B249" s="1"/>
+      <c r="B249" s="6"/>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B250" s="1"/>
+      <c r="B250" s="6"/>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B251" s="1"/>
+      <c r="B251" s="6"/>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B252" s="1"/>
+      <c r="B252" s="6"/>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B253" s="1"/>
+      <c r="B253" s="6"/>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B254" s="1"/>
+      <c r="B254" s="6"/>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B255" s="1"/>
+      <c r="B255" s="6"/>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B256" s="1"/>
+      <c r="B256" s="6"/>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B257" s="1"/>
+      <c r="B257" s="6"/>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B258" s="1"/>
+      <c r="B258" s="6"/>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B259" s="1"/>
+      <c r="B259" s="6"/>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B260" s="1"/>
+      <c r="B260" s="6"/>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B261" s="1"/>
+      <c r="B261" s="6"/>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B262" s="1"/>
+      <c r="B262" s="6"/>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B263" s="1"/>
+      <c r="B263" s="6"/>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B264" s="1"/>
+      <c r="B264" s="6"/>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B265" s="1"/>
+      <c r="B265" s="6"/>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B266" s="1"/>
+      <c r="B266" s="6"/>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B267" s="1"/>
+      <c r="B267" s="6"/>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B268" s="1"/>
+      <c r="B268" s="6"/>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B269" s="1"/>
+      <c r="B269" s="6"/>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B270" s="1"/>
+      <c r="B270" s="6"/>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B271" s="1"/>
+      <c r="B271" s="6"/>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B272" s="1"/>
+      <c r="B272" s="6"/>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B273" s="1"/>
+      <c r="B273" s="6"/>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B274" s="1"/>
+      <c r="B274" s="6"/>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B275" s="1"/>
+      <c r="B275" s="6"/>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B276" s="1"/>
+      <c r="B276" s="6"/>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B277" s="1"/>
+      <c r="B277" s="6"/>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B278" s="1"/>
+      <c r="B278" s="6"/>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B279" s="1"/>
+      <c r="B279" s="6"/>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B280" s="1"/>
+      <c r="B280" s="6"/>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B281" s="1"/>
+      <c r="B281" s="6"/>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B282" s="1"/>
+      <c r="B282" s="6"/>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B283" s="1"/>
+      <c r="B283" s="6"/>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B284" s="1"/>
+      <c r="B284" s="6"/>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B285" s="1"/>
+      <c r="B285" s="6"/>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B286" s="1"/>
+      <c r="B286" s="6"/>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B287" s="1"/>
+      <c r="B287" s="6"/>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B288" s="1"/>
+      <c r="B288" s="6"/>
     </row>
     <row r="289" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B289" s="1"/>
+      <c r="B289" s="6"/>
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B290" s="1"/>
+      <c r="B290" s="6"/>
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B291" s="1"/>
+      <c r="B291" s="6"/>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B292" s="1"/>
+      <c r="B292" s="6"/>
     </row>
     <row r="293" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B293" s="1"/>
+      <c r="B293" s="6"/>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B294" s="1"/>
+      <c r="B294" s="6"/>
     </row>
     <row r="295" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B295" s="1"/>
+      <c r="B295" s="6"/>
     </row>
     <row r="296" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B296" s="1"/>
+      <c r="B296" s="6"/>
     </row>
     <row r="297" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B297" s="1"/>
+      <c r="B297" s="6"/>
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B298" s="1"/>
+      <c r="B298" s="6"/>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B299" s="1"/>
+      <c r="B299" s="6"/>
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B300" s="1"/>
+      <c r="B300" s="6"/>
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B301" s="1"/>
+      <c r="B301" s="6"/>
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B302" s="1"/>
+      <c r="B302" s="6"/>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B303" s="1"/>
+      <c r="B303" s="6"/>
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B304" s="1"/>
+      <c r="B304" s="6"/>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B305" s="1"/>
+      <c r="B305" s="6"/>
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B306" s="1"/>
+      <c r="B306" s="6"/>
     </row>
     <row r="307" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B307" s="1"/>
+      <c r="B307" s="6"/>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B308" s="1"/>
+      <c r="B308" s="6"/>
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B309" s="1"/>
+      <c r="B309" s="6"/>
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B310" s="1"/>
+      <c r="B310" s="6"/>
     </row>
     <row r="311" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B311" s="1"/>
+      <c r="B311" s="6"/>
     </row>
     <row r="312" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B312" s="1"/>
+      <c r="B312" s="6"/>
     </row>
     <row r="313" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B313" s="1"/>
+      <c r="B313" s="6"/>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B314" s="1"/>
+      <c r="B314" s="6"/>
     </row>
     <row r="315" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B315" s="1"/>
+      <c r="B315" s="6"/>
     </row>
     <row r="316" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B316" s="1"/>
+      <c r="B316" s="6"/>
     </row>
     <row r="317" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B317" s="1"/>
+      <c r="B317" s="6"/>
     </row>
     <row r="318" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B318" s="1"/>
+      <c r="B318" s="6"/>
     </row>
     <row r="319" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B319" s="1"/>
+      <c r="B319" s="6"/>
     </row>
     <row r="320" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B320" s="1"/>
+      <c r="B320" s="6"/>
     </row>
     <row r="321" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B321" s="1"/>
+      <c r="B321" s="6"/>
     </row>
     <row r="322" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B322" s="1"/>
+      <c r="B322" s="6"/>
     </row>
     <row r="323" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B323" s="1"/>
+      <c r="B323" s="6"/>
     </row>
     <row r="324" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B324" s="1"/>
+      <c r="B324" s="6"/>
     </row>
     <row r="325" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B325" s="1"/>
+      <c r="B325" s="6"/>
     </row>
     <row r="326" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B326" s="1"/>
+      <c r="B326" s="6"/>
     </row>
     <row r="327" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B327" s="1"/>
+      <c r="B327" s="6"/>
     </row>
     <row r="328" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B328" s="1"/>
+      <c r="B328" s="6"/>
     </row>
     <row r="329" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B329" s="1"/>
+      <c r="B329" s="6"/>
     </row>
     <row r="330" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B330" s="1"/>
+      <c r="B330" s="6"/>
     </row>
     <row r="331" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B331" s="1"/>
+      <c r="B331" s="6"/>
     </row>
     <row r="332" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B332" s="1"/>
+      <c r="B332" s="6"/>
     </row>
     <row r="333" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B333" s="1"/>
+      <c r="B333" s="6"/>
     </row>
     <row r="334" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B334" s="1"/>
+      <c r="B334" s="6"/>
     </row>
     <row r="335" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B335" s="1"/>
+      <c r="B335" s="6"/>
     </row>
     <row r="336" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B336" s="1"/>
+      <c r="B336" s="6"/>
     </row>
     <row r="337" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B337" s="1"/>
+      <c r="B337" s="6"/>
     </row>
     <row r="338" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B338" s="1"/>
+      <c r="B338" s="6"/>
     </row>
     <row r="339" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B339" s="1"/>
+      <c r="B339" s="6"/>
     </row>
     <row r="340" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B340" s="1"/>
+      <c r="B340" s="6"/>
     </row>
     <row r="341" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B341" s="1"/>
+      <c r="B341" s="6"/>
     </row>
     <row r="342" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B342" s="1"/>
+      <c r="B342" s="6"/>
     </row>
     <row r="343" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B343" s="1"/>
+      <c r="B343" s="6"/>
     </row>
     <row r="344" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B344" s="1"/>
+      <c r="B344" s="6"/>
     </row>
     <row r="345" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B345" s="1"/>
+      <c r="B345" s="6"/>
     </row>
     <row r="346" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B346" s="1"/>
+      <c r="B346" s="6"/>
     </row>
     <row r="347" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B347" s="1"/>
+      <c r="B347" s="6"/>
     </row>
     <row r="348" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B348" s="1"/>
+      <c r="B348" s="6"/>
     </row>
     <row r="349" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B349" s="1"/>
+      <c r="B349" s="6"/>
     </row>
     <row r="350" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B350" s="1"/>
+      <c r="B350" s="6"/>
     </row>
     <row r="351" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B351" s="1"/>
+      <c r="B351" s="6"/>
     </row>
     <row r="352" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B352" s="1"/>
+      <c r="B352" s="6"/>
     </row>
     <row r="353" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B353" s="1"/>
+      <c r="B353" s="6"/>
     </row>
     <row r="354" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B354" s="1"/>
+      <c r="B354" s="6"/>
     </row>
     <row r="355" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B355" s="1"/>
+      <c r="B355" s="6"/>
     </row>
     <row r="356" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B356" s="1"/>
+      <c r="B356" s="6"/>
     </row>
     <row r="357" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B357" s="1"/>
+      <c r="B357" s="6"/>
     </row>
     <row r="358" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B358" s="1"/>
+      <c r="B358" s="6"/>
     </row>
     <row r="359" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B359" s="1"/>
+      <c r="B359" s="6"/>
     </row>
     <row r="360" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B360" s="1"/>
+      <c r="B360" s="6"/>
     </row>
     <row r="361" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B361" s="1"/>
+      <c r="B361" s="6"/>
     </row>
     <row r="362" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B362" s="1"/>
+      <c r="B362" s="6"/>
     </row>
     <row r="363" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B363" s="1"/>
+      <c r="B363" s="6"/>
     </row>
     <row r="364" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B364" s="1"/>
+      <c r="B364" s="6"/>
     </row>
     <row r="365" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B365" s="1"/>
+      <c r="B365" s="6"/>
     </row>
     <row r="366" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B366" s="1"/>
+      <c r="B366" s="6"/>
     </row>
     <row r="367" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B367" s="1"/>
+      <c r="B367" s="6"/>
     </row>
     <row r="368" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B368" s="1"/>
+      <c r="B368" s="6"/>
     </row>
     <row r="369" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B369" s="1"/>
+      <c r="B369" s="6"/>
     </row>
     <row r="370" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B370" s="1"/>
+      <c r="B370" s="6"/>
     </row>
     <row r="371" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B371" s="1"/>
+      <c r="B371" s="6"/>
     </row>
     <row r="372" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B372" s="1"/>
+      <c r="B372" s="6"/>
     </row>
     <row r="373" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B373" s="1"/>
+      <c r="B373" s="6"/>
     </row>
     <row r="374" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B374" s="1"/>
+      <c r="B374" s="6"/>
     </row>
     <row r="375" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B375" s="1"/>
+      <c r="B375" s="6"/>
     </row>
     <row r="376" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B376" s="1"/>
+      <c r="B376" s="6"/>
     </row>
     <row r="377" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B377" s="1"/>
+      <c r="B377" s="6"/>
     </row>
     <row r="378" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B378" s="1"/>
+      <c r="B378" s="6"/>
     </row>
     <row r="379" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B379" s="1"/>
+      <c r="B379" s="6"/>
     </row>
     <row r="380" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B380" s="1"/>
+      <c r="B380" s="6"/>
     </row>
     <row r="381" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B381" s="1"/>
+      <c r="B381" s="6"/>
     </row>
     <row r="382" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B382" s="1"/>
+      <c r="B382" s="6"/>
     </row>
     <row r="383" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B383" s="1"/>
+      <c r="B383" s="6"/>
     </row>
     <row r="384" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B384" s="1"/>
+      <c r="B384" s="6"/>
     </row>
     <row r="385" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B385" s="1"/>
+      <c r="B385" s="6"/>
     </row>
     <row r="386" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B386" s="1"/>
+      <c r="B386" s="6"/>
     </row>
     <row r="387" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B387" s="1"/>
+      <c r="B387" s="6"/>
     </row>
     <row r="388" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B388" s="1"/>
+      <c r="B388" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/SPRINT2/Gráfico de dados - Arq Comp.xlsx
+++ b/SPRINT2/Gráfico de dados - Arq Comp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d42371d61bd3278c/Área de Trabalho/Sprint 2/TECCHICKEN/SPRINT2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{62474EAC-AE3B-4880-98EA-58B4B340A074}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B20A49AD-6552-494A-B5E7-5FB14BD696A8}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="8_{62474EAC-AE3B-4880-98EA-58B4B340A074}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5419DE0A-71C4-4AA9-B632-075313D81FF9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C8895A7-3856-42C1-B635-8216F5FF32B9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C8895A7-3856-42C1-B635-8216F5FF32B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Coleta de dados" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Dia</t>
   </si>
@@ -59,13 +59,25 @@
   <si>
     <t>Máximo</t>
   </si>
+  <si>
+    <t>Máxima</t>
+  </si>
+  <si>
+    <t>Mínima</t>
+  </si>
+  <si>
+    <t>Alerta Frio</t>
+  </si>
+  <si>
+    <t>Alerta Calor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0\°"/>
+    <numFmt numFmtId="164" formatCode="0.0\°"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -96,10 +108,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -131,36 +144,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -183,16 +167,13 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FFFF00"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="FFFF00"/>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
@@ -307,97 +288,97 @@
                 <c:formatCode>0.0\°</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>24.112649678737348</c:v>
+                  <c:v>24.798883012865844</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.939082336318858</c:v>
+                  <c:v>17.633510891089248</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.687324523880044</c:v>
+                  <c:v>19.807185671732061</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.96269717674069</c:v>
+                  <c:v>18.909111588528773</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.848041074158797</c:v>
+                  <c:v>21.26122502837104</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.160790723904682</c:v>
+                  <c:v>24.735618782222332</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.636497859070143</c:v>
+                  <c:v>21.087346423085918</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.627669603457491</c:v>
+                  <c:v>29.520977587645035</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.153130118841794</c:v>
+                  <c:v>22.444286235758799</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.448824737011762</c:v>
+                  <c:v>23.227402693473664</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25.40101835148625</c:v>
+                  <c:v>26.384811095866812</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23.203890246074106</c:v>
+                  <c:v>26.40915824339962</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22.037040808821509</c:v>
+                  <c:v>18.123844913229291</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22.370824858105948</c:v>
+                  <c:v>17.651255922921813</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.597921160583272</c:v>
+                  <c:v>18.235545714696002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25.95345601424323</c:v>
+                  <c:v>30.059837506566769</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.112840744803467</c:v>
+                  <c:v>29.999182328875623</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>25.356042698542961</c:v>
+                  <c:v>28.170521915372174</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>25.109909063409845</c:v>
+                  <c:v>18.617090417340926</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>23.834575155248814</c:v>
+                  <c:v>17.631286592108996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>26.92445576075157</c:v>
+                  <c:v>29.401324904698317</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24.76099448325008</c:v>
+                  <c:v>19.284256927495331</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.147354595094253</c:v>
+                  <c:v>23.345928196603666</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>21.307520092756285</c:v>
+                  <c:v>28.917807661485547</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.916881051482104</c:v>
+                  <c:v>20.764389682932986</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>24.971805034723488</c:v>
+                  <c:v>25.560640473301554</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21.365643480288945</c:v>
+                  <c:v>20.851623861806893</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>24.466125517261535</c:v>
+                  <c:v>23.163831209910462</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>22.862882550237291</c:v>
+                  <c:v>19.06850574537193</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>25.989758300277749</c:v>
+                  <c:v>24.395595807036148</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>23.849877044206192</c:v>
+                  <c:v>20.846796140438599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -406,6 +387,555 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CCF9-4B81-A218-5046A5E46396}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Coleta de dados'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mínima</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="002060"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Coleta de dados'!$C$3:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0\°</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6B0A-4A1D-9B00-9B83B4FA799B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Coleta de dados'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Máxima</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="FF0000"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Coleta de dados'!$D$2:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0\°</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6B0A-4A1D-9B00-9B83B4FA799B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Coleta de dados'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alerta Frio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="00B0F0"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Coleta de dados'!$E$2:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0\°</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>19.06850574537193</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.06850574537193</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.06850574537193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.06850574537193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.06850574537193</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.06850574537193</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.06850574537193</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.06850574537193</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.06850574537193</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.06850574537193</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.06850574537193</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.06850574537193</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.06850574537193</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.06850574537193</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.06850574537193</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.06850574537193</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.06850574537193</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.06850574537193</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.06850574537193</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.06850574537193</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.06850574537193</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.06850574537193</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19.06850574537193</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19.06850574537193</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.06850574537193</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19.06850574537193</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19.06850574537193</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19.06850574537193</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>19.06850574537193</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.06850574537193</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.06850574537193</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6B0A-4A1D-9B00-9B83B4FA799B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Coleta de dados'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alerta Calor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:schemeClr val="accent2"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Coleta de dados'!$F$2:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0\°</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>26.384811095866812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.384811095866812</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.384811095866812</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.384811095866812</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.384811095866812</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.384811095866812</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.384811095866812</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.384811095866812</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.384811095866812</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.384811095866812</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.384811095866812</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.384811095866812</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.384811095866812</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.384811095866812</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.384811095866812</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26.384811095866812</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26.384811095866812</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26.384811095866812</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26.384811095866812</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.384811095866812</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26.384811095866812</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26.384811095866812</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26.384811095866812</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26.384811095866812</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26.384811095866812</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.384811095866812</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.384811095866812</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>26.384811095866812</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>26.384811095866812</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>26.384811095866812</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>26.384811095866812</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6B0A-4A1D-9B00-9B83B4FA799B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -428,6 +958,59 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1200"/>
+                  <a:t>Dia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -444,7 +1027,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="75000"/>
@@ -469,7 +1052,8 @@
         <c:axId val="379512400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="18"/>
+          <c:max val="38"/>
+          <c:min val="12"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -498,6 +1082,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1200"/>
+                  <a:t>Temperatura</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0\°" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -514,7 +1151,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="75000"/>
@@ -1170,16 +1807,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>176211</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1504,342 +2141,792 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F80F733-13BE-4CD8-87FA-4678D668E983}">
-  <dimension ref="A1:E388"/>
+  <dimension ref="A1:J388"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">RANDBETWEEN(20,26)+RAND()</f>
-        <v>24.112649678737348</v>
-      </c>
-      <c r="D2" t="s">
+        <f ca="1">RANDBETWEEN(16.8,30.9)+RAND()</f>
+        <v>24.798883012865844</v>
+      </c>
+      <c r="C2" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="E2" s="2">
+        <f ca="1">$J$6</f>
+        <v>19.06850574537193</v>
+      </c>
+      <c r="F2" s="2">
+        <f ca="1">$J$7</f>
+        <v>26.384811095866812</v>
+      </c>
+      <c r="I2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="J2" s="2">
         <f ca="1">MIN($B$2:$B$32)</f>
-        <v>20.597921160583272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17.631286592108996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B3:B32" ca="1" si="0">RANDBETWEEN(20,26)+RAND()</f>
-        <v>20.939082336318858</v>
-      </c>
-      <c r="D3" t="s">
+        <f t="shared" ref="B3:B32" ca="1" si="0">RANDBETWEEN(16.8,30.9)+RAND()</f>
+        <v>17.633510891089248</v>
+      </c>
+      <c r="C3" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E32" ca="1" si="1">$J$6</f>
+        <v>19.06850574537193</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F32" ca="1" si="2">$J$7</f>
+        <v>26.384811095866812</v>
+      </c>
+      <c r="I3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2">
+      <c r="J3" s="2">
         <f ca="1">MAX($B$2:$B$32)</f>
-        <v>26.92445576075157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30.059837506566769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>21.687324523880044</v>
-      </c>
-      <c r="D4" t="s">
+        <v>19.807185671732061</v>
+      </c>
+      <c r="C4" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="D4" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.06850574537193</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>26.384811095866812</v>
+      </c>
+      <c r="I4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2">
+      <c r="J4" s="2">
         <f ca="1">AVERAGE($B$2:$B$32)</f>
-        <v>23.745726607863563</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22.913186554072002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.96269717674069</v>
-      </c>
-      <c r="D5" t="s">
+        <v>18.909111588528773</v>
+      </c>
+      <c r="C5" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="D5" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.06850574537193</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>26.384811095866812</v>
+      </c>
+      <c r="I5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="J5" s="2">
         <f ca="1">MEDIAN($B$2:$B$32)</f>
-        <v>23.849877044206192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22.444286235758799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.848041074158797</v>
-      </c>
-      <c r="D6" t="s">
+        <v>21.26122502837104</v>
+      </c>
+      <c r="C6" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="D6" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.06850574537193</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>26.384811095866812</v>
+      </c>
+      <c r="I6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="2">
+      <c r="J6" s="2">
         <f ca="1">_xlfn.QUARTILE.EXC($B$2:$B$32,1)</f>
-        <v>22.037040808821509</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19.06850574537193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>26.160790723904682</v>
-      </c>
-      <c r="D7" t="s">
+        <v>24.735618782222332</v>
+      </c>
+      <c r="C7" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="D7" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.06850574537193</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>26.384811095866812</v>
+      </c>
+      <c r="I7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="2">
+      <c r="J7" s="2">
         <f ca="1">_xlfn.QUARTILE.EXC($B$2:$B$32,3)</f>
-        <v>25.356042698542961</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.384811095866812</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>25.636497859070143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21.087346423085918</v>
+      </c>
+      <c r="C8" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.06850574537193</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>26.384811095866812</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.627669603457491</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.520977587645035</v>
+      </c>
+      <c r="C9" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="D9" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.06850574537193</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>26.384811095866812</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.153130118841794</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22.444286235758799</v>
+      </c>
+      <c r="C10" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="D10" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.06850574537193</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>26.384811095866812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.448824737011762</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23.227402693473664</v>
+      </c>
+      <c r="C11" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="D11" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.06850574537193</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>26.384811095866812</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>25.40101835148625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.384811095866812</v>
+      </c>
+      <c r="C12" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="D12" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.06850574537193</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>26.384811095866812</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.203890246074106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.40915824339962</v>
+      </c>
+      <c r="C13" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="D13" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.06850574537193</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>26.384811095866812</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22.037040808821509</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18.123844913229291</v>
+      </c>
+      <c r="C14" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="D14" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.06850574537193</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>26.384811095866812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22.370824858105948</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17.651255922921813</v>
+      </c>
+      <c r="C15" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="D15" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.06850574537193</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>26.384811095866812</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20.597921160583272</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18.235545714696002</v>
+      </c>
+      <c r="C16" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="D16" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.06850574537193</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>26.384811095866812</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>25.95345601424323</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30.059837506566769</v>
+      </c>
+      <c r="C17" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="D17" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.06850574537193</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>26.384811095866812</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.112840744803467</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29.999182328875623</v>
+      </c>
+      <c r="C18" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="D18" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.06850574537193</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>26.384811095866812</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>25.356042698542961</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28.170521915372174</v>
+      </c>
+      <c r="C19" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="D19" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.06850574537193</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>26.384811095866812</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>25.109909063409845</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18.617090417340926</v>
+      </c>
+      <c r="C20" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="D20" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.06850574537193</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>26.384811095866812</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.834575155248814</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17.631286592108996</v>
+      </c>
+      <c r="C21" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="D21" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.06850574537193</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>26.384811095866812</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>26.92445576075157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29.401324904698317</v>
+      </c>
+      <c r="C22" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="D22" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.06850574537193</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>26.384811095866812</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.76099448325008</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19.284256927495331</v>
+      </c>
+      <c r="C23" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="D23" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.06850574537193</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>26.384811095866812</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.147354595094253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23.345928196603666</v>
+      </c>
+      <c r="C24" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="D24" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.06850574537193</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>26.384811095866812</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.307520092756285</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28.917807661485547</v>
+      </c>
+      <c r="C25" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="D25" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.06850574537193</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>26.384811095866812</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>25.916881051482104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20.764389682932986</v>
+      </c>
+      <c r="C26" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="D26" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.06850574537193</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>26.384811095866812</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.971805034723488</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25.560640473301554</v>
+      </c>
+      <c r="C27" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="D27" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.06850574537193</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>26.384811095866812</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21.365643480288945</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20.851623861806893</v>
+      </c>
+      <c r="C28" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="D28" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.06850574537193</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>26.384811095866812</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24.466125517261535</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23.163831209910462</v>
+      </c>
+      <c r="C29" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="D29" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.06850574537193</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>26.384811095866812</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22.862882550237291</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19.06850574537193</v>
+      </c>
+      <c r="C30" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="D30" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.06850574537193</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>26.384811095866812</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>25.989758300277749</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24.395595807036148</v>
+      </c>
+      <c r="C31" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="D31" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.06850574537193</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>26.384811095866812</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23.849877044206192</v>
+        <v>20.846796140438599</v>
+      </c>
+      <c r="C32" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="D32" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>19.06850574537193</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>26.384811095866812</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">

--- a/SPRINT2/Gráfico de dados - Arq Comp.xlsx
+++ b/SPRINT2/Gráfico de dados - Arq Comp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d42371d61bd3278c/Área de Trabalho/Sprint 2/TECCHICKEN/SPRINT2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="8_{62474EAC-AE3B-4880-98EA-58B4B340A074}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5419DE0A-71C4-4AA9-B632-075313D81FF9}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="8_{62474EAC-AE3B-4880-98EA-58B4B340A074}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F694E97A-6569-4372-AF0F-73CAEE4E337B}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C8895A7-3856-42C1-B635-8216F5FF32B9}"/>
   </bookViews>
@@ -33,8 +33,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={E2B7ECD1-082D-4519-A9EF-1471AC9F7FC4}</author>
+  </authors>
+  <commentList>
+    <comment ref="H32" authorId="0" shapeId="0" xr:uid="{E2B7ECD1-082D-4519-A9EF-1471AC9F7FC4}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Exclua essa célula ;)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Dia</t>
   </si>
@@ -71,6 +89,18 @@
   <si>
     <t>Alerta Calor</t>
   </si>
+  <si>
+    <t>A temperatura está variando entre a mínima e a máxima</t>
+  </si>
+  <si>
+    <t>O valor foi randomizado entre 28° e 41,9°, somando e subtraindo um valor aleatório entre 0 e 1</t>
+  </si>
+  <si>
+    <t>Dessa maneira, é impossível que o valor ultrapasse a máxima e mínima, assim como torna muito difícil que ele atinja os limites</t>
+  </si>
+  <si>
+    <t>Antes de enviar, copie e cole valores na coluna "temperatura", para fixar os valores visualizados</t>
+  </si>
 </sst>
 </file>
 
@@ -79,13 +109,27 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0\°"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,11 +152,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -288,97 +333,97 @@
                 <c:formatCode>0.0\°</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>24.798883012865844</c:v>
+                  <c:v>37.503509029321741</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.633510891089248</c:v>
+                  <c:v>33.588425070288991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.807185671732061</c:v>
+                  <c:v>39.637732064531377</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.909111588528773</c:v>
+                  <c:v>36.744578203232031</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.26122502837104</c:v>
+                  <c:v>31.359144462020332</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.735618782222332</c:v>
+                  <c:v>29.207585041037884</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.087346423085918</c:v>
+                  <c:v>28.529560343941291</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.520977587645035</c:v>
+                  <c:v>39.998552212798522</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.444286235758799</c:v>
+                  <c:v>34.138946204614093</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.227402693473664</c:v>
+                  <c:v>29.745640877766661</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26.384811095866812</c:v>
+                  <c:v>35.477805882374021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26.40915824339962</c:v>
+                  <c:v>29.339821628083371</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.123844913229291</c:v>
+                  <c:v>35.404479487607091</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17.651255922921813</c:v>
+                  <c:v>39.724777064730198</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.235545714696002</c:v>
+                  <c:v>33.81497859106954</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30.059837506566769</c:v>
+                  <c:v>36.690595182917825</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29.999182328875623</c:v>
+                  <c:v>27.713332403866069</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28.170521915372174</c:v>
+                  <c:v>40.673963311034086</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.617090417340926</c:v>
+                  <c:v>33.668152924092141</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.631286592108996</c:v>
+                  <c:v>36.236350017759968</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>29.401324904698317</c:v>
+                  <c:v>32.604872333259152</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>19.284256927495331</c:v>
+                  <c:v>30.86495352433138</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>23.345928196603666</c:v>
+                  <c:v>39.809286571716434</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>28.917807661485547</c:v>
+                  <c:v>36.324516198870285</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20.764389682932986</c:v>
+                  <c:v>30.713275946594752</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25.560640473301554</c:v>
+                  <c:v>28.188801686818447</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20.851623861806893</c:v>
+                  <c:v>28.096411747555006</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>23.163831209910462</c:v>
+                  <c:v>28.05091625805423</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>19.06850574537193</c:v>
+                  <c:v>32.88092762266718</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>24.395595807036148</c:v>
+                  <c:v>28.412874797112519</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>20.846796140438599</c:v>
+                  <c:v>29.892300467329559</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -426,94 +471,94 @@
                 <c:formatCode>0.0\°</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>16.8</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.8</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.8</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.8</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.8</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.8</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.8</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.8</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.8</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.8</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.8</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.8</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16.8</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.8</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16.8</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.8</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16.8</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>16.8</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.8</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>16.8</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>16.8</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>16.8</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>16.8</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>16.8</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>16.8</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>16.8</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>16.8</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>16.8</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>16.8</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>16.8</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -561,97 +606,97 @@
                 <c:formatCode>0.0\°</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>31.9</c:v>
+                  <c:v>42.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.9</c:v>
+                  <c:v>42.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.9</c:v>
+                  <c:v>42.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.9</c:v>
+                  <c:v>42.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.9</c:v>
+                  <c:v>42.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.9</c:v>
+                  <c:v>42.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.9</c:v>
+                  <c:v>42.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.9</c:v>
+                  <c:v>42.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.9</c:v>
+                  <c:v>42.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.9</c:v>
+                  <c:v>42.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.9</c:v>
+                  <c:v>42.9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31.9</c:v>
+                  <c:v>42.9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31.9</c:v>
+                  <c:v>42.9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31.9</c:v>
+                  <c:v>42.9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31.9</c:v>
+                  <c:v>42.9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31.9</c:v>
+                  <c:v>42.9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>31.9</c:v>
+                  <c:v>42.9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>31.9</c:v>
+                  <c:v>42.9</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>31.9</c:v>
+                  <c:v>42.9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31.9</c:v>
+                  <c:v>42.9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31.9</c:v>
+                  <c:v>42.9</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>31.9</c:v>
+                  <c:v>42.9</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>31.9</c:v>
+                  <c:v>42.9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>31.9</c:v>
+                  <c:v>42.9</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>31.9</c:v>
+                  <c:v>42.9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>31.9</c:v>
+                  <c:v>42.9</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>31.9</c:v>
+                  <c:v>42.9</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>31.9</c:v>
+                  <c:v>42.9</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>31.9</c:v>
+                  <c:v>42.9</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>31.9</c:v>
+                  <c:v>42.9</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31.9</c:v>
+                  <c:v>42.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -699,97 +744,97 @@
                 <c:formatCode>0.0\°</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>19.06850574537193</c:v>
+                  <c:v>29.339821628083371</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.06850574537193</c:v>
+                  <c:v>29.339821628083371</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.06850574537193</c:v>
+                  <c:v>29.339821628083371</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.06850574537193</c:v>
+                  <c:v>29.339821628083371</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.06850574537193</c:v>
+                  <c:v>29.339821628083371</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.06850574537193</c:v>
+                  <c:v>29.339821628083371</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.06850574537193</c:v>
+                  <c:v>29.339821628083371</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.06850574537193</c:v>
+                  <c:v>29.339821628083371</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.06850574537193</c:v>
+                  <c:v>29.339821628083371</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.06850574537193</c:v>
+                  <c:v>29.339821628083371</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19.06850574537193</c:v>
+                  <c:v>29.339821628083371</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.06850574537193</c:v>
+                  <c:v>29.339821628083371</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.06850574537193</c:v>
+                  <c:v>29.339821628083371</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19.06850574537193</c:v>
+                  <c:v>29.339821628083371</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.06850574537193</c:v>
+                  <c:v>29.339821628083371</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19.06850574537193</c:v>
+                  <c:v>29.339821628083371</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19.06850574537193</c:v>
+                  <c:v>29.339821628083371</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.06850574537193</c:v>
+                  <c:v>29.339821628083371</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.06850574537193</c:v>
+                  <c:v>29.339821628083371</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19.06850574537193</c:v>
+                  <c:v>29.339821628083371</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>19.06850574537193</c:v>
+                  <c:v>29.339821628083371</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>19.06850574537193</c:v>
+                  <c:v>29.339821628083371</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19.06850574537193</c:v>
+                  <c:v>29.339821628083371</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>19.06850574537193</c:v>
+                  <c:v>29.339821628083371</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.06850574537193</c:v>
+                  <c:v>29.339821628083371</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>19.06850574537193</c:v>
+                  <c:v>29.339821628083371</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>19.06850574537193</c:v>
+                  <c:v>29.339821628083371</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>19.06850574537193</c:v>
+                  <c:v>29.339821628083371</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>19.06850574537193</c:v>
+                  <c:v>29.339821628083371</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>19.06850574537193</c:v>
+                  <c:v>29.339821628083371</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>19.06850574537193</c:v>
+                  <c:v>29.339821628083371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -837,97 +882,97 @@
                 <c:formatCode>0.0\°</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>26.384811095866812</c:v>
+                  <c:v>36.690595182917825</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.384811095866812</c:v>
+                  <c:v>36.690595182917825</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.384811095866812</c:v>
+                  <c:v>36.690595182917825</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.384811095866812</c:v>
+                  <c:v>36.690595182917825</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26.384811095866812</c:v>
+                  <c:v>36.690595182917825</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.384811095866812</c:v>
+                  <c:v>36.690595182917825</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.384811095866812</c:v>
+                  <c:v>36.690595182917825</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.384811095866812</c:v>
+                  <c:v>36.690595182917825</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.384811095866812</c:v>
+                  <c:v>36.690595182917825</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26.384811095866812</c:v>
+                  <c:v>36.690595182917825</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26.384811095866812</c:v>
+                  <c:v>36.690595182917825</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26.384811095866812</c:v>
+                  <c:v>36.690595182917825</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26.384811095866812</c:v>
+                  <c:v>36.690595182917825</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.384811095866812</c:v>
+                  <c:v>36.690595182917825</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26.384811095866812</c:v>
+                  <c:v>36.690595182917825</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>26.384811095866812</c:v>
+                  <c:v>36.690595182917825</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>26.384811095866812</c:v>
+                  <c:v>36.690595182917825</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>26.384811095866812</c:v>
+                  <c:v>36.690595182917825</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26.384811095866812</c:v>
+                  <c:v>36.690595182917825</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26.384811095866812</c:v>
+                  <c:v>36.690595182917825</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>26.384811095866812</c:v>
+                  <c:v>36.690595182917825</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>26.384811095866812</c:v>
+                  <c:v>36.690595182917825</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>26.384811095866812</c:v>
+                  <c:v>36.690595182917825</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26.384811095866812</c:v>
+                  <c:v>36.690595182917825</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>26.384811095866812</c:v>
+                  <c:v>36.690595182917825</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26.384811095866812</c:v>
+                  <c:v>36.690595182917825</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26.384811095866812</c:v>
+                  <c:v>36.690595182917825</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>26.384811095866812</c:v>
+                  <c:v>36.690595182917825</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>26.384811095866812</c:v>
+                  <c:v>36.690595182917825</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>26.384811095866812</c:v>
+                  <c:v>36.690595182917825</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>26.384811095866812</c:v>
+                  <c:v>36.690595182917825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1052,8 +1097,8 @@
         <c:axId val="379512400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="38"/>
-          <c:min val="12"/>
+          <c:max val="44"/>
+          <c:min val="26"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1807,16 +1852,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1842,6 +1887,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Antonio" id="{D36A8D29-0CFF-4D48-914E-84FF56767D2A}" userId="d42371d61bd3278c" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2139,12 +2190,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H32" dT="2021-04-01T20:21:39.98" personId="{D36A8D29-0CFF-4D48-914E-84FF56767D2A}" id="{E2B7ECD1-082D-4519-A9EF-1471AC9F7FC4}">
+    <text>Exclua essa célula ;)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F80F733-13BE-4CD8-87FA-4678D668E983}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F80F733-13BE-4CD8-87FA-4678D668E983}">
   <dimension ref="A1:J388"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2178,60 +2237,60 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <f ca="1">RANDBETWEEN(16.8,30.9)+RAND()</f>
-        <v>24.798883012865844</v>
+      <c r="B2" s="3">
+        <f ca="1">RANDBETWEEN(28,41.9)+RAND()-RAND()</f>
+        <v>37.503509029321741</v>
       </c>
       <c r="C2" s="2">
-        <v>16.8</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
-        <v>31.9</v>
+        <v>42.9</v>
       </c>
       <c r="E2" s="2">
         <f ca="1">$J$6</f>
-        <v>19.06850574537193</v>
+        <v>29.339821628083371</v>
       </c>
       <c r="F2" s="2">
         <f ca="1">$J$7</f>
-        <v>26.384811095866812</v>
+        <v>36.690595182917825</v>
       </c>
       <c r="I2" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="2">
         <f ca="1">MIN($B$2:$B$32)</f>
-        <v>17.631286592108996</v>
+        <v>27.713332403866069</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <f t="shared" ref="B3:B32" ca="1" si="0">RANDBETWEEN(16.8,30.9)+RAND()</f>
-        <v>17.633510891089248</v>
+      <c r="B3" s="3">
+        <f t="shared" ref="B3:B32" ca="1" si="0">RANDBETWEEN(28,41.9)+RAND()-RAND()</f>
+        <v>33.588425070288991</v>
       </c>
       <c r="C3" s="2">
-        <v>16.8</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
-        <v>31.9</v>
+        <v>42.9</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E32" ca="1" si="1">$J$6</f>
-        <v>19.06850574537193</v>
+        <v>29.339821628083371</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" ref="F3:F32" ca="1" si="2">$J$7</f>
-        <v>26.384811095866812</v>
+        <v>36.690595182917825</v>
       </c>
       <c r="I3" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="2">
         <f ca="1">MAX($B$2:$B$32)</f>
-        <v>30.059837506566769</v>
+        <v>40.673963311034086</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2240,741 +2299,753 @@
       </c>
       <c r="B4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>19.807185671732061</v>
+        <v>39.637732064531377</v>
       </c>
       <c r="C4" s="2">
-        <v>16.8</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
-        <v>31.9</v>
+        <v>42.9</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.06850574537193</v>
+        <v>29.339821628083371</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26.384811095866812</v>
+        <v>36.690595182917825</v>
       </c>
       <c r="I4" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="2">
         <f ca="1">AVERAGE($B$2:$B$32)</f>
-        <v>22.913186554072002</v>
+        <v>33.38829248894826</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>18.909111588528773</v>
+        <v>36.744578203232031</v>
       </c>
       <c r="C5" s="2">
-        <v>16.8</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
-        <v>31.9</v>
+        <v>42.9</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.06850574537193</v>
+        <v>29.339821628083371</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26.384811095866812</v>
+        <v>36.690595182917825</v>
       </c>
       <c r="I5" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="2">
         <f ca="1">MEDIAN($B$2:$B$32)</f>
-        <v>22.444286235758799</v>
+        <v>33.588425070288991</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>21.26122502837104</v>
+        <v>31.359144462020332</v>
       </c>
       <c r="C6" s="2">
-        <v>16.8</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
-        <v>31.9</v>
+        <v>42.9</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.06850574537193</v>
+        <v>29.339821628083371</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26.384811095866812</v>
+        <v>36.690595182917825</v>
       </c>
       <c r="I6" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="2">
         <f ca="1">_xlfn.QUARTILE.EXC($B$2:$B$32,1)</f>
-        <v>19.06850574537193</v>
+        <v>29.339821628083371</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>24.735618782222332</v>
+        <v>29.207585041037884</v>
       </c>
       <c r="C7" s="2">
-        <v>16.8</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
-        <v>31.9</v>
+        <v>42.9</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.06850574537193</v>
+        <v>29.339821628083371</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26.384811095866812</v>
+        <v>36.690595182917825</v>
       </c>
       <c r="I7" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="2">
         <f ca="1">_xlfn.QUARTILE.EXC($B$2:$B$32,3)</f>
-        <v>26.384811095866812</v>
+        <v>36.690595182917825</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>21.087346423085918</v>
+        <v>28.529560343941291</v>
       </c>
       <c r="C8" s="2">
-        <v>16.8</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
-        <v>31.9</v>
+        <v>42.9</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.06850574537193</v>
+        <v>29.339821628083371</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26.384811095866812</v>
+        <v>36.690595182917825</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>29.520977587645035</v>
+        <v>39.998552212798522</v>
       </c>
       <c r="C9" s="2">
-        <v>16.8</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
-        <v>31.9</v>
+        <v>42.9</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.06850574537193</v>
+        <v>29.339821628083371</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26.384811095866812</v>
+        <v>36.690595182917825</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>22.444286235758799</v>
+        <v>34.138946204614093</v>
       </c>
       <c r="C10" s="2">
-        <v>16.8</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
-        <v>31.9</v>
+        <v>42.9</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.06850574537193</v>
+        <v>29.339821628083371</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26.384811095866812</v>
+        <v>36.690595182917825</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>23.227402693473664</v>
+        <v>29.745640877766661</v>
       </c>
       <c r="C11" s="2">
-        <v>16.8</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
-        <v>31.9</v>
+        <v>42.9</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.06850574537193</v>
+        <v>29.339821628083371</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26.384811095866812</v>
+        <v>36.690595182917825</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>26.384811095866812</v>
+        <v>35.477805882374021</v>
       </c>
       <c r="C12" s="2">
-        <v>16.8</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
-        <v>31.9</v>
+        <v>42.9</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.06850574537193</v>
+        <v>29.339821628083371</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26.384811095866812</v>
+        <v>36.690595182917825</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>26.40915824339962</v>
+        <v>29.339821628083371</v>
       </c>
       <c r="C13" s="2">
-        <v>16.8</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
-        <v>31.9</v>
+        <v>42.9</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.06850574537193</v>
+        <v>29.339821628083371</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26.384811095866812</v>
+        <v>36.690595182917825</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>18.123844913229291</v>
+        <v>35.404479487607091</v>
       </c>
       <c r="C14" s="2">
-        <v>16.8</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
-        <v>31.9</v>
+        <v>42.9</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.06850574537193</v>
+        <v>29.339821628083371</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26.384811095866812</v>
+        <v>36.690595182917825</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>17.651255922921813</v>
+        <v>39.724777064730198</v>
       </c>
       <c r="C15" s="2">
-        <v>16.8</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
-        <v>31.9</v>
+        <v>42.9</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.06850574537193</v>
+        <v>29.339821628083371</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26.384811095866812</v>
+        <v>36.690595182917825</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>18.235545714696002</v>
+        <v>33.81497859106954</v>
       </c>
       <c r="C16" s="2">
-        <v>16.8</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
-        <v>31.9</v>
+        <v>42.9</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.06850574537193</v>
+        <v>29.339821628083371</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26.384811095866812</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36.690595182917825</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>30.059837506566769</v>
+        <v>36.690595182917825</v>
       </c>
       <c r="C17" s="2">
-        <v>16.8</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
-        <v>31.9</v>
+        <v>42.9</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.06850574537193</v>
+        <v>29.339821628083371</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26.384811095866812</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36.690595182917825</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>29.999182328875623</v>
+        <v>27.713332403866069</v>
       </c>
       <c r="C18" s="2">
-        <v>16.8</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
-        <v>31.9</v>
+        <v>42.9</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.06850574537193</v>
+        <v>29.339821628083371</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26.384811095866812</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36.690595182917825</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>28.170521915372174</v>
+        <v>40.673963311034086</v>
       </c>
       <c r="C19" s="2">
-        <v>16.8</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
-        <v>31.9</v>
+        <v>42.9</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.06850574537193</v>
+        <v>29.339821628083371</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26.384811095866812</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36.690595182917825</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>18.617090417340926</v>
+        <v>33.668152924092141</v>
       </c>
       <c r="C20" s="2">
-        <v>16.8</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
-        <v>31.9</v>
+        <v>42.9</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.06850574537193</v>
+        <v>29.339821628083371</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26.384811095866812</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36.690595182917825</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>17.631286592108996</v>
+        <v>36.236350017759968</v>
       </c>
       <c r="C21" s="2">
-        <v>16.8</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
-        <v>31.9</v>
+        <v>42.9</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.06850574537193</v>
+        <v>29.339821628083371</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26.384811095866812</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36.690595182917825</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>29.401324904698317</v>
+        <v>32.604872333259152</v>
       </c>
       <c r="C22" s="2">
-        <v>16.8</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
-        <v>31.9</v>
+        <v>42.9</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.06850574537193</v>
+        <v>29.339821628083371</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26.384811095866812</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36.690595182917825</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>19.284256927495331</v>
+        <v>30.86495352433138</v>
       </c>
       <c r="C23" s="2">
-        <v>16.8</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
-        <v>31.9</v>
+        <v>42.9</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.06850574537193</v>
+        <v>29.339821628083371</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26.384811095866812</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36.690595182917825</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>23.345928196603666</v>
+        <v>39.809286571716434</v>
       </c>
       <c r="C24" s="2">
-        <v>16.8</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
-        <v>31.9</v>
+        <v>42.9</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.06850574537193</v>
+        <v>29.339821628083371</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26.384811095866812</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36.690595182917825</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>28.917807661485547</v>
+        <v>36.324516198870285</v>
       </c>
       <c r="C25" s="2">
-        <v>16.8</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
-        <v>31.9</v>
+        <v>42.9</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.06850574537193</v>
+        <v>29.339821628083371</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26.384811095866812</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36.690595182917825</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>20.764389682932986</v>
+        <v>30.713275946594752</v>
       </c>
       <c r="C26" s="2">
-        <v>16.8</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
-        <v>31.9</v>
+        <v>42.9</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.06850574537193</v>
+        <v>29.339821628083371</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26.384811095866812</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36.690595182917825</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>25.560640473301554</v>
+        <v>28.188801686818447</v>
       </c>
       <c r="C27" s="2">
-        <v>16.8</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
-        <v>31.9</v>
+        <v>42.9</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.06850574537193</v>
+        <v>29.339821628083371</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26.384811095866812</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36.690595182917825</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>20.851623861806893</v>
+        <v>28.096411747555006</v>
       </c>
       <c r="C28" s="2">
-        <v>16.8</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
-        <v>31.9</v>
+        <v>42.9</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.06850574537193</v>
+        <v>29.339821628083371</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26.384811095866812</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36.690595182917825</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>23.163831209910462</v>
+        <v>28.05091625805423</v>
       </c>
       <c r="C29" s="2">
-        <v>16.8</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
-        <v>31.9</v>
+        <v>42.9</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.06850574537193</v>
+        <v>29.339821628083371</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26.384811095866812</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36.690595182917825</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>19.06850574537193</v>
+        <v>32.88092762266718</v>
       </c>
       <c r="C30" s="2">
-        <v>16.8</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
-        <v>31.9</v>
+        <v>42.9</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.06850574537193</v>
+        <v>29.339821628083371</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26.384811095866812</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36.690595182917825</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>24.395595807036148</v>
+        <v>28.412874797112519</v>
       </c>
       <c r="C31" s="2">
-        <v>16.8</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
-        <v>31.9</v>
+        <v>42.9</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.06850574537193</v>
+        <v>29.339821628083371</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26.384811095866812</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36.690595182917825</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>20.846796140438599</v>
+        <v>29.892300467329559</v>
       </c>
       <c r="C32" s="2">
-        <v>16.8</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
-        <v>31.9</v>
+        <v>42.9</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19.06850574537193</v>
+        <v>29.339821628083371</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26.384811095866812</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+        <v>36.690595182917825</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
@@ -4001,5 +4072,6 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/SPRINT2/Gráfico de dados - Arq Comp.xlsx
+++ b/SPRINT2/Gráfico de dados - Arq Comp.xlsx
@@ -1,33 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d42371d61bd3278c/Área de Trabalho/Sprint 2/TECCHICKEN/SPRINT2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosec\OneDrive\Documentos\Arquivos PI\Grupo 10\TECCHICKEN\SPRINT2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="8_{62474EAC-AE3B-4880-98EA-58B4B340A074}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F694E97A-6569-4372-AF0F-73CAEE4E337B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9A8152-79A3-4F55-BAB8-EC6FE8741A4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C8895A7-3856-42C1-B635-8216F5FF32B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9C8895A7-3856-42C1-B635-8216F5FF32B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Coleta de dados" sheetId="3" r:id="rId1"/>
+    <sheet name="Tabela temperatura" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -41,10 +33,19 @@
   <commentList>
     <comment ref="H32" authorId="0" shapeId="0" xr:uid="{E2B7ECD1-082D-4519-A9EF-1471AC9F7FC4}">
       <text>
-        <t>[Comentário encadeado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Exclua essa célula ;)</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Dia</t>
   </si>
@@ -101,6 +102,30 @@
   <si>
     <t>Antes de enviar, copie e cole valores na coluna "temperatura", para fixar os valores visualizados</t>
   </si>
+  <si>
+    <t>Temperatura (ºC)</t>
+  </si>
+  <si>
+    <t>Galináceos em risco</t>
+  </si>
+  <si>
+    <t>Muito frio</t>
+  </si>
+  <si>
+    <t>Ideal</t>
+  </si>
+  <si>
+    <t>Muito calor</t>
+  </si>
+  <si>
+    <t>Granja SP</t>
+  </si>
+  <si>
+    <t>Granja SC</t>
+  </si>
+  <si>
+    <t>Granja RJ</t>
+  </si>
 </sst>
 </file>
 
@@ -109,7 +134,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0\°"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,21 +151,81 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="2"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Work"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1E1E1E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC7A30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF75F73C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -148,16 +233,138 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -333,97 +540,97 @@
                 <c:formatCode>0.0\°</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>37.503509029321741</c:v>
+                  <c:v>29.850130993273339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.588425070288991</c:v>
+                  <c:v>32.803721554948289</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.637732064531377</c:v>
+                  <c:v>38.974624235780468</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.744578203232031</c:v>
+                  <c:v>30.832825385896861</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.359144462020332</c:v>
+                  <c:v>39.512541663161834</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.207585041037884</c:v>
+                  <c:v>39.739370204825214</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.529560343941291</c:v>
+                  <c:v>38.390762871109274</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39.998552212798522</c:v>
+                  <c:v>36.621491822146439</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.138946204614093</c:v>
+                  <c:v>27.022849488908943</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.745640877766661</c:v>
+                  <c:v>32.953080499339805</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35.477805882374021</c:v>
+                  <c:v>36.834911512200314</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29.339821628083371</c:v>
+                  <c:v>33.404793130835309</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35.404479487607091</c:v>
+                  <c:v>36.978242804817604</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39.724777064730198</c:v>
+                  <c:v>33.362359498139661</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>33.81497859106954</c:v>
+                  <c:v>31.65567098219454</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36.690595182917825</c:v>
+                  <c:v>37.896507114106022</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27.713332403866069</c:v>
+                  <c:v>34.271294907470235</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40.673963311034086</c:v>
+                  <c:v>31.778668565416019</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>33.668152924092141</c:v>
+                  <c:v>34.240329059841777</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36.236350017759968</c:v>
+                  <c:v>39.080394572006782</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32.604872333259152</c:v>
+                  <c:v>30.856031119062212</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>30.86495352433138</c:v>
+                  <c:v>34.255181979054782</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39.809286571716434</c:v>
+                  <c:v>41.042294601342476</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>36.324516198870285</c:v>
+                  <c:v>32.06957543366881</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>30.713275946594752</c:v>
+                  <c:v>40.19134222386954</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>28.188801686818447</c:v>
+                  <c:v>41.216973713356587</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28.096411747555006</c:v>
+                  <c:v>27.572983714790926</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>28.05091625805423</c:v>
+                  <c:v>35.781869085423352</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>32.88092762266718</c:v>
+                  <c:v>29.287881429987486</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>28.412874797112519</c:v>
+                  <c:v>40.040435627278249</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>29.892300467329559</c:v>
+                  <c:v>35.240623410893036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -744,97 +951,97 @@
                 <c:formatCode>0.0\°</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>29.339821628083371</c:v>
+                  <c:v>31.778668565416019</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.339821628083371</c:v>
+                  <c:v>31.778668565416019</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.339821628083371</c:v>
+                  <c:v>31.778668565416019</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.339821628083371</c:v>
+                  <c:v>31.778668565416019</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.339821628083371</c:v>
+                  <c:v>31.778668565416019</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.339821628083371</c:v>
+                  <c:v>31.778668565416019</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.339821628083371</c:v>
+                  <c:v>31.778668565416019</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.339821628083371</c:v>
+                  <c:v>31.778668565416019</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.339821628083371</c:v>
+                  <c:v>31.778668565416019</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.339821628083371</c:v>
+                  <c:v>31.778668565416019</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29.339821628083371</c:v>
+                  <c:v>31.778668565416019</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29.339821628083371</c:v>
+                  <c:v>31.778668565416019</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.339821628083371</c:v>
+                  <c:v>31.778668565416019</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29.339821628083371</c:v>
+                  <c:v>31.778668565416019</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>29.339821628083371</c:v>
+                  <c:v>31.778668565416019</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29.339821628083371</c:v>
+                  <c:v>31.778668565416019</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29.339821628083371</c:v>
+                  <c:v>31.778668565416019</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29.339821628083371</c:v>
+                  <c:v>31.778668565416019</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>29.339821628083371</c:v>
+                  <c:v>31.778668565416019</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>29.339821628083371</c:v>
+                  <c:v>31.778668565416019</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>29.339821628083371</c:v>
+                  <c:v>31.778668565416019</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>29.339821628083371</c:v>
+                  <c:v>31.778668565416019</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>29.339821628083371</c:v>
+                  <c:v>31.778668565416019</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>29.339821628083371</c:v>
+                  <c:v>31.778668565416019</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>29.339821628083371</c:v>
+                  <c:v>31.778668565416019</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>29.339821628083371</c:v>
+                  <c:v>31.778668565416019</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>29.339821628083371</c:v>
+                  <c:v>31.778668565416019</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29.339821628083371</c:v>
+                  <c:v>31.778668565416019</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.339821628083371</c:v>
+                  <c:v>31.778668565416019</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29.339821628083371</c:v>
+                  <c:v>31.778668565416019</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>29.339821628083371</c:v>
+                  <c:v>31.778668565416019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -882,97 +1089,97 @@
                 <c:formatCode>0.0\°</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>36.690595182917825</c:v>
+                  <c:v>38.974624235780468</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.690595182917825</c:v>
+                  <c:v>38.974624235780468</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.690595182917825</c:v>
+                  <c:v>38.974624235780468</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.690595182917825</c:v>
+                  <c:v>38.974624235780468</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.690595182917825</c:v>
+                  <c:v>38.974624235780468</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.690595182917825</c:v>
+                  <c:v>38.974624235780468</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.690595182917825</c:v>
+                  <c:v>38.974624235780468</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.690595182917825</c:v>
+                  <c:v>38.974624235780468</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.690595182917825</c:v>
+                  <c:v>38.974624235780468</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.690595182917825</c:v>
+                  <c:v>38.974624235780468</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36.690595182917825</c:v>
+                  <c:v>38.974624235780468</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36.690595182917825</c:v>
+                  <c:v>38.974624235780468</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36.690595182917825</c:v>
+                  <c:v>38.974624235780468</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36.690595182917825</c:v>
+                  <c:v>38.974624235780468</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36.690595182917825</c:v>
+                  <c:v>38.974624235780468</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36.690595182917825</c:v>
+                  <c:v>38.974624235780468</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>36.690595182917825</c:v>
+                  <c:v>38.974624235780468</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36.690595182917825</c:v>
+                  <c:v>38.974624235780468</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>36.690595182917825</c:v>
+                  <c:v>38.974624235780468</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36.690595182917825</c:v>
+                  <c:v>38.974624235780468</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>36.690595182917825</c:v>
+                  <c:v>38.974624235780468</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>36.690595182917825</c:v>
+                  <c:v>38.974624235780468</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>36.690595182917825</c:v>
+                  <c:v>38.974624235780468</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>36.690595182917825</c:v>
+                  <c:v>38.974624235780468</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>36.690595182917825</c:v>
+                  <c:v>38.974624235780468</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>36.690595182917825</c:v>
+                  <c:v>38.974624235780468</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>36.690595182917825</c:v>
+                  <c:v>38.974624235780468</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>36.690595182917825</c:v>
+                  <c:v>38.974624235780468</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>36.690595182917825</c:v>
+                  <c:v>38.974624235780468</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>36.690595182917825</c:v>
+                  <c:v>38.974624235780468</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>36.690595182917825</c:v>
+                  <c:v>38.974624235780468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2202,18 +2409,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F80F733-13BE-4CD8-87FA-4678D668E983}">
   <dimension ref="A1:J388"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AC4" sqref="AC4:AI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2233,13 +2440,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="3">
         <f ca="1">RANDBETWEEN(28,41.9)+RAND()-RAND()</f>
-        <v>37.503509029321741</v>
+        <v>29.850130993273339</v>
       </c>
       <c r="C2" s="2">
         <v>27</v>
@@ -2249,27 +2456,27 @@
       </c>
       <c r="E2" s="2">
         <f ca="1">$J$6</f>
-        <v>29.339821628083371</v>
+        <v>31.778668565416019</v>
       </c>
       <c r="F2" s="2">
         <f ca="1">$J$7</f>
-        <v>36.690595182917825</v>
+        <v>38.974624235780468</v>
       </c>
       <c r="I2" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="2">
         <f ca="1">MIN($B$2:$B$32)</f>
-        <v>27.713332403866069</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>27.022849488908943</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="3">
         <f t="shared" ref="B3:B32" ca="1" si="0">RANDBETWEEN(28,41.9)+RAND()-RAND()</f>
-        <v>33.588425070288991</v>
+        <v>32.803721554948289</v>
       </c>
       <c r="C3" s="2">
         <v>27</v>
@@ -2279,27 +2486,27 @@
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E32" ca="1" si="1">$J$6</f>
-        <v>29.339821628083371</v>
+        <v>31.778668565416019</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" ref="F3:F32" ca="1" si="2">$J$7</f>
-        <v>36.690595182917825</v>
+        <v>38.974624235780468</v>
       </c>
       <c r="I3" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="2">
         <f ca="1">MAX($B$2:$B$32)</f>
-        <v>40.673963311034086</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>41.216973713356587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="23.25" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>39.637732064531377</v>
+        <v>38.974624235780468</v>
       </c>
       <c r="C4" s="2">
         <v>27</v>
@@ -2309,27 +2516,27 @@
       </c>
       <c r="E4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>29.339821628083371</v>
+        <v>31.778668565416019</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36.690595182917825</v>
+        <v>38.974624235780468</v>
       </c>
       <c r="I4" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="2">
         <f ca="1">AVERAGE($B$2:$B$32)</f>
-        <v>33.38829248894826</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>34.959992361456322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>36.744578203232031</v>
+        <v>30.832825385896861</v>
       </c>
       <c r="C5" s="2">
         <v>27</v>
@@ -2339,27 +2546,27 @@
       </c>
       <c r="E5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>29.339821628083371</v>
+        <v>31.778668565416019</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36.690595182917825</v>
+        <v>38.974624235780468</v>
       </c>
       <c r="I5" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="2">
         <f ca="1">MEDIAN($B$2:$B$32)</f>
-        <v>33.588425070288991</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>34.271294907470235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>31.359144462020332</v>
+        <v>39.512541663161834</v>
       </c>
       <c r="C6" s="2">
         <v>27</v>
@@ -2369,27 +2576,27 @@
       </c>
       <c r="E6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>29.339821628083371</v>
+        <v>31.778668565416019</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36.690595182917825</v>
+        <v>38.974624235780468</v>
       </c>
       <c r="I6" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="2">
         <f ca="1">_xlfn.QUARTILE.EXC($B$2:$B$32,1)</f>
-        <v>29.339821628083371</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>31.778668565416019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>29.207585041037884</v>
+        <v>39.739370204825214</v>
       </c>
       <c r="C7" s="2">
         <v>27</v>
@@ -2399,27 +2606,27 @@
       </c>
       <c r="E7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>29.339821628083371</v>
+        <v>31.778668565416019</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36.690595182917825</v>
+        <v>38.974624235780468</v>
       </c>
       <c r="I7" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="2">
         <f ca="1">_xlfn.QUARTILE.EXC($B$2:$B$32,3)</f>
-        <v>36.690595182917825</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38.974624235780468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>28.529560343941291</v>
+        <v>38.390762871109274</v>
       </c>
       <c r="C8" s="2">
         <v>27</v>
@@ -2429,20 +2636,20 @@
       </c>
       <c r="E8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>29.339821628083371</v>
+        <v>31.778668565416019</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36.690595182917825</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38.974624235780468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>39.998552212798522</v>
+        <v>36.621491822146439</v>
       </c>
       <c r="C9" s="2">
         <v>27</v>
@@ -2452,20 +2659,20 @@
       </c>
       <c r="E9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>29.339821628083371</v>
+        <v>31.778668565416019</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36.690595182917825</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38.974624235780468</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>34.138946204614093</v>
+        <v>27.022849488908943</v>
       </c>
       <c r="C10" s="2">
         <v>27</v>
@@ -2475,20 +2682,20 @@
       </c>
       <c r="E10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>29.339821628083371</v>
+        <v>31.778668565416019</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36.690595182917825</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38.974624235780468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>29.745640877766661</v>
+        <v>32.953080499339805</v>
       </c>
       <c r="C11" s="2">
         <v>27</v>
@@ -2498,20 +2705,20 @@
       </c>
       <c r="E11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>29.339821628083371</v>
+        <v>31.778668565416019</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36.690595182917825</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38.974624235780468</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>35.477805882374021</v>
+        <v>36.834911512200314</v>
       </c>
       <c r="C12" s="2">
         <v>27</v>
@@ -2521,20 +2728,20 @@
       </c>
       <c r="E12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>29.339821628083371</v>
+        <v>31.778668565416019</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36.690595182917825</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38.974624235780468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>29.339821628083371</v>
+        <v>33.404793130835309</v>
       </c>
       <c r="C13" s="2">
         <v>27</v>
@@ -2544,20 +2751,20 @@
       </c>
       <c r="E13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>29.339821628083371</v>
+        <v>31.778668565416019</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36.690595182917825</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38.974624235780468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>35.404479487607091</v>
+        <v>36.978242804817604</v>
       </c>
       <c r="C14" s="2">
         <v>27</v>
@@ -2567,20 +2774,20 @@
       </c>
       <c r="E14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>29.339821628083371</v>
+        <v>31.778668565416019</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36.690595182917825</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38.974624235780468</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>39.724777064730198</v>
+        <v>33.362359498139661</v>
       </c>
       <c r="C15" s="2">
         <v>27</v>
@@ -2590,20 +2797,20 @@
       </c>
       <c r="E15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>29.339821628083371</v>
+        <v>31.778668565416019</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36.690595182917825</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38.974624235780468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>33.81497859106954</v>
+        <v>31.65567098219454</v>
       </c>
       <c r="C16" s="2">
         <v>27</v>
@@ -2613,20 +2820,20 @@
       </c>
       <c r="E16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>29.339821628083371</v>
+        <v>31.778668565416019</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36.690595182917825</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38.974624235780468</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>36.690595182917825</v>
+        <v>37.896507114106022</v>
       </c>
       <c r="C17" s="2">
         <v>27</v>
@@ -2636,20 +2843,20 @@
       </c>
       <c r="E17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>29.339821628083371</v>
+        <v>31.778668565416019</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36.690595182917825</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38.974624235780468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>27.713332403866069</v>
+        <v>34.271294907470235</v>
       </c>
       <c r="C18" s="2">
         <v>27</v>
@@ -2659,20 +2866,20 @@
       </c>
       <c r="E18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>29.339821628083371</v>
+        <v>31.778668565416019</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36.690595182917825</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38.974624235780468</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>40.673963311034086</v>
+        <v>31.778668565416019</v>
       </c>
       <c r="C19" s="2">
         <v>27</v>
@@ -2682,20 +2889,20 @@
       </c>
       <c r="E19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>29.339821628083371</v>
+        <v>31.778668565416019</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36.690595182917825</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38.974624235780468</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>33.668152924092141</v>
+        <v>34.240329059841777</v>
       </c>
       <c r="C20" s="2">
         <v>27</v>
@@ -2705,20 +2912,20 @@
       </c>
       <c r="E20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>29.339821628083371</v>
+        <v>31.778668565416019</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36.690595182917825</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38.974624235780468</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>36.236350017759968</v>
+        <v>39.080394572006782</v>
       </c>
       <c r="C21" s="2">
         <v>27</v>
@@ -2728,20 +2935,20 @@
       </c>
       <c r="E21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>29.339821628083371</v>
+        <v>31.778668565416019</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36.690595182917825</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38.974624235780468</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>32.604872333259152</v>
+        <v>30.856031119062212</v>
       </c>
       <c r="C22" s="2">
         <v>27</v>
@@ -2751,20 +2958,20 @@
       </c>
       <c r="E22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>29.339821628083371</v>
+        <v>31.778668565416019</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36.690595182917825</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38.974624235780468</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>30.86495352433138</v>
+        <v>34.255181979054782</v>
       </c>
       <c r="C23" s="2">
         <v>27</v>
@@ -2774,20 +2981,20 @@
       </c>
       <c r="E23" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>29.339821628083371</v>
+        <v>31.778668565416019</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36.690595182917825</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38.974624235780468</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>39.809286571716434</v>
+        <v>41.042294601342476</v>
       </c>
       <c r="C24" s="2">
         <v>27</v>
@@ -2797,20 +3004,20 @@
       </c>
       <c r="E24" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>29.339821628083371</v>
+        <v>31.778668565416019</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36.690595182917825</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38.974624235780468</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>36.324516198870285</v>
+        <v>32.06957543366881</v>
       </c>
       <c r="C25" s="2">
         <v>27</v>
@@ -2820,20 +3027,20 @@
       </c>
       <c r="E25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>29.339821628083371</v>
+        <v>31.778668565416019</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36.690595182917825</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38.974624235780468</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>30.713275946594752</v>
+        <v>40.19134222386954</v>
       </c>
       <c r="C26" s="2">
         <v>27</v>
@@ -2843,20 +3050,20 @@
       </c>
       <c r="E26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>29.339821628083371</v>
+        <v>31.778668565416019</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36.690595182917825</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38.974624235780468</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>28.188801686818447</v>
+        <v>41.216973713356587</v>
       </c>
       <c r="C27" s="2">
         <v>27</v>
@@ -2866,20 +3073,20 @@
       </c>
       <c r="E27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>29.339821628083371</v>
+        <v>31.778668565416019</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36.690595182917825</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38.974624235780468</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>28.096411747555006</v>
+        <v>27.572983714790926</v>
       </c>
       <c r="C28" s="2">
         <v>27</v>
@@ -2889,20 +3096,20 @@
       </c>
       <c r="E28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>29.339821628083371</v>
+        <v>31.778668565416019</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36.690595182917825</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38.974624235780468</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>28.05091625805423</v>
+        <v>35.781869085423352</v>
       </c>
       <c r="C29" s="2">
         <v>27</v>
@@ -2912,20 +3119,20 @@
       </c>
       <c r="E29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>29.339821628083371</v>
+        <v>31.778668565416019</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36.690595182917825</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38.974624235780468</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>32.88092762266718</v>
+        <v>29.287881429987486</v>
       </c>
       <c r="C30" s="2">
         <v>27</v>
@@ -2935,20 +3142,20 @@
       </c>
       <c r="E30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>29.339821628083371</v>
+        <v>31.778668565416019</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36.690595182917825</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38.974624235780468</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>28.412874797112519</v>
+        <v>40.040435627278249</v>
       </c>
       <c r="C31" s="2">
         <v>27</v>
@@ -2958,20 +3165,20 @@
       </c>
       <c r="E31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>29.339821628083371</v>
+        <v>31.778668565416019</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36.690595182917825</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38.974624235780468</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>29.892300467329559</v>
+        <v>35.240623410893036</v>
       </c>
       <c r="C32" s="2">
         <v>27</v>
@@ -2981,1091 +3188,1091 @@
       </c>
       <c r="E32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>29.339821628083371</v>
+        <v>31.778668565416019</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36.690595182917825</v>
+        <v>38.974624235780468</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>13</v>
       </c>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2">
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2">
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2">
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2">
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2">
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2">
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2">
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2">
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2">
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2">
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2">
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2">
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2">
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2">
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2">
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2">
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2">
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2">
       <c r="B68" s="1"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2">
       <c r="B69" s="1"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2">
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2">
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2">
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2">
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2">
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2">
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2">
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2">
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2">
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2">
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2">
       <c r="B80" s="1"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2">
       <c r="B81" s="1"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2">
       <c r="B82" s="1"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2">
       <c r="B83" s="1"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2">
       <c r="B84" s="1"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2">
       <c r="B85" s="1"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2">
       <c r="B86" s="1"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2">
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2">
       <c r="B88" s="1"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2">
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2">
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2">
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2">
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2">
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2">
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2">
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2">
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2">
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2">
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2">
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2">
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2">
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2">
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2">
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2">
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2">
       <c r="B112" s="1"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2">
       <c r="B113" s="1"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2">
       <c r="B114" s="1"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2">
       <c r="B115" s="1"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2">
       <c r="B116" s="1"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2">
       <c r="B117" s="1"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2">
       <c r="B118" s="1"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2">
       <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2">
       <c r="B120" s="1"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2">
       <c r="B121" s="1"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2">
       <c r="B122" s="1"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2">
       <c r="B123" s="1"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2">
       <c r="B124" s="1"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2">
       <c r="B125" s="1"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2">
       <c r="B126" s="1"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2">
       <c r="B127" s="1"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2">
       <c r="B128" s="1"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2">
       <c r="B129" s="1"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2">
       <c r="B130" s="1"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2">
       <c r="B131" s="1"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2">
       <c r="B132" s="1"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2">
       <c r="B133" s="1"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2">
       <c r="B134" s="1"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2">
       <c r="B135" s="1"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2">
       <c r="B136" s="1"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2">
       <c r="B137" s="1"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2">
       <c r="B138" s="1"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2">
       <c r="B139" s="1"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2">
       <c r="B140" s="1"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2">
       <c r="B141" s="1"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2">
       <c r="B142" s="1"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2">
       <c r="B143" s="1"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2">
       <c r="B144" s="1"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2">
       <c r="B145" s="1"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2">
       <c r="B146" s="1"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2">
       <c r="B147" s="1"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2">
       <c r="B148" s="1"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2">
       <c r="B149" s="1"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2">
       <c r="B150" s="1"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2">
       <c r="B151" s="1"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2">
       <c r="B152" s="1"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2">
       <c r="B153" s="1"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2">
       <c r="B154" s="1"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2">
       <c r="B155" s="1"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2">
       <c r="B156" s="1"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2">
       <c r="B157" s="1"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2">
       <c r="B158" s="1"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2">
       <c r="B159" s="1"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2">
       <c r="B160" s="1"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2">
       <c r="B161" s="1"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2">
       <c r="B162" s="1"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2">
       <c r="B163" s="1"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2">
       <c r="B164" s="1"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2">
       <c r="B165" s="1"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2">
       <c r="B166" s="1"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2">
       <c r="B167" s="1"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2">
       <c r="B168" s="1"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2">
       <c r="B169" s="1"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2">
       <c r="B170" s="1"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2">
       <c r="B171" s="1"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2">
       <c r="B172" s="1"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2">
       <c r="B173" s="1"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2">
       <c r="B174" s="1"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2">
       <c r="B175" s="1"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2">
       <c r="B176" s="1"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2">
       <c r="B177" s="1"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2">
       <c r="B178" s="1"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2">
       <c r="B179" s="1"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2">
       <c r="B180" s="1"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2">
       <c r="B181" s="1"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2">
       <c r="B182" s="1"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2">
       <c r="B183" s="1"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2">
       <c r="B184" s="1"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2">
       <c r="B185" s="1"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2">
       <c r="B186" s="1"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2">
       <c r="B187" s="1"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2">
       <c r="B188" s="1"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2">
       <c r="B189" s="1"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2">
       <c r="B190" s="1"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2">
       <c r="B191" s="1"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2">
       <c r="B192" s="1"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2">
       <c r="B193" s="1"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2">
       <c r="B194" s="1"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2">
       <c r="B195" s="1"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2">
       <c r="B196" s="1"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2">
       <c r="B197" s="1"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2">
       <c r="B198" s="1"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2">
       <c r="B199" s="1"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2">
       <c r="B200" s="1"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2">
       <c r="B201" s="1"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2">
       <c r="B202" s="1"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2">
       <c r="B203" s="1"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2">
       <c r="B204" s="1"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2">
       <c r="B205" s="1"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2">
       <c r="B206" s="1"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2">
       <c r="B207" s="1"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2">
       <c r="B208" s="1"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2">
       <c r="B209" s="1"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2">
       <c r="B210" s="1"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2">
       <c r="B211" s="1"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2">
       <c r="B212" s="1"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2">
       <c r="B213" s="1"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2">
       <c r="B214" s="1"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2">
       <c r="B215" s="1"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2">
       <c r="B216" s="1"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2">
       <c r="B217" s="1"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2">
       <c r="B218" s="1"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2">
       <c r="B219" s="1"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2">
       <c r="B220" s="1"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2">
       <c r="B221" s="1"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2">
       <c r="B222" s="1"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2">
       <c r="B223" s="1"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2">
       <c r="B224" s="1"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2">
       <c r="B225" s="1"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2">
       <c r="B226" s="1"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2">
       <c r="B227" s="1"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2">
       <c r="B228" s="1"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2">
       <c r="B229" s="1"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2">
       <c r="B230" s="1"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2">
       <c r="B231" s="1"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2">
       <c r="B232" s="1"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2">
       <c r="B233" s="1"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2">
       <c r="B234" s="1"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2">
       <c r="B235" s="1"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2">
       <c r="B236" s="1"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2">
       <c r="B237" s="1"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2">
       <c r="B238" s="1"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2">
       <c r="B239" s="1"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2">
       <c r="B240" s="1"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2">
       <c r="B241" s="1"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2">
       <c r="B242" s="1"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2">
       <c r="B243" s="1"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2">
       <c r="B244" s="1"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2">
       <c r="B245" s="1"/>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2">
       <c r="B246" s="1"/>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2">
       <c r="B247" s="1"/>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2">
       <c r="B248" s="1"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2">
       <c r="B249" s="1"/>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2">
       <c r="B250" s="1"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2">
       <c r="B251" s="1"/>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2">
       <c r="B252" s="1"/>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2">
       <c r="B253" s="1"/>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2">
       <c r="B254" s="1"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2">
       <c r="B255" s="1"/>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:2">
       <c r="B256" s="1"/>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2">
       <c r="B257" s="1"/>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:2">
       <c r="B258" s="1"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2">
       <c r="B259" s="1"/>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:2">
       <c r="B260" s="1"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2">
       <c r="B261" s="1"/>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:2">
       <c r="B262" s="1"/>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:2">
       <c r="B263" s="1"/>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:2">
       <c r="B264" s="1"/>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:2">
       <c r="B265" s="1"/>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:2">
       <c r="B266" s="1"/>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:2">
       <c r="B267" s="1"/>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:2">
       <c r="B268" s="1"/>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:2">
       <c r="B269" s="1"/>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:2">
       <c r="B270" s="1"/>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:2">
       <c r="B271" s="1"/>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:2">
       <c r="B272" s="1"/>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:2">
       <c r="B273" s="1"/>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:2">
       <c r="B274" s="1"/>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:2">
       <c r="B275" s="1"/>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:2">
       <c r="B276" s="1"/>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:2">
       <c r="B277" s="1"/>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:2">
       <c r="B278" s="1"/>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:2">
       <c r="B279" s="1"/>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:2">
       <c r="B280" s="1"/>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:2">
       <c r="B281" s="1"/>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:2">
       <c r="B282" s="1"/>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:2">
       <c r="B283" s="1"/>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:2">
       <c r="B284" s="1"/>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:2">
       <c r="B285" s="1"/>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:2">
       <c r="B286" s="1"/>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:2">
       <c r="B287" s="1"/>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:2">
       <c r="B288" s="1"/>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:2">
       <c r="B289" s="1"/>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:2">
       <c r="B290" s="1"/>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:2">
       <c r="B291" s="1"/>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:2">
       <c r="B292" s="1"/>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:2">
       <c r="B293" s="1"/>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:2">
       <c r="B294" s="1"/>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:2">
       <c r="B295" s="1"/>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:2">
       <c r="B296" s="1"/>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:2">
       <c r="B297" s="1"/>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:2">
       <c r="B298" s="1"/>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:2">
       <c r="B299" s="1"/>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:2">
       <c r="B300" s="1"/>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:2">
       <c r="B301" s="1"/>
     </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:2">
       <c r="B302" s="1"/>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:2">
       <c r="B303" s="1"/>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:2">
       <c r="B304" s="1"/>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:2">
       <c r="B305" s="1"/>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:2">
       <c r="B306" s="1"/>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:2">
       <c r="B307" s="1"/>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:2">
       <c r="B308" s="1"/>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:2">
       <c r="B309" s="1"/>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:2">
       <c r="B310" s="1"/>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:2">
       <c r="B311" s="1"/>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:2">
       <c r="B312" s="1"/>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:2">
       <c r="B313" s="1"/>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:2">
       <c r="B314" s="1"/>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:2">
       <c r="B315" s="1"/>
     </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:2">
       <c r="B316" s="1"/>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:2">
       <c r="B317" s="1"/>
     </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:2">
       <c r="B318" s="1"/>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:2">
       <c r="B319" s="1"/>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:2">
       <c r="B320" s="1"/>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:2">
       <c r="B321" s="1"/>
     </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:2">
       <c r="B322" s="1"/>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:2">
       <c r="B323" s="1"/>
     </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:2">
       <c r="B324" s="1"/>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:2">
       <c r="B325" s="1"/>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:2">
       <c r="B326" s="1"/>
     </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:2">
       <c r="B327" s="1"/>
     </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:2">
       <c r="B328" s="1"/>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:2">
       <c r="B329" s="1"/>
     </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:2">
       <c r="B330" s="1"/>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:2">
       <c r="B331" s="1"/>
     </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:2">
       <c r="B332" s="1"/>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:2">
       <c r="B333" s="1"/>
     </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:2">
       <c r="B334" s="1"/>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:2">
       <c r="B335" s="1"/>
     </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:2">
       <c r="B336" s="1"/>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:2">
       <c r="B337" s="1"/>
     </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:2">
       <c r="B338" s="1"/>
     </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:2">
       <c r="B339" s="1"/>
     </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:2">
       <c r="B340" s="1"/>
     </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:2">
       <c r="B341" s="1"/>
     </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:2">
       <c r="B342" s="1"/>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:2">
       <c r="B343" s="1"/>
     </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:2">
       <c r="B344" s="1"/>
     </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:2">
       <c r="B345" s="1"/>
     </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:2">
       <c r="B346" s="1"/>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:2">
       <c r="B347" s="1"/>
     </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:2">
       <c r="B348" s="1"/>
     </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:2">
       <c r="B349" s="1"/>
     </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:2">
       <c r="B350" s="1"/>
     </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:2">
       <c r="B351" s="1"/>
     </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:2">
       <c r="B352" s="1"/>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:2">
       <c r="B353" s="1"/>
     </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:2">
       <c r="B354" s="1"/>
     </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:2">
       <c r="B355" s="1"/>
     </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:2">
       <c r="B356" s="1"/>
     </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:2">
       <c r="B357" s="1"/>
     </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:2">
       <c r="B358" s="1"/>
     </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:2">
       <c r="B359" s="1"/>
     </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:2">
       <c r="B360" s="1"/>
     </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:2">
       <c r="B361" s="1"/>
     </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:2">
       <c r="B362" s="1"/>
     </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:2">
       <c r="B363" s="1"/>
     </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:2">
       <c r="B364" s="1"/>
     </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:2">
       <c r="B365" s="1"/>
     </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:2">
       <c r="B366" s="1"/>
     </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:2">
       <c r="B367" s="1"/>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:2">
       <c r="B368" s="1"/>
     </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:2">
       <c r="B369" s="1"/>
     </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:2">
       <c r="B370" s="1"/>
     </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:2">
       <c r="B371" s="1"/>
     </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:2">
       <c r="B372" s="1"/>
     </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:2">
       <c r="B373" s="1"/>
     </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:2">
       <c r="B374" s="1"/>
     </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:2">
       <c r="B375" s="1"/>
     </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:2">
       <c r="B376" s="1"/>
     </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:2">
       <c r="B377" s="1"/>
     </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:2">
       <c r="B378" s="1"/>
     </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:2">
       <c r="B379" s="1"/>
     </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:2">
       <c r="B380" s="1"/>
     </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:2">
       <c r="B381" s="1"/>
     </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:2">
       <c r="B382" s="1"/>
     </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:2">
       <c r="B383" s="1"/>
     </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:2">
       <c r="B384" s="1"/>
     </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:2">
       <c r="B385" s="1"/>
     </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:2">
       <c r="B386" s="1"/>
     </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:2">
       <c r="B387" s="1"/>
     </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:2">
       <c r="B388" s="1"/>
     </row>
   </sheetData>
@@ -4074,4 +4281,128 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A727D08-BAC7-4E36-A458-CE744FA923B1}">
+  <dimension ref="A2:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="18.75">
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="22.5" customHeight="1">
+      <c r="B3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="22.5" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="11">
+        <v>10</v>
+      </c>
+      <c r="C4" s="12">
+        <v>16</v>
+      </c>
+      <c r="D4" s="13">
+        <v>22</v>
+      </c>
+      <c r="E4" s="13">
+        <v>22</v>
+      </c>
+      <c r="F4" s="12">
+        <v>28</v>
+      </c>
+      <c r="G4" s="11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="23.25" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="14">
+        <v>9</v>
+      </c>
+      <c r="C5" s="15">
+        <v>14.25</v>
+      </c>
+      <c r="D5" s="16">
+        <v>19.5</v>
+      </c>
+      <c r="E5" s="16">
+        <v>19.5</v>
+      </c>
+      <c r="F5" s="17">
+        <v>24.75</v>
+      </c>
+      <c r="G5" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="14">
+        <v>8</v>
+      </c>
+      <c r="C6" s="17">
+        <v>12</v>
+      </c>
+      <c r="D6" s="16">
+        <v>16</v>
+      </c>
+      <c r="E6" s="16">
+        <v>16</v>
+      </c>
+      <c r="F6" s="17">
+        <v>20</v>
+      </c>
+      <c r="G6" s="14">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/SPRINT2/Gráfico de dados - Arq Comp.xlsx
+++ b/SPRINT2/Gráfico de dados - Arq Comp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosec\OneDrive\Documentos\Arquivos PI\Grupo 10\TECCHICKEN\SPRINT2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9A8152-79A3-4F55-BAB8-EC6FE8741A4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE0ACB8-F097-455E-95A7-3443C0D9CF92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9C8895A7-3856-42C1-B635-8216F5FF32B9}"/>
   </bookViews>
@@ -326,15 +326,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -363,6 +354,15 @@
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -540,97 +540,97 @@
                 <c:formatCode>0.0\°</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>29.850130993273339</c:v>
+                  <c:v>30.931242217804023</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.803721554948289</c:v>
+                  <c:v>39.76231160085937</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.974624235780468</c:v>
+                  <c:v>40.125501109308203</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.832825385896861</c:v>
+                  <c:v>37.489459363436481</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.512541663161834</c:v>
+                  <c:v>37.957302802125326</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.739370204825214</c:v>
+                  <c:v>37.773622781903164</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38.390762871109274</c:v>
+                  <c:v>36.830877319409538</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.621491822146439</c:v>
+                  <c:v>36.524873969071486</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27.022849488908943</c:v>
+                  <c:v>36.265460101408216</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32.953080499339805</c:v>
+                  <c:v>31.353545828066196</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36.834911512200314</c:v>
+                  <c:v>40.078103238954768</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33.404793130835309</c:v>
+                  <c:v>33.822412588413961</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36.978242804817604</c:v>
+                  <c:v>37.982023982893971</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>33.362359498139661</c:v>
+                  <c:v>27.232045551592698</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31.65567098219454</c:v>
+                  <c:v>32.882219757555333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>37.896507114106022</c:v>
+                  <c:v>39.343058168824797</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34.271294907470235</c:v>
+                  <c:v>29.896753573592811</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>31.778668565416019</c:v>
+                  <c:v>36.192829138209632</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34.240329059841777</c:v>
+                  <c:v>37.965754711532917</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>39.080394572006782</c:v>
+                  <c:v>34.768968409611482</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>30.856031119062212</c:v>
+                  <c:v>38.948938548730688</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>34.255181979054782</c:v>
+                  <c:v>35.008865660706711</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41.042294601342476</c:v>
+                  <c:v>28.09330176050797</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>32.06957543366881</c:v>
+                  <c:v>31.378038826481664</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>40.19134222386954</c:v>
+                  <c:v>27.964815039507659</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>41.216973713356587</c:v>
+                  <c:v>30.219215033642993</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27.572983714790926</c:v>
+                  <c:v>41.423857167726148</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>35.781869085423352</c:v>
+                  <c:v>38.672545871552003</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.287881429987486</c:v>
+                  <c:v>36.055380102590185</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>40.040435627278249</c:v>
+                  <c:v>34.40780457118764</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>35.240623410893036</c:v>
+                  <c:v>31.973957832354476</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -951,97 +951,97 @@
                 <c:formatCode>0.0\°</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>31.778668565416019</c:v>
+                  <c:v>31.378038826481664</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.778668565416019</c:v>
+                  <c:v>31.378038826481664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.778668565416019</c:v>
+                  <c:v>31.378038826481664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.778668565416019</c:v>
+                  <c:v>31.378038826481664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.778668565416019</c:v>
+                  <c:v>31.378038826481664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.778668565416019</c:v>
+                  <c:v>31.378038826481664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.778668565416019</c:v>
+                  <c:v>31.378038826481664</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.778668565416019</c:v>
+                  <c:v>31.378038826481664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.778668565416019</c:v>
+                  <c:v>31.378038826481664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.778668565416019</c:v>
+                  <c:v>31.378038826481664</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.778668565416019</c:v>
+                  <c:v>31.378038826481664</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31.778668565416019</c:v>
+                  <c:v>31.378038826481664</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31.778668565416019</c:v>
+                  <c:v>31.378038826481664</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31.778668565416019</c:v>
+                  <c:v>31.378038826481664</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31.778668565416019</c:v>
+                  <c:v>31.378038826481664</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31.778668565416019</c:v>
+                  <c:v>31.378038826481664</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>31.778668565416019</c:v>
+                  <c:v>31.378038826481664</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>31.778668565416019</c:v>
+                  <c:v>31.378038826481664</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>31.778668565416019</c:v>
+                  <c:v>31.378038826481664</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31.778668565416019</c:v>
+                  <c:v>31.378038826481664</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31.778668565416019</c:v>
+                  <c:v>31.378038826481664</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>31.778668565416019</c:v>
+                  <c:v>31.378038826481664</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>31.778668565416019</c:v>
+                  <c:v>31.378038826481664</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>31.778668565416019</c:v>
+                  <c:v>31.378038826481664</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>31.778668565416019</c:v>
+                  <c:v>31.378038826481664</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>31.778668565416019</c:v>
+                  <c:v>31.378038826481664</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>31.778668565416019</c:v>
+                  <c:v>31.378038826481664</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>31.778668565416019</c:v>
+                  <c:v>31.378038826481664</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>31.778668565416019</c:v>
+                  <c:v>31.378038826481664</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>31.778668565416019</c:v>
+                  <c:v>31.378038826481664</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31.778668565416019</c:v>
+                  <c:v>31.378038826481664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1089,97 +1089,97 @@
                 <c:formatCode>0.0\°</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>38.974624235780468</c:v>
+                  <c:v>37.982023982893971</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.974624235780468</c:v>
+                  <c:v>37.982023982893971</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.974624235780468</c:v>
+                  <c:v>37.982023982893971</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38.974624235780468</c:v>
+                  <c:v>37.982023982893971</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.974624235780468</c:v>
+                  <c:v>37.982023982893971</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.974624235780468</c:v>
+                  <c:v>37.982023982893971</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38.974624235780468</c:v>
+                  <c:v>37.982023982893971</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38.974624235780468</c:v>
+                  <c:v>37.982023982893971</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.974624235780468</c:v>
+                  <c:v>37.982023982893971</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38.974624235780468</c:v>
+                  <c:v>37.982023982893971</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38.974624235780468</c:v>
+                  <c:v>37.982023982893971</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38.974624235780468</c:v>
+                  <c:v>37.982023982893971</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>38.974624235780468</c:v>
+                  <c:v>37.982023982893971</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38.974624235780468</c:v>
+                  <c:v>37.982023982893971</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>38.974624235780468</c:v>
+                  <c:v>37.982023982893971</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>38.974624235780468</c:v>
+                  <c:v>37.982023982893971</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>38.974624235780468</c:v>
+                  <c:v>37.982023982893971</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>38.974624235780468</c:v>
+                  <c:v>37.982023982893971</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38.974624235780468</c:v>
+                  <c:v>37.982023982893971</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>38.974624235780468</c:v>
+                  <c:v>37.982023982893971</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>38.974624235780468</c:v>
+                  <c:v>37.982023982893971</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>38.974624235780468</c:v>
+                  <c:v>37.982023982893971</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>38.974624235780468</c:v>
+                  <c:v>37.982023982893971</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>38.974624235780468</c:v>
+                  <c:v>37.982023982893971</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>38.974624235780468</c:v>
+                  <c:v>37.982023982893971</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>38.974624235780468</c:v>
+                  <c:v>37.982023982893971</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>38.974624235780468</c:v>
+                  <c:v>37.982023982893971</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>38.974624235780468</c:v>
+                  <c:v>37.982023982893971</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>38.974624235780468</c:v>
+                  <c:v>37.982023982893971</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>38.974624235780468</c:v>
+                  <c:v>37.982023982893971</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>38.974624235780468</c:v>
+                  <c:v>37.982023982893971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2409,8 +2409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F80F733-13BE-4CD8-87FA-4678D668E983}">
   <dimension ref="A1:J388"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AC4" sqref="AC4:AI8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG28" sqref="AG28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">RANDBETWEEN(28,41.9)+RAND()-RAND()</f>
-        <v>29.850130993273339</v>
+        <v>30.931242217804023</v>
       </c>
       <c r="C2" s="2">
         <v>27</v>
@@ -2456,18 +2456,18 @@
       </c>
       <c r="E2" s="2">
         <f ca="1">$J$6</f>
-        <v>31.778668565416019</v>
+        <v>31.378038826481664</v>
       </c>
       <c r="F2" s="2">
         <f ca="1">$J$7</f>
-        <v>38.974624235780468</v>
+        <v>37.982023982893971</v>
       </c>
       <c r="I2" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="2">
         <f ca="1">MIN($B$2:$B$32)</f>
-        <v>27.022849488908943</v>
+        <v>27.232045551592698</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="B3" s="3">
         <f t="shared" ref="B3:B32" ca="1" si="0">RANDBETWEEN(28,41.9)+RAND()-RAND()</f>
-        <v>32.803721554948289</v>
+        <v>39.76231160085937</v>
       </c>
       <c r="C3" s="2">
         <v>27</v>
@@ -2486,18 +2486,18 @@
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E32" ca="1" si="1">$J$6</f>
-        <v>31.778668565416019</v>
+        <v>31.378038826481664</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" ref="F3:F32" ca="1" si="2">$J$7</f>
-        <v>38.974624235780468</v>
+        <v>37.982023982893971</v>
       </c>
       <c r="I3" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="2">
         <f ca="1">MAX($B$2:$B$32)</f>
-        <v>41.216973713356587</v>
+        <v>41.423857167726148</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="23.25" customHeight="1">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="B4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>38.974624235780468</v>
+        <v>40.125501109308203</v>
       </c>
       <c r="C4" s="2">
         <v>27</v>
@@ -2516,18 +2516,18 @@
       </c>
       <c r="E4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.778668565416019</v>
+        <v>31.378038826481664</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38.974624235780468</v>
+        <v>37.982023982893971</v>
       </c>
       <c r="I4" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="2">
         <f ca="1">AVERAGE($B$2:$B$32)</f>
-        <v>34.959992361456322</v>
+        <v>35.139518923534283</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>30.832825385896861</v>
+        <v>37.489459363436481</v>
       </c>
       <c r="C5" s="2">
         <v>27</v>
@@ -2546,18 +2546,18 @@
       </c>
       <c r="E5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.778668565416019</v>
+        <v>31.378038826481664</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38.974624235780468</v>
+        <v>37.982023982893971</v>
       </c>
       <c r="I5" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="2">
         <f ca="1">MEDIAN($B$2:$B$32)</f>
-        <v>34.271294907470235</v>
+        <v>36.192829138209632</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="B6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>39.512541663161834</v>
+        <v>37.957302802125326</v>
       </c>
       <c r="C6" s="2">
         <v>27</v>
@@ -2576,18 +2576,18 @@
       </c>
       <c r="E6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.778668565416019</v>
+        <v>31.378038826481664</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38.974624235780468</v>
+        <v>37.982023982893971</v>
       </c>
       <c r="I6" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="2">
         <f ca="1">_xlfn.QUARTILE.EXC($B$2:$B$32,1)</f>
-        <v>31.778668565416019</v>
+        <v>31.378038826481664</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="B7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>39.739370204825214</v>
+        <v>37.773622781903164</v>
       </c>
       <c r="C7" s="2">
         <v>27</v>
@@ -2606,18 +2606,18 @@
       </c>
       <c r="E7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.778668565416019</v>
+        <v>31.378038826481664</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38.974624235780468</v>
+        <v>37.982023982893971</v>
       </c>
       <c r="I7" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="2">
         <f ca="1">_xlfn.QUARTILE.EXC($B$2:$B$32,3)</f>
-        <v>38.974624235780468</v>
+        <v>37.982023982893971</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="B8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>38.390762871109274</v>
+        <v>36.830877319409538</v>
       </c>
       <c r="C8" s="2">
         <v>27</v>
@@ -2636,11 +2636,11 @@
       </c>
       <c r="E8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.778668565416019</v>
+        <v>31.378038826481664</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38.974624235780468</v>
+        <v>37.982023982893971</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>36.621491822146439</v>
+        <v>36.524873969071486</v>
       </c>
       <c r="C9" s="2">
         <v>27</v>
@@ -2659,11 +2659,11 @@
       </c>
       <c r="E9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.778668565416019</v>
+        <v>31.378038826481664</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38.974624235780468</v>
+        <v>37.982023982893971</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="B10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>27.022849488908943</v>
+        <v>36.265460101408216</v>
       </c>
       <c r="C10" s="2">
         <v>27</v>
@@ -2682,11 +2682,11 @@
       </c>
       <c r="E10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.778668565416019</v>
+        <v>31.378038826481664</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38.974624235780468</v>
+        <v>37.982023982893971</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2695,7 +2695,7 @@
       </c>
       <c r="B11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>32.953080499339805</v>
+        <v>31.353545828066196</v>
       </c>
       <c r="C11" s="2">
         <v>27</v>
@@ -2705,11 +2705,11 @@
       </c>
       <c r="E11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.778668565416019</v>
+        <v>31.378038826481664</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38.974624235780468</v>
+        <v>37.982023982893971</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="B12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>36.834911512200314</v>
+        <v>40.078103238954768</v>
       </c>
       <c r="C12" s="2">
         <v>27</v>
@@ -2728,11 +2728,11 @@
       </c>
       <c r="E12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.778668565416019</v>
+        <v>31.378038826481664</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38.974624235780468</v>
+        <v>37.982023982893971</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>33.404793130835309</v>
+        <v>33.822412588413961</v>
       </c>
       <c r="C13" s="2">
         <v>27</v>
@@ -2751,11 +2751,11 @@
       </c>
       <c r="E13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.778668565416019</v>
+        <v>31.378038826481664</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38.974624235780468</v>
+        <v>37.982023982893971</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="B14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>36.978242804817604</v>
+        <v>37.982023982893971</v>
       </c>
       <c r="C14" s="2">
         <v>27</v>
@@ -2774,11 +2774,11 @@
       </c>
       <c r="E14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.778668565416019</v>
+        <v>31.378038826481664</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38.974624235780468</v>
+        <v>37.982023982893971</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>33.362359498139661</v>
+        <v>27.232045551592698</v>
       </c>
       <c r="C15" s="2">
         <v>27</v>
@@ -2797,11 +2797,11 @@
       </c>
       <c r="E15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.778668565416019</v>
+        <v>31.378038826481664</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38.974624235780468</v>
+        <v>37.982023982893971</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2810,7 +2810,7 @@
       </c>
       <c r="B16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>31.65567098219454</v>
+        <v>32.882219757555333</v>
       </c>
       <c r="C16" s="2">
         <v>27</v>
@@ -2820,11 +2820,11 @@
       </c>
       <c r="E16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.778668565416019</v>
+        <v>31.378038826481664</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38.974624235780468</v>
+        <v>37.982023982893971</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="B17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>37.896507114106022</v>
+        <v>39.343058168824797</v>
       </c>
       <c r="C17" s="2">
         <v>27</v>
@@ -2843,11 +2843,11 @@
       </c>
       <c r="E17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.778668565416019</v>
+        <v>31.378038826481664</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38.974624235780468</v>
+        <v>37.982023982893971</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="B18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>34.271294907470235</v>
+        <v>29.896753573592811</v>
       </c>
       <c r="C18" s="2">
         <v>27</v>
@@ -2866,11 +2866,11 @@
       </c>
       <c r="E18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.778668565416019</v>
+        <v>31.378038826481664</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38.974624235780468</v>
+        <v>37.982023982893971</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2879,7 +2879,7 @@
       </c>
       <c r="B19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>31.778668565416019</v>
+        <v>36.192829138209632</v>
       </c>
       <c r="C19" s="2">
         <v>27</v>
@@ -2889,11 +2889,11 @@
       </c>
       <c r="E19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.778668565416019</v>
+        <v>31.378038826481664</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38.974624235780468</v>
+        <v>37.982023982893971</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="B20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>34.240329059841777</v>
+        <v>37.965754711532917</v>
       </c>
       <c r="C20" s="2">
         <v>27</v>
@@ -2912,11 +2912,11 @@
       </c>
       <c r="E20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.778668565416019</v>
+        <v>31.378038826481664</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38.974624235780468</v>
+        <v>37.982023982893971</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="B21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>39.080394572006782</v>
+        <v>34.768968409611482</v>
       </c>
       <c r="C21" s="2">
         <v>27</v>
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.778668565416019</v>
+        <v>31.378038826481664</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38.974624235780468</v>
+        <v>37.982023982893971</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2948,7 +2948,7 @@
       </c>
       <c r="B22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>30.856031119062212</v>
+        <v>38.948938548730688</v>
       </c>
       <c r="C22" s="2">
         <v>27</v>
@@ -2958,11 +2958,11 @@
       </c>
       <c r="E22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.778668565416019</v>
+        <v>31.378038826481664</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38.974624235780468</v>
+        <v>37.982023982893971</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="B23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>34.255181979054782</v>
+        <v>35.008865660706711</v>
       </c>
       <c r="C23" s="2">
         <v>27</v>
@@ -2981,11 +2981,11 @@
       </c>
       <c r="E23" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.778668565416019</v>
+        <v>31.378038826481664</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38.974624235780468</v>
+        <v>37.982023982893971</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="B24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>41.042294601342476</v>
+        <v>28.09330176050797</v>
       </c>
       <c r="C24" s="2">
         <v>27</v>
@@ -3004,11 +3004,11 @@
       </c>
       <c r="E24" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.778668565416019</v>
+        <v>31.378038826481664</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38.974624235780468</v>
+        <v>37.982023982893971</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3017,7 +3017,7 @@
       </c>
       <c r="B25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>32.06957543366881</v>
+        <v>31.378038826481664</v>
       </c>
       <c r="C25" s="2">
         <v>27</v>
@@ -3027,11 +3027,11 @@
       </c>
       <c r="E25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.778668565416019</v>
+        <v>31.378038826481664</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38.974624235780468</v>
+        <v>37.982023982893971</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3040,7 +3040,7 @@
       </c>
       <c r="B26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>40.19134222386954</v>
+        <v>27.964815039507659</v>
       </c>
       <c r="C26" s="2">
         <v>27</v>
@@ -3050,11 +3050,11 @@
       </c>
       <c r="E26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.778668565416019</v>
+        <v>31.378038826481664</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38.974624235780468</v>
+        <v>37.982023982893971</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="B27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>41.216973713356587</v>
+        <v>30.219215033642993</v>
       </c>
       <c r="C27" s="2">
         <v>27</v>
@@ -3073,11 +3073,11 @@
       </c>
       <c r="E27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.778668565416019</v>
+        <v>31.378038826481664</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38.974624235780468</v>
+        <v>37.982023982893971</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="B28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>27.572983714790926</v>
+        <v>41.423857167726148</v>
       </c>
       <c r="C28" s="2">
         <v>27</v>
@@ -3096,11 +3096,11 @@
       </c>
       <c r="E28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.778668565416019</v>
+        <v>31.378038826481664</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38.974624235780468</v>
+        <v>37.982023982893971</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3109,7 +3109,7 @@
       </c>
       <c r="B29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>35.781869085423352</v>
+        <v>38.672545871552003</v>
       </c>
       <c r="C29" s="2">
         <v>27</v>
@@ -3119,11 +3119,11 @@
       </c>
       <c r="E29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.778668565416019</v>
+        <v>31.378038826481664</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38.974624235780468</v>
+        <v>37.982023982893971</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="B30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>29.287881429987486</v>
+        <v>36.055380102590185</v>
       </c>
       <c r="C30" s="2">
         <v>27</v>
@@ -3142,11 +3142,11 @@
       </c>
       <c r="E30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.778668565416019</v>
+        <v>31.378038826481664</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38.974624235780468</v>
+        <v>37.982023982893971</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3155,7 +3155,7 @@
       </c>
       <c r="B31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>40.040435627278249</v>
+        <v>34.40780457118764</v>
       </c>
       <c r="C31" s="2">
         <v>27</v>
@@ -3165,11 +3165,11 @@
       </c>
       <c r="E31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.778668565416019</v>
+        <v>31.378038826481664</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38.974624235780468</v>
+        <v>37.982023982893971</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="B32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>35.240623410893036</v>
+        <v>31.973957832354476</v>
       </c>
       <c r="C32" s="2">
         <v>27</v>
@@ -3188,11 +3188,11 @@
       </c>
       <c r="E32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.778668565416019</v>
+        <v>31.378038826481664</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38.974624235780468</v>
+        <v>37.982023982893971</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>15</v>
@@ -4288,7 +4288,7 @@
   <dimension ref="A2:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4301,101 +4301,101 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" ht="22.5" customHeight="1">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>10</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="9">
         <v>16</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>22</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>22</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="9">
         <v>28</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="8">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="11">
         <v>9</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="12">
         <v>14.25</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="13">
         <v>19.5</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="13">
         <v>19.5</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="14">
         <v>24.75</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="11">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="11">
         <v>8</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="14">
         <v>12</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="13">
         <v>16</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="13">
         <v>16</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="14">
         <v>20</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="11">
         <v>24</v>
       </c>
     </row>

--- a/SPRINT2/Gráfico de dados - Arq Comp.xlsx
+++ b/SPRINT2/Gráfico de dados - Arq Comp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosec\OneDrive\Documentos\Arquivos PI\Grupo 10\TECCHICKEN\SPRINT2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE0ACB8-F097-455E-95A7-3443C0D9CF92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA373A5E-CBA7-4ADA-9327-B0F21157A1B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9C8895A7-3856-42C1-B635-8216F5FF32B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9C8895A7-3856-42C1-B635-8216F5FF32B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Coleta de dados" sheetId="3" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Dia</t>
   </si>
@@ -126,6 +126,15 @@
   <si>
     <t>Granja RJ</t>
   </si>
+  <si>
+    <t>Galinhas</t>
+  </si>
+  <si>
+    <t>Galinhas de corte</t>
+  </si>
+  <si>
+    <t>Pintinhos</t>
+  </si>
 </sst>
 </file>
 
@@ -134,7 +143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0\°"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,8 +195,27 @@
       <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="Work"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFC7A30"/>
+      <name val="Varela Round"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFC7A30"/>
+      <name val="Varela Round"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Varela Round"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,8 +252,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB52E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA8F73C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -316,11 +362,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -365,6 +448,40 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,13 +536,16 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="FFFF00"/>
-              </a:outerShdw>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
             </a:effectLst>
           </c:spPr>
           <c:marker>
@@ -540,97 +660,97 @@
                 <c:formatCode>0.0\°</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>30.931242217804023</c:v>
+                  <c:v>40.603335342432764</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.76231160085937</c:v>
+                  <c:v>34.159003328297608</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.125501109308203</c:v>
+                  <c:v>37.773647666037149</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.489459363436481</c:v>
+                  <c:v>30.731582963900927</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.957302802125326</c:v>
+                  <c:v>34.639778595484124</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.773622781903164</c:v>
+                  <c:v>30.232570373106007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.830877319409538</c:v>
+                  <c:v>40.307794273886444</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.524873969071486</c:v>
+                  <c:v>40.123224617509372</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.265460101408216</c:v>
+                  <c:v>28.091724702757062</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.353545828066196</c:v>
+                  <c:v>28.345689883851367</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40.078103238954768</c:v>
+                  <c:v>29.826272271785268</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33.822412588413961</c:v>
+                  <c:v>36.984689541850017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37.982023982893971</c:v>
+                  <c:v>32.653862927606511</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27.232045551592698</c:v>
+                  <c:v>34.971984819430077</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32.882219757555333</c:v>
+                  <c:v>36.439828530754497</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>39.343058168824797</c:v>
+                  <c:v>38.796864905849809</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29.896753573592811</c:v>
+                  <c:v>35.88591758773206</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36.192829138209632</c:v>
+                  <c:v>28.657583081803946</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>37.965754711532917</c:v>
+                  <c:v>38.249299702576018</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.768968409611482</c:v>
+                  <c:v>30.106493784987144</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>38.948938548730688</c:v>
+                  <c:v>39.693380144630027</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>35.008865660706711</c:v>
+                  <c:v>27.8717296708314</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>28.09330176050797</c:v>
+                  <c:v>34.607521600205516</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>31.378038826481664</c:v>
+                  <c:v>41.660332083568669</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27.964815039507659</c:v>
+                  <c:v>30.03668180142817</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>30.219215033642993</c:v>
+                  <c:v>30.422984746701587</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>41.423857167726148</c:v>
+                  <c:v>32.605278970057569</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>38.672545871552003</c:v>
+                  <c:v>31.958720768577187</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>36.055380102590185</c:v>
+                  <c:v>35.696863621863493</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>34.40780457118764</c:v>
+                  <c:v>29.841573592155456</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31.973957832354476</c:v>
+                  <c:v>31.196281529396476</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -659,13 +779,16 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="002060"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="002060"/>
-              </a:outerShdw>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
             </a:effectLst>
           </c:spPr>
           <c:marker>
@@ -794,13 +917,16 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="FF0000"/>
-              </a:outerShdw>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
             </a:effectLst>
           </c:spPr>
           <c:marker>
@@ -932,13 +1058,19 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:ln>
             <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="00B0F0"/>
-              </a:outerShdw>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
             </a:effectLst>
           </c:spPr>
           <c:marker>
@@ -951,97 +1083,97 @@
                 <c:formatCode>0.0\°</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>31.378038826481664</c:v>
+                  <c:v>30.106493784987144</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.378038826481664</c:v>
+                  <c:v>30.106493784987144</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.378038826481664</c:v>
+                  <c:v>30.106493784987144</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.378038826481664</c:v>
+                  <c:v>30.106493784987144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.378038826481664</c:v>
+                  <c:v>30.106493784987144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.378038826481664</c:v>
+                  <c:v>30.106493784987144</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.378038826481664</c:v>
+                  <c:v>30.106493784987144</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.378038826481664</c:v>
+                  <c:v>30.106493784987144</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.378038826481664</c:v>
+                  <c:v>30.106493784987144</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.378038826481664</c:v>
+                  <c:v>30.106493784987144</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.378038826481664</c:v>
+                  <c:v>30.106493784987144</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31.378038826481664</c:v>
+                  <c:v>30.106493784987144</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31.378038826481664</c:v>
+                  <c:v>30.106493784987144</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31.378038826481664</c:v>
+                  <c:v>30.106493784987144</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31.378038826481664</c:v>
+                  <c:v>30.106493784987144</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31.378038826481664</c:v>
+                  <c:v>30.106493784987144</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>31.378038826481664</c:v>
+                  <c:v>30.106493784987144</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>31.378038826481664</c:v>
+                  <c:v>30.106493784987144</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>31.378038826481664</c:v>
+                  <c:v>30.106493784987144</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31.378038826481664</c:v>
+                  <c:v>30.106493784987144</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31.378038826481664</c:v>
+                  <c:v>30.106493784987144</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>31.378038826481664</c:v>
+                  <c:v>30.106493784987144</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>31.378038826481664</c:v>
+                  <c:v>30.106493784987144</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>31.378038826481664</c:v>
+                  <c:v>30.106493784987144</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>31.378038826481664</c:v>
+                  <c:v>30.106493784987144</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>31.378038826481664</c:v>
+                  <c:v>30.106493784987144</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>31.378038826481664</c:v>
+                  <c:v>30.106493784987144</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>31.378038826481664</c:v>
+                  <c:v>30.106493784987144</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>31.378038826481664</c:v>
+                  <c:v>30.106493784987144</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>31.378038826481664</c:v>
+                  <c:v>30.106493784987144</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31.378038826481664</c:v>
+                  <c:v>30.106493784987144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1070,13 +1202,19 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:ln>
             <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:schemeClr val="accent2"/>
-              </a:outerShdw>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
             </a:effectLst>
           </c:spPr>
           <c:marker>
@@ -1089,97 +1227,97 @@
                 <c:formatCode>0.0\°</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>37.982023982893971</c:v>
+                  <c:v>37.773647666037149</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.982023982893971</c:v>
+                  <c:v>37.773647666037149</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.982023982893971</c:v>
+                  <c:v>37.773647666037149</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.982023982893971</c:v>
+                  <c:v>37.773647666037149</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.982023982893971</c:v>
+                  <c:v>37.773647666037149</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.982023982893971</c:v>
+                  <c:v>37.773647666037149</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.982023982893971</c:v>
+                  <c:v>37.773647666037149</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.982023982893971</c:v>
+                  <c:v>37.773647666037149</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.982023982893971</c:v>
+                  <c:v>37.773647666037149</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37.982023982893971</c:v>
+                  <c:v>37.773647666037149</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37.982023982893971</c:v>
+                  <c:v>37.773647666037149</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>37.982023982893971</c:v>
+                  <c:v>37.773647666037149</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37.982023982893971</c:v>
+                  <c:v>37.773647666037149</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37.982023982893971</c:v>
+                  <c:v>37.773647666037149</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37.982023982893971</c:v>
+                  <c:v>37.773647666037149</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>37.982023982893971</c:v>
+                  <c:v>37.773647666037149</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>37.982023982893971</c:v>
+                  <c:v>37.773647666037149</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>37.982023982893971</c:v>
+                  <c:v>37.773647666037149</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>37.982023982893971</c:v>
+                  <c:v>37.773647666037149</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>37.982023982893971</c:v>
+                  <c:v>37.773647666037149</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>37.982023982893971</c:v>
+                  <c:v>37.773647666037149</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>37.982023982893971</c:v>
+                  <c:v>37.773647666037149</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>37.982023982893971</c:v>
+                  <c:v>37.773647666037149</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>37.982023982893971</c:v>
+                  <c:v>37.773647666037149</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>37.982023982893971</c:v>
+                  <c:v>37.773647666037149</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>37.982023982893971</c:v>
+                  <c:v>37.773647666037149</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>37.982023982893971</c:v>
+                  <c:v>37.773647666037149</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>37.982023982893971</c:v>
+                  <c:v>37.773647666037149</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>37.982023982893971</c:v>
+                  <c:v>37.773647666037149</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>37.982023982893971</c:v>
+                  <c:v>37.773647666037149</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>37.982023982893971</c:v>
+                  <c:v>37.773647666037149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1210,6 +1348,15 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1217,7 +1364,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
                         <a:lumMod val="75000"/>
@@ -1229,7 +1376,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR" sz="1200"/>
+                  <a:rPr lang="pt-BR"/>
                   <a:t>Dia</a:t>
                 </a:r>
               </a:p>
@@ -1248,7 +1395,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="lt1">
                       <a:lumMod val="75000"/>
@@ -1279,7 +1426,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="75000"/>
@@ -1341,7 +1488,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
                         <a:lumMod val="75000"/>
@@ -1353,7 +1500,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR" sz="1200"/>
+                  <a:rPr lang="pt-BR"/>
                   <a:t>Temperatura</a:t>
                 </a:r>
               </a:p>
@@ -1372,7 +1519,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="lt1">
                       <a:lumMod val="75000"/>
@@ -1403,7 +1550,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="75000"/>
@@ -1423,7 +1570,7 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -2409,8 +2556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F80F733-13BE-4CD8-87FA-4678D668E983}">
   <dimension ref="A1:J388"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG28" sqref="AG28"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2446,7 +2593,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">RANDBETWEEN(28,41.9)+RAND()-RAND()</f>
-        <v>30.931242217804023</v>
+        <v>40.603335342432764</v>
       </c>
       <c r="C2" s="2">
         <v>27</v>
@@ -2456,18 +2603,18 @@
       </c>
       <c r="E2" s="2">
         <f ca="1">$J$6</f>
-        <v>31.378038826481664</v>
+        <v>30.106493784987144</v>
       </c>
       <c r="F2" s="2">
         <f ca="1">$J$7</f>
-        <v>37.982023982893971</v>
+        <v>37.773647666037149</v>
       </c>
       <c r="I2" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="2">
         <f ca="1">MIN($B$2:$B$32)</f>
-        <v>27.232045551592698</v>
+        <v>27.8717296708314</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2476,7 +2623,7 @@
       </c>
       <c r="B3" s="3">
         <f t="shared" ref="B3:B32" ca="1" si="0">RANDBETWEEN(28,41.9)+RAND()-RAND()</f>
-        <v>39.76231160085937</v>
+        <v>34.159003328297608</v>
       </c>
       <c r="C3" s="2">
         <v>27</v>
@@ -2486,18 +2633,18 @@
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E32" ca="1" si="1">$J$6</f>
-        <v>31.378038826481664</v>
+        <v>30.106493784987144</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" ref="F3:F32" ca="1" si="2">$J$7</f>
-        <v>37.982023982893971</v>
+        <v>37.773647666037149</v>
       </c>
       <c r="I3" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="2">
         <f ca="1">MAX($B$2:$B$32)</f>
-        <v>41.423857167726148</v>
+        <v>41.660332083568669</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="23.25" customHeight="1">
@@ -2506,7 +2653,7 @@
       </c>
       <c r="B4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>40.125501109308203</v>
+        <v>37.773647666037149</v>
       </c>
       <c r="C4" s="2">
         <v>27</v>
@@ -2516,18 +2663,18 @@
       </c>
       <c r="E4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.378038826481664</v>
+        <v>30.106493784987144</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37.982023982893971</v>
+        <v>37.773647666037149</v>
       </c>
       <c r="I4" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="2">
         <f ca="1">AVERAGE($B$2:$B$32)</f>
-        <v>35.139518923534283</v>
+        <v>33.973306368743664</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2536,7 +2683,7 @@
       </c>
       <c r="B5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>37.489459363436481</v>
+        <v>30.731582963900927</v>
       </c>
       <c r="C5" s="2">
         <v>27</v>
@@ -2546,18 +2693,18 @@
       </c>
       <c r="E5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.378038826481664</v>
+        <v>30.106493784987144</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37.982023982893971</v>
+        <v>37.773647666037149</v>
       </c>
       <c r="I5" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="2">
         <f ca="1">MEDIAN($B$2:$B$32)</f>
-        <v>36.192829138209632</v>
+        <v>34.159003328297608</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2566,7 +2713,7 @@
       </c>
       <c r="B6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>37.957302802125326</v>
+        <v>34.639778595484124</v>
       </c>
       <c r="C6" s="2">
         <v>27</v>
@@ -2576,18 +2723,18 @@
       </c>
       <c r="E6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.378038826481664</v>
+        <v>30.106493784987144</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37.982023982893971</v>
+        <v>37.773647666037149</v>
       </c>
       <c r="I6" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="2">
         <f ca="1">_xlfn.QUARTILE.EXC($B$2:$B$32,1)</f>
-        <v>31.378038826481664</v>
+        <v>30.106493784987144</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2596,7 +2743,7 @@
       </c>
       <c r="B7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>37.773622781903164</v>
+        <v>30.232570373106007</v>
       </c>
       <c r="C7" s="2">
         <v>27</v>
@@ -2606,18 +2753,18 @@
       </c>
       <c r="E7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.378038826481664</v>
+        <v>30.106493784987144</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37.982023982893971</v>
+        <v>37.773647666037149</v>
       </c>
       <c r="I7" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="2">
         <f ca="1">_xlfn.QUARTILE.EXC($B$2:$B$32,3)</f>
-        <v>37.982023982893971</v>
+        <v>37.773647666037149</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2626,7 +2773,7 @@
       </c>
       <c r="B8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>36.830877319409538</v>
+        <v>40.307794273886444</v>
       </c>
       <c r="C8" s="2">
         <v>27</v>
@@ -2636,11 +2783,11 @@
       </c>
       <c r="E8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.378038826481664</v>
+        <v>30.106493784987144</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37.982023982893971</v>
+        <v>37.773647666037149</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2649,7 +2796,7 @@
       </c>
       <c r="B9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>36.524873969071486</v>
+        <v>40.123224617509372</v>
       </c>
       <c r="C9" s="2">
         <v>27</v>
@@ -2659,11 +2806,11 @@
       </c>
       <c r="E9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.378038826481664</v>
+        <v>30.106493784987144</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37.982023982893971</v>
+        <v>37.773647666037149</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2672,7 +2819,7 @@
       </c>
       <c r="B10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>36.265460101408216</v>
+        <v>28.091724702757062</v>
       </c>
       <c r="C10" s="2">
         <v>27</v>
@@ -2682,12 +2829,13 @@
       </c>
       <c r="E10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.378038826481664</v>
+        <v>30.106493784987144</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37.982023982893971</v>
-      </c>
+        <v>37.773647666037149</v>
+      </c>
+      <c r="I10" s="29"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
@@ -2695,7 +2843,7 @@
       </c>
       <c r="B11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>31.353545828066196</v>
+        <v>28.345689883851367</v>
       </c>
       <c r="C11" s="2">
         <v>27</v>
@@ -2705,11 +2853,11 @@
       </c>
       <c r="E11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.378038826481664</v>
+        <v>30.106493784987144</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37.982023982893971</v>
+        <v>37.773647666037149</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2718,7 +2866,7 @@
       </c>
       <c r="B12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>40.078103238954768</v>
+        <v>29.826272271785268</v>
       </c>
       <c r="C12" s="2">
         <v>27</v>
@@ -2728,11 +2876,11 @@
       </c>
       <c r="E12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.378038826481664</v>
+        <v>30.106493784987144</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37.982023982893971</v>
+        <v>37.773647666037149</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2741,7 +2889,7 @@
       </c>
       <c r="B13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>33.822412588413961</v>
+        <v>36.984689541850017</v>
       </c>
       <c r="C13" s="2">
         <v>27</v>
@@ -2751,11 +2899,11 @@
       </c>
       <c r="E13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.378038826481664</v>
+        <v>30.106493784987144</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37.982023982893971</v>
+        <v>37.773647666037149</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2764,7 +2912,7 @@
       </c>
       <c r="B14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>37.982023982893971</v>
+        <v>32.653862927606511</v>
       </c>
       <c r="C14" s="2">
         <v>27</v>
@@ -2774,11 +2922,11 @@
       </c>
       <c r="E14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.378038826481664</v>
+        <v>30.106493784987144</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37.982023982893971</v>
+        <v>37.773647666037149</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2787,7 +2935,7 @@
       </c>
       <c r="B15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>27.232045551592698</v>
+        <v>34.971984819430077</v>
       </c>
       <c r="C15" s="2">
         <v>27</v>
@@ -2797,11 +2945,11 @@
       </c>
       <c r="E15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.378038826481664</v>
+        <v>30.106493784987144</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37.982023982893971</v>
+        <v>37.773647666037149</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2810,7 +2958,7 @@
       </c>
       <c r="B16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>32.882219757555333</v>
+        <v>36.439828530754497</v>
       </c>
       <c r="C16" s="2">
         <v>27</v>
@@ -2820,11 +2968,11 @@
       </c>
       <c r="E16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.378038826481664</v>
+        <v>30.106493784987144</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37.982023982893971</v>
+        <v>37.773647666037149</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2833,7 +2981,7 @@
       </c>
       <c r="B17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>39.343058168824797</v>
+        <v>38.796864905849809</v>
       </c>
       <c r="C17" s="2">
         <v>27</v>
@@ -2843,11 +2991,11 @@
       </c>
       <c r="E17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.378038826481664</v>
+        <v>30.106493784987144</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37.982023982893971</v>
+        <v>37.773647666037149</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2856,7 +3004,7 @@
       </c>
       <c r="B18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>29.896753573592811</v>
+        <v>35.88591758773206</v>
       </c>
       <c r="C18" s="2">
         <v>27</v>
@@ -2866,11 +3014,11 @@
       </c>
       <c r="E18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.378038826481664</v>
+        <v>30.106493784987144</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37.982023982893971</v>
+        <v>37.773647666037149</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2879,7 +3027,7 @@
       </c>
       <c r="B19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>36.192829138209632</v>
+        <v>28.657583081803946</v>
       </c>
       <c r="C19" s="2">
         <v>27</v>
@@ -2889,11 +3037,11 @@
       </c>
       <c r="E19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.378038826481664</v>
+        <v>30.106493784987144</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37.982023982893971</v>
+        <v>37.773647666037149</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2902,7 +3050,7 @@
       </c>
       <c r="B20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>37.965754711532917</v>
+        <v>38.249299702576018</v>
       </c>
       <c r="C20" s="2">
         <v>27</v>
@@ -2912,11 +3060,11 @@
       </c>
       <c r="E20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.378038826481664</v>
+        <v>30.106493784987144</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37.982023982893971</v>
+        <v>37.773647666037149</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2925,7 +3073,7 @@
       </c>
       <c r="B21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>34.768968409611482</v>
+        <v>30.106493784987144</v>
       </c>
       <c r="C21" s="2">
         <v>27</v>
@@ -2935,11 +3083,11 @@
       </c>
       <c r="E21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.378038826481664</v>
+        <v>30.106493784987144</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37.982023982893971</v>
+        <v>37.773647666037149</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2948,7 +3096,7 @@
       </c>
       <c r="B22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>38.948938548730688</v>
+        <v>39.693380144630027</v>
       </c>
       <c r="C22" s="2">
         <v>27</v>
@@ -2958,11 +3106,11 @@
       </c>
       <c r="E22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.378038826481664</v>
+        <v>30.106493784987144</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37.982023982893971</v>
+        <v>37.773647666037149</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2971,7 +3119,7 @@
       </c>
       <c r="B23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>35.008865660706711</v>
+        <v>27.8717296708314</v>
       </c>
       <c r="C23" s="2">
         <v>27</v>
@@ -2981,11 +3129,11 @@
       </c>
       <c r="E23" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.378038826481664</v>
+        <v>30.106493784987144</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37.982023982893971</v>
+        <v>37.773647666037149</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2994,7 +3142,7 @@
       </c>
       <c r="B24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>28.09330176050797</v>
+        <v>34.607521600205516</v>
       </c>
       <c r="C24" s="2">
         <v>27</v>
@@ -3004,11 +3152,11 @@
       </c>
       <c r="E24" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.378038826481664</v>
+        <v>30.106493784987144</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37.982023982893971</v>
+        <v>37.773647666037149</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3017,7 +3165,7 @@
       </c>
       <c r="B25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>31.378038826481664</v>
+        <v>41.660332083568669</v>
       </c>
       <c r="C25" s="2">
         <v>27</v>
@@ -3027,11 +3175,11 @@
       </c>
       <c r="E25" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.378038826481664</v>
+        <v>30.106493784987144</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37.982023982893971</v>
+        <v>37.773647666037149</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3040,7 +3188,7 @@
       </c>
       <c r="B26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>27.964815039507659</v>
+        <v>30.03668180142817</v>
       </c>
       <c r="C26" s="2">
         <v>27</v>
@@ -3050,11 +3198,11 @@
       </c>
       <c r="E26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.378038826481664</v>
+        <v>30.106493784987144</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37.982023982893971</v>
+        <v>37.773647666037149</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3063,7 +3211,7 @@
       </c>
       <c r="B27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>30.219215033642993</v>
+        <v>30.422984746701587</v>
       </c>
       <c r="C27" s="2">
         <v>27</v>
@@ -3073,11 +3221,11 @@
       </c>
       <c r="E27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.378038826481664</v>
+        <v>30.106493784987144</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37.982023982893971</v>
+        <v>37.773647666037149</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3086,7 +3234,7 @@
       </c>
       <c r="B28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>41.423857167726148</v>
+        <v>32.605278970057569</v>
       </c>
       <c r="C28" s="2">
         <v>27</v>
@@ -3096,11 +3244,11 @@
       </c>
       <c r="E28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.378038826481664</v>
+        <v>30.106493784987144</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37.982023982893971</v>
+        <v>37.773647666037149</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3109,7 +3257,7 @@
       </c>
       <c r="B29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>38.672545871552003</v>
+        <v>31.958720768577187</v>
       </c>
       <c r="C29" s="2">
         <v>27</v>
@@ -3119,11 +3267,11 @@
       </c>
       <c r="E29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.378038826481664</v>
+        <v>30.106493784987144</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37.982023982893971</v>
+        <v>37.773647666037149</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3132,7 +3280,7 @@
       </c>
       <c r="B30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>36.055380102590185</v>
+        <v>35.696863621863493</v>
       </c>
       <c r="C30" s="2">
         <v>27</v>
@@ -3142,11 +3290,11 @@
       </c>
       <c r="E30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.378038826481664</v>
+        <v>30.106493784987144</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37.982023982893971</v>
+        <v>37.773647666037149</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3155,7 +3303,7 @@
       </c>
       <c r="B31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>34.40780457118764</v>
+        <v>29.841573592155456</v>
       </c>
       <c r="C31" s="2">
         <v>27</v>
@@ -3165,11 +3313,11 @@
       </c>
       <c r="E31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.378038826481664</v>
+        <v>30.106493784987144</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37.982023982893971</v>
+        <v>37.773647666037149</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3178,7 +3326,7 @@
       </c>
       <c r="B32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>31.973957832354476</v>
+        <v>31.196281529396476</v>
       </c>
       <c r="C32" s="2">
         <v>27</v>
@@ -3188,11 +3336,11 @@
       </c>
       <c r="E32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31.378038826481664</v>
+        <v>30.106493784987144</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37.982023982893971</v>
+        <v>37.773647666037149</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>15</v>
@@ -4285,10 +4433,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A727D08-BAC7-4E36-A458-CE744FA923B1}">
-  <dimension ref="A2:G6"/>
+  <dimension ref="A2:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4300,7 +4448,7 @@
     <col min="7" max="7" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="18.75">
+    <row r="2" spans="1:16" ht="18.75">
       <c r="B2" s="15" t="s">
         <v>16</v>
       </c>
@@ -4310,7 +4458,7 @@
       <c r="F2" s="16"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7" ht="22.5" customHeight="1">
+    <row r="3" spans="1:16" ht="22.5" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
@@ -4329,8 +4477,15 @@
       <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="22.5" customHeight="1">
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+    </row>
+    <row r="4" spans="1:16" ht="25.5" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
@@ -4352,8 +4507,17 @@
       <c r="G4" s="8">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="23.25" customHeight="1">
+      <c r="J4" s="20"/>
+      <c r="K4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="23"/>
+    </row>
+    <row r="5" spans="1:16" ht="23.25" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
@@ -4375,8 +4539,25 @@
       <c r="G5" s="11">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.25" customHeight="1">
+      <c r="J5" s="20"/>
+      <c r="K5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="26"/>
+      <c r="O5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="20.25" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
@@ -4398,10 +4579,79 @@
       <c r="G6" s="11">
         <v>24</v>
       </c>
+      <c r="J6" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="27">
+        <v>10</v>
+      </c>
+      <c r="L6" s="18">
+        <v>16</v>
+      </c>
+      <c r="M6" s="28">
+        <v>22</v>
+      </c>
+      <c r="N6" s="28">
+        <v>22</v>
+      </c>
+      <c r="O6" s="18">
+        <v>28</v>
+      </c>
+      <c r="P6" s="27">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="45">
+      <c r="J7" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="27">
+        <v>9</v>
+      </c>
+      <c r="L7" s="18">
+        <v>14.25</v>
+      </c>
+      <c r="M7" s="28">
+        <v>19.5</v>
+      </c>
+      <c r="N7" s="28">
+        <v>19.5</v>
+      </c>
+      <c r="O7" s="18">
+        <v>24.75</v>
+      </c>
+      <c r="P7" s="27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="30">
+      <c r="J8" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="27">
+        <v>8</v>
+      </c>
+      <c r="L8" s="18">
+        <v>12</v>
+      </c>
+      <c r="M8" s="28">
+        <v>16</v>
+      </c>
+      <c r="N8" s="28">
+        <v>16</v>
+      </c>
+      <c r="O8" s="18">
+        <v>20</v>
+      </c>
+      <c r="P8" s="27">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B2:G2"/>
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="M5:N5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/SPRINT2/Gráfico de dados - Arq Comp.xlsx
+++ b/SPRINT2/Gráfico de dados - Arq Comp.xlsx
@@ -1,25 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosec\OneDrive\Documentos\Arquivos PI\Grupo 10\TECCHICKEN\SPRINT2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d42371d61bd3278c/Área de Trabalho/Sprint 2/TECCHICKEN DOCUMENTAÇÃO/TECCHICKEN/SPRINT2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA373A5E-CBA7-4ADA-9327-B0F21157A1B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="212" documentId="8_{62474EAC-AE3B-4880-98EA-58B4B340A074}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3D3DD2B2-AF07-4873-928B-402ACEE4025F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9C8895A7-3856-42C1-B635-8216F5FF32B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C8895A7-3856-42C1-B635-8216F5FF32B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Coleta de dados" sheetId="3" r:id="rId1"/>
-    <sheet name="Tabela temperatura" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -33,19 +41,10 @@
   <commentList>
     <comment ref="H32" authorId="0" shapeId="0" xr:uid="{E2B7ECD1-082D-4519-A9EF-1471AC9F7FC4}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Comentário encadeado]
+        <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Exclua essa célula ;)</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -53,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Dia</t>
   </si>
@@ -102,39 +101,6 @@
   <si>
     <t>Antes de enviar, copie e cole valores na coluna "temperatura", para fixar os valores visualizados</t>
   </si>
-  <si>
-    <t>Temperatura (ºC)</t>
-  </si>
-  <si>
-    <t>Galináceos em risco</t>
-  </si>
-  <si>
-    <t>Muito frio</t>
-  </si>
-  <si>
-    <t>Ideal</t>
-  </si>
-  <si>
-    <t>Muito calor</t>
-  </si>
-  <si>
-    <t>Granja SP</t>
-  </si>
-  <si>
-    <t>Granja SC</t>
-  </si>
-  <si>
-    <t>Granja RJ</t>
-  </si>
-  <si>
-    <t>Galinhas</t>
-  </si>
-  <si>
-    <t>Galinhas de corte</t>
-  </si>
-  <si>
-    <t>Pintinhos</t>
-  </si>
 </sst>
 </file>
 
@@ -143,7 +109,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0\°"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,119 +125,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="2"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="2"/>
-      <name val="Arial Rounded MT Bold"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="Arial Rounded MT Bold"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="Work"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color rgb="FFFC7A30"/>
-      <name val="Varela Round"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFC7A30"/>
-      <name val="Varela Round"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Varela Round"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1E1E1E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.749992370372631"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFC7A30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF75F73C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFB52E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA8F73C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -279,209 +142,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,16 +206,13 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:schemeClr val="bg1"/>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
@@ -660,97 +327,97 @@
                 <c:formatCode>0.0\°</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>40.603335342432764</c:v>
+                  <c:v>34.609064117843886</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.159003328297608</c:v>
+                  <c:v>31.214738133825197</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.773647666037149</c:v>
+                  <c:v>32.546755351890461</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.731582963900927</c:v>
+                  <c:v>33.496253744496627</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.639778595484124</c:v>
+                  <c:v>31.823690626822131</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.232570373106007</c:v>
+                  <c:v>36.397451457863532</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.307794273886444</c:v>
+                  <c:v>28.732822861829725</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.123224617509372</c:v>
+                  <c:v>29.774166553767511</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28.091724702757062</c:v>
+                  <c:v>37.876520192928687</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28.345689883851367</c:v>
+                  <c:v>32.552601451726161</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29.826272271785268</c:v>
+                  <c:v>32.241284556054531</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36.984689541850017</c:v>
+                  <c:v>29.184444418690376</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>32.653862927606511</c:v>
+                  <c:v>33.394133465352098</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.971984819430077</c:v>
+                  <c:v>38.636591880900305</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36.439828530754497</c:v>
+                  <c:v>37.894630926817065</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>38.796864905849809</c:v>
+                  <c:v>29.505458776713436</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35.88591758773206</c:v>
+                  <c:v>31.482264898733654</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28.657583081803946</c:v>
+                  <c:v>36.329917632690041</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38.249299702576018</c:v>
+                  <c:v>35.224288775804517</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>30.106493784987144</c:v>
+                  <c:v>36.731624477875563</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>39.693380144630027</c:v>
+                  <c:v>29.080509817639417</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>27.8717296708314</c:v>
+                  <c:v>28.344939922526791</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>34.607521600205516</c:v>
+                  <c:v>30.864978036569802</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>41.660332083568669</c:v>
+                  <c:v>32.254268575511844</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>30.03668180142817</c:v>
+                  <c:v>33.334587211023489</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>30.422984746701587</c:v>
+                  <c:v>30.025861291880723</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>32.605278970057569</c:v>
+                  <c:v>39.309844308315292</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>31.958720768577187</c:v>
+                  <c:v>30.032213224945451</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>35.696863621863493</c:v>
+                  <c:v>31.632873724559825</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29.841573592155456</c:v>
+                  <c:v>34.434417983214388</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31.196281529396476</c:v>
+                  <c:v>35.185791480242827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -779,16 +446,13 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent4">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="002060"/>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
@@ -796,10 +460,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Coleta de dados'!$C$3:$C$32</c:f>
+              <c:f>'Coleta de dados'!$C$2:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>0.0\°</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>27</c:v>
                 </c:pt>
@@ -888,6 +552,9 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
@@ -917,16 +584,13 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="FF0000"/>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
@@ -939,97 +603,97 @@
                 <c:formatCode>0.0\°</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>42.9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42.9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42.9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42.9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42.9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42.9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42.9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42.9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42.9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42.9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42.9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42.9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42.9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42.9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42.9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42.9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42.9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42.9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42.9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42.9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42.9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42.9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>42.9</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1058,19 +722,13 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="00B0F0"/>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
@@ -1083,97 +741,97 @@
                 <c:formatCode>0.0\°</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>30.106493784987144</c:v>
+                  <c:v>30.032213224945451</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.106493784987144</c:v>
+                  <c:v>30.032213224945451</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.106493784987144</c:v>
+                  <c:v>30.032213224945451</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.106493784987144</c:v>
+                  <c:v>30.032213224945451</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.106493784987144</c:v>
+                  <c:v>30.032213224945451</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.106493784987144</c:v>
+                  <c:v>30.032213224945451</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.106493784987144</c:v>
+                  <c:v>30.032213224945451</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.106493784987144</c:v>
+                  <c:v>30.032213224945451</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.106493784987144</c:v>
+                  <c:v>30.032213224945451</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.106493784987144</c:v>
+                  <c:v>30.032213224945451</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.106493784987144</c:v>
+                  <c:v>30.032213224945451</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30.106493784987144</c:v>
+                  <c:v>30.032213224945451</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30.106493784987144</c:v>
+                  <c:v>30.032213224945451</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.106493784987144</c:v>
+                  <c:v>30.032213224945451</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.106493784987144</c:v>
+                  <c:v>30.032213224945451</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30.106493784987144</c:v>
+                  <c:v>30.032213224945451</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>30.106493784987144</c:v>
+                  <c:v>30.032213224945451</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30.106493784987144</c:v>
+                  <c:v>30.032213224945451</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>30.106493784987144</c:v>
+                  <c:v>30.032213224945451</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>30.106493784987144</c:v>
+                  <c:v>30.032213224945451</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>30.106493784987144</c:v>
+                  <c:v>30.032213224945451</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>30.106493784987144</c:v>
+                  <c:v>30.032213224945451</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>30.106493784987144</c:v>
+                  <c:v>30.032213224945451</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>30.106493784987144</c:v>
+                  <c:v>30.032213224945451</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>30.106493784987144</c:v>
+                  <c:v>30.032213224945451</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>30.106493784987144</c:v>
+                  <c:v>30.032213224945451</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>30.106493784987144</c:v>
+                  <c:v>30.032213224945451</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30.106493784987144</c:v>
+                  <c:v>30.032213224945451</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>30.106493784987144</c:v>
+                  <c:v>30.032213224945451</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.106493784987144</c:v>
+                  <c:v>30.032213224945451</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30.106493784987144</c:v>
+                  <c:v>30.032213224945451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1202,19 +860,13 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="FFC000"/>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
@@ -1227,97 +879,97 @@
                 <c:formatCode>0.0\°</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>37.773647666037149</c:v>
+                  <c:v>35.224288775804517</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.773647666037149</c:v>
+                  <c:v>35.224288775804517</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.773647666037149</c:v>
+                  <c:v>35.224288775804517</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.773647666037149</c:v>
+                  <c:v>35.224288775804517</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.773647666037149</c:v>
+                  <c:v>35.224288775804517</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.773647666037149</c:v>
+                  <c:v>35.224288775804517</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.773647666037149</c:v>
+                  <c:v>35.224288775804517</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.773647666037149</c:v>
+                  <c:v>35.224288775804517</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.773647666037149</c:v>
+                  <c:v>35.224288775804517</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37.773647666037149</c:v>
+                  <c:v>35.224288775804517</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37.773647666037149</c:v>
+                  <c:v>35.224288775804517</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>37.773647666037149</c:v>
+                  <c:v>35.224288775804517</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37.773647666037149</c:v>
+                  <c:v>35.224288775804517</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37.773647666037149</c:v>
+                  <c:v>35.224288775804517</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37.773647666037149</c:v>
+                  <c:v>35.224288775804517</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>37.773647666037149</c:v>
+                  <c:v>35.224288775804517</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>37.773647666037149</c:v>
+                  <c:v>35.224288775804517</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>37.773647666037149</c:v>
+                  <c:v>35.224288775804517</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>37.773647666037149</c:v>
+                  <c:v>35.224288775804517</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>37.773647666037149</c:v>
+                  <c:v>35.224288775804517</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>37.773647666037149</c:v>
+                  <c:v>35.224288775804517</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>37.773647666037149</c:v>
+                  <c:v>35.224288775804517</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>37.773647666037149</c:v>
+                  <c:v>35.224288775804517</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>37.773647666037149</c:v>
+                  <c:v>35.224288775804517</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>37.773647666037149</c:v>
+                  <c:v>35.224288775804517</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>37.773647666037149</c:v>
+                  <c:v>35.224288775804517</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>37.773647666037149</c:v>
+                  <c:v>35.224288775804517</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>37.773647666037149</c:v>
+                  <c:v>35.224288775804517</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>37.773647666037149</c:v>
+                  <c:v>35.224288775804517</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>37.773647666037149</c:v>
+                  <c:v>35.224288775804517</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>37.773647666037149</c:v>
+                  <c:v>35.224288775804517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1348,15 +1000,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1364,7 +1007,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
                         <a:lumMod val="75000"/>
@@ -1376,7 +1019,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR"/>
+                  <a:rPr lang="pt-BR" sz="1200"/>
                   <a:t>Dia</a:t>
                 </a:r>
               </a:p>
@@ -1395,7 +1038,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="lt1">
                       <a:lumMod val="75000"/>
@@ -1426,7 +1069,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="75000"/>
@@ -1451,7 +1094,7 @@
         <c:axId val="379512400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44"/>
+          <c:max val="41"/>
           <c:min val="26"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1488,7 +1131,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
                         <a:lumMod val="75000"/>
@@ -1500,7 +1143,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR"/>
+                  <a:rPr lang="pt-BR" sz="1200"/>
                   <a:t>Temperatura</a:t>
                 </a:r>
               </a:p>
@@ -1519,7 +1162,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="lt1">
                       <a:lumMod val="75000"/>
@@ -1550,7 +1193,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="75000"/>
@@ -1570,7 +1213,7 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="25400">
+        <a:ln>
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -1581,19 +1224,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2556,18 +2189,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F80F733-13BE-4CD8-87FA-4678D668E983}">
   <dimension ref="A1:J388"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2587,1840 +2219,1901 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <f ca="1">RANDBETWEEN(28,41.9)+RAND()-RAND()</f>
-        <v>40.603335342432764</v>
+        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
+        <v>34.609064117843886</v>
       </c>
       <c r="C2" s="2">
+        <f>$J$2</f>
         <v>27</v>
       </c>
       <c r="D2" s="2">
-        <v>42.9</v>
+        <f>$J$3</f>
+        <v>40</v>
       </c>
       <c r="E2" s="2">
         <f ca="1">$J$6</f>
-        <v>30.106493784987144</v>
+        <v>30.032213224945451</v>
       </c>
       <c r="F2" s="2">
         <f ca="1">$J$7</f>
-        <v>37.773647666037149</v>
+        <v>35.224288775804517</v>
       </c>
       <c r="I2" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">MIN($B$2:$B$32)</f>
-        <v>27.8717296708314</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" ref="B3:B32" ca="1" si="0">RANDBETWEEN(28,41.9)+RAND()-RAND()</f>
-        <v>34.159003328297608</v>
+        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
+        <v>31.214738133825197</v>
       </c>
       <c r="C3" s="2">
+        <f t="shared" ref="C3:C32" si="0">$J$2</f>
         <v>27</v>
       </c>
       <c r="D3" s="2">
-        <v>42.9</v>
+        <f t="shared" ref="D3:D32" si="1">$J$3</f>
+        <v>40</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E32" ca="1" si="1">$J$6</f>
-        <v>30.106493784987144</v>
+        <f t="shared" ref="E3:E32" ca="1" si="2">$J$6</f>
+        <v>30.032213224945451</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F32" ca="1" si="2">$J$7</f>
-        <v>37.773647666037149</v>
+        <f t="shared" ref="F3:F32" ca="1" si="3">$J$7</f>
+        <v>35.224288775804517</v>
       </c>
       <c r="I3" t="s">
         <v>7</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">MAX($B$2:$B$32)</f>
-        <v>41.660332083568669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="23.25" customHeight="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>37.773647666037149</v>
+        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
+        <v>32.546755351890461</v>
       </c>
       <c r="C4" s="2">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D4" s="2">
-        <v>42.9</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.106493784987144</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.032213224945451</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37.773647666037149</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>35.224288775804517</v>
       </c>
       <c r="I4" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="2">
         <f ca="1">AVERAGE($B$2:$B$32)</f>
-        <v>33.973306368743664</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>33.037064189646948</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>30.731582963900927</v>
+        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
+        <v>33.496253744496627</v>
       </c>
       <c r="C5" s="2">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D5" s="2">
-        <v>42.9</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.106493784987144</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.032213224945451</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37.773647666037149</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>35.224288775804517</v>
       </c>
       <c r="I5" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="2">
         <f ca="1">MEDIAN($B$2:$B$32)</f>
-        <v>34.159003328297608</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>32.546755351890461</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>34.639778595484124</v>
+        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
+        <v>31.823690626822131</v>
       </c>
       <c r="C6" s="2">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D6" s="2">
-        <v>42.9</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.106493784987144</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.032213224945451</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37.773647666037149</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>35.224288775804517</v>
       </c>
       <c r="I6" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="2">
         <f ca="1">_xlfn.QUARTILE.EXC($B$2:$B$32,1)</f>
-        <v>30.106493784987144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>30.032213224945451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>30.232570373106007</v>
+        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
+        <v>36.397451457863532</v>
       </c>
       <c r="C7" s="2">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D7" s="2">
-        <v>42.9</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.106493784987144</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.032213224945451</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37.773647666037149</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>35.224288775804517</v>
       </c>
       <c r="I7" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="2">
         <f ca="1">_xlfn.QUARTILE.EXC($B$2:$B$32,3)</f>
-        <v>37.773647666037149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>35.224288775804517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>40.307794273886444</v>
+        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
+        <v>28.732822861829725</v>
       </c>
       <c r="C8" s="2">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D8" s="2">
-        <v>42.9</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.106493784987144</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.032213224945451</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37.773647666037149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <f t="shared" ca="1" si="3"/>
+        <v>35.224288775804517</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>40.123224617509372</v>
+        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
+        <v>29.774166553767511</v>
       </c>
       <c r="C9" s="2">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D9" s="2">
-        <v>42.9</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.106493784987144</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.032213224945451</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37.773647666037149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <f t="shared" ca="1" si="3"/>
+        <v>35.224288775804517</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>28.091724702757062</v>
+        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
+        <v>37.876520192928687</v>
       </c>
       <c r="C10" s="2">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D10" s="2">
-        <v>42.9</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.106493784987144</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.032213224945451</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37.773647666037149</v>
-      </c>
-      <c r="I10" s="29"/>
-    </row>
-    <row r="11" spans="1:10">
+        <f t="shared" ca="1" si="3"/>
+        <v>35.224288775804517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>28.345689883851367</v>
+        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
+        <v>32.552601451726161</v>
       </c>
       <c r="C11" s="2">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D11" s="2">
-        <v>42.9</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.106493784987144</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.032213224945451</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37.773647666037149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <f t="shared" ca="1" si="3"/>
+        <v>35.224288775804517</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>29.826272271785268</v>
+        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
+        <v>32.241284556054531</v>
       </c>
       <c r="C12" s="2">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D12" s="2">
-        <v>42.9</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.106493784987144</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.032213224945451</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37.773647666037149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <f t="shared" ca="1" si="3"/>
+        <v>35.224288775804517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>36.984689541850017</v>
+        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
+        <v>29.184444418690376</v>
       </c>
       <c r="C13" s="2">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D13" s="2">
-        <v>42.9</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.106493784987144</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.032213224945451</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37.773647666037149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <f t="shared" ca="1" si="3"/>
+        <v>35.224288775804517</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>32.653862927606511</v>
+        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
+        <v>33.394133465352098</v>
       </c>
       <c r="C14" s="2">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D14" s="2">
-        <v>42.9</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.106493784987144</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.032213224945451</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37.773647666037149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <f t="shared" ca="1" si="3"/>
+        <v>35.224288775804517</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>34.971984819430077</v>
+        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
+        <v>38.636591880900305</v>
       </c>
       <c r="C15" s="2">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D15" s="2">
-        <v>42.9</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.106493784987144</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.032213224945451</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37.773647666037149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <f t="shared" ca="1" si="3"/>
+        <v>35.224288775804517</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>36.439828530754497</v>
+        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
+        <v>37.894630926817065</v>
       </c>
       <c r="C16" s="2">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D16" s="2">
-        <v>42.9</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.106493784987144</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.032213224945451</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37.773647666037149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <f t="shared" ca="1" si="3"/>
+        <v>35.224288775804517</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>38.796864905849809</v>
+        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
+        <v>29.505458776713436</v>
       </c>
       <c r="C17" s="2">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D17" s="2">
-        <v>42.9</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.106493784987144</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.032213224945451</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37.773647666037149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <f t="shared" ca="1" si="3"/>
+        <v>35.224288775804517</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>35.88591758773206</v>
+        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
+        <v>31.482264898733654</v>
       </c>
       <c r="C18" s="2">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D18" s="2">
-        <v>42.9</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.106493784987144</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.032213224945451</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37.773647666037149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <f t="shared" ca="1" si="3"/>
+        <v>35.224288775804517</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>28.657583081803946</v>
+        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
+        <v>36.329917632690041</v>
       </c>
       <c r="C19" s="2">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D19" s="2">
-        <v>42.9</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.106493784987144</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.032213224945451</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37.773647666037149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <f t="shared" ca="1" si="3"/>
+        <v>35.224288775804517</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>38.249299702576018</v>
+        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
+        <v>35.224288775804517</v>
       </c>
       <c r="C20" s="2">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D20" s="2">
-        <v>42.9</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.106493784987144</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.032213224945451</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37.773647666037149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <f t="shared" ca="1" si="3"/>
+        <v>35.224288775804517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>30.106493784987144</v>
+        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
+        <v>36.731624477875563</v>
       </c>
       <c r="C21" s="2">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D21" s="2">
-        <v>42.9</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.106493784987144</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.032213224945451</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37.773647666037149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <f t="shared" ca="1" si="3"/>
+        <v>35.224288775804517</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>39.693380144630027</v>
+        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
+        <v>29.080509817639417</v>
       </c>
       <c r="C22" s="2">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D22" s="2">
-        <v>42.9</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.106493784987144</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.032213224945451</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37.773647666037149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <f t="shared" ca="1" si="3"/>
+        <v>35.224288775804517</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>27.8717296708314</v>
+        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
+        <v>28.344939922526791</v>
       </c>
       <c r="C23" s="2">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D23" s="2">
-        <v>42.9</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.106493784987144</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.032213224945451</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37.773647666037149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <f t="shared" ca="1" si="3"/>
+        <v>35.224288775804517</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>34.607521600205516</v>
+        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
+        <v>30.864978036569802</v>
       </c>
       <c r="C24" s="2">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D24" s="2">
-        <v>42.9</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.106493784987144</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.032213224945451</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37.773647666037149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <f t="shared" ca="1" si="3"/>
+        <v>35.224288775804517</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>41.660332083568669</v>
+        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
+        <v>32.254268575511844</v>
       </c>
       <c r="C25" s="2">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D25" s="2">
-        <v>42.9</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.106493784987144</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.032213224945451</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37.773647666037149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <f t="shared" ca="1" si="3"/>
+        <v>35.224288775804517</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>30.03668180142817</v>
+        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
+        <v>33.334587211023489</v>
       </c>
       <c r="C26" s="2">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D26" s="2">
-        <v>42.9</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.106493784987144</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.032213224945451</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37.773647666037149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <f t="shared" ca="1" si="3"/>
+        <v>35.224288775804517</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>30.422984746701587</v>
+        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
+        <v>30.025861291880723</v>
       </c>
       <c r="C27" s="2">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D27" s="2">
-        <v>42.9</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.106493784987144</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.032213224945451</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37.773647666037149</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <f t="shared" ca="1" si="3"/>
+        <v>35.224288775804517</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>32.605278970057569</v>
+        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
+        <v>39.309844308315292</v>
       </c>
       <c r="C28" s="2">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D28" s="2">
-        <v>42.9</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.106493784987144</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.032213224945451</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37.773647666037149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <f t="shared" ca="1" si="3"/>
+        <v>35.224288775804517</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>31.958720768577187</v>
+        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
+        <v>30.032213224945451</v>
       </c>
       <c r="C29" s="2">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D29" s="2">
-        <v>42.9</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.106493784987144</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.032213224945451</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37.773647666037149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <f t="shared" ca="1" si="3"/>
+        <v>35.224288775804517</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>35.696863621863493</v>
+        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
+        <v>31.632873724559825</v>
       </c>
       <c r="C30" s="2">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D30" s="2">
-        <v>42.9</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.106493784987144</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.032213224945451</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37.773647666037149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <f t="shared" ca="1" si="3"/>
+        <v>35.224288775804517</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>29.841573592155456</v>
+        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
+        <v>34.434417983214388</v>
       </c>
       <c r="C31" s="2">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D31" s="2">
-        <v>42.9</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.106493784987144</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.032213224945451</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37.773647666037149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <f t="shared" ca="1" si="3"/>
+        <v>35.224288775804517</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>31.196281529396476</v>
+        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
+        <v>35.185791480242827</v>
       </c>
       <c r="C32" s="2">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="D32" s="2">
-        <v>42.9</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>30.106493784987144</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30.032213224945451</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37.773647666037149</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>35.224288775804517</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="2:2">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="2:2">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="2:2">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="2:2">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="2:2">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="2:2">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="2:2">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="2:2">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="2:2">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="2:2">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
-    <row r="113" spans="2:2">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
     </row>
-    <row r="114" spans="2:2">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
     </row>
-    <row r="115" spans="2:2">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
     </row>
-    <row r="116" spans="2:2">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
     </row>
-    <row r="117" spans="2:2">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
     </row>
-    <row r="118" spans="2:2">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
     </row>
-    <row r="119" spans="2:2">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="2:2">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
     </row>
-    <row r="122" spans="2:2">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
     </row>
-    <row r="123" spans="2:2">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
     </row>
-    <row r="124" spans="2:2">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
     </row>
-    <row r="125" spans="2:2">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
     </row>
-    <row r="126" spans="2:2">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
     </row>
-    <row r="127" spans="2:2">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
     </row>
-    <row r="128" spans="2:2">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
     </row>
-    <row r="129" spans="2:2">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
     </row>
-    <row r="130" spans="2:2">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
     </row>
-    <row r="131" spans="2:2">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
     </row>
-    <row r="132" spans="2:2">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
     </row>
-    <row r="133" spans="2:2">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
     </row>
-    <row r="134" spans="2:2">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
     </row>
-    <row r="135" spans="2:2">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" s="1"/>
     </row>
-    <row r="136" spans="2:2">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
     </row>
-    <row r="137" spans="2:2">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
     </row>
-    <row r="138" spans="2:2">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
     </row>
-    <row r="139" spans="2:2">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
     </row>
-    <row r="140" spans="2:2">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
     </row>
-    <row r="141" spans="2:2">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
     </row>
-    <row r="142" spans="2:2">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
     </row>
-    <row r="143" spans="2:2">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
     </row>
-    <row r="144" spans="2:2">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
     </row>
-    <row r="145" spans="2:2">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
     </row>
-    <row r="146" spans="2:2">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" s="1"/>
     </row>
-    <row r="147" spans="2:2">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
     </row>
-    <row r="148" spans="2:2">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
     </row>
-    <row r="149" spans="2:2">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
     </row>
-    <row r="150" spans="2:2">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
     </row>
-    <row r="151" spans="2:2">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
     </row>
-    <row r="152" spans="2:2">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
     </row>
-    <row r="153" spans="2:2">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
     </row>
-    <row r="154" spans="2:2">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
     </row>
-    <row r="155" spans="2:2">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
     </row>
-    <row r="156" spans="2:2">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
     </row>
-    <row r="157" spans="2:2">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
     </row>
-    <row r="158" spans="2:2">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
     </row>
-    <row r="159" spans="2:2">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
     </row>
-    <row r="160" spans="2:2">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
     </row>
-    <row r="161" spans="2:2">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
     </row>
-    <row r="162" spans="2:2">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
     </row>
-    <row r="163" spans="2:2">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
     </row>
-    <row r="164" spans="2:2">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
     </row>
-    <row r="165" spans="2:2">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" s="1"/>
     </row>
-    <row r="166" spans="2:2">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" s="1"/>
     </row>
-    <row r="167" spans="2:2">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" s="1"/>
     </row>
-    <row r="168" spans="2:2">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
     </row>
-    <row r="169" spans="2:2">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
     </row>
-    <row r="170" spans="2:2">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
     </row>
-    <row r="171" spans="2:2">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" s="1"/>
     </row>
-    <row r="172" spans="2:2">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
     </row>
-    <row r="173" spans="2:2">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" s="1"/>
     </row>
-    <row r="174" spans="2:2">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
     </row>
-    <row r="175" spans="2:2">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175" s="1"/>
     </row>
-    <row r="176" spans="2:2">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
     </row>
-    <row r="177" spans="2:2">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
     </row>
-    <row r="178" spans="2:2">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178" s="1"/>
     </row>
-    <row r="179" spans="2:2">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" s="1"/>
     </row>
-    <row r="180" spans="2:2">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
     </row>
-    <row r="181" spans="2:2">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181" s="1"/>
     </row>
-    <row r="182" spans="2:2">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182" s="1"/>
     </row>
-    <row r="183" spans="2:2">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183" s="1"/>
     </row>
-    <row r="184" spans="2:2">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B184" s="1"/>
     </row>
-    <row r="185" spans="2:2">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185" s="1"/>
     </row>
-    <row r="186" spans="2:2">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B186" s="1"/>
     </row>
-    <row r="187" spans="2:2">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B187" s="1"/>
     </row>
-    <row r="188" spans="2:2">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188" s="1"/>
     </row>
-    <row r="189" spans="2:2">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B189" s="1"/>
     </row>
-    <row r="190" spans="2:2">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B190" s="1"/>
     </row>
-    <row r="191" spans="2:2">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191" s="1"/>
     </row>
-    <row r="192" spans="2:2">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B192" s="1"/>
     </row>
-    <row r="193" spans="2:2">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193" s="1"/>
     </row>
-    <row r="194" spans="2:2">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" s="1"/>
     </row>
-    <row r="195" spans="2:2">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" s="1"/>
     </row>
-    <row r="196" spans="2:2">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B196" s="1"/>
     </row>
-    <row r="197" spans="2:2">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" s="1"/>
     </row>
-    <row r="198" spans="2:2">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B198" s="1"/>
     </row>
-    <row r="199" spans="2:2">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B199" s="1"/>
     </row>
-    <row r="200" spans="2:2">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B200" s="1"/>
     </row>
-    <row r="201" spans="2:2">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B201" s="1"/>
     </row>
-    <row r="202" spans="2:2">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B202" s="1"/>
     </row>
-    <row r="203" spans="2:2">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B203" s="1"/>
     </row>
-    <row r="204" spans="2:2">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B204" s="1"/>
     </row>
-    <row r="205" spans="2:2">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B205" s="1"/>
     </row>
-    <row r="206" spans="2:2">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B206" s="1"/>
     </row>
-    <row r="207" spans="2:2">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B207" s="1"/>
     </row>
-    <row r="208" spans="2:2">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B208" s="1"/>
     </row>
-    <row r="209" spans="2:2">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B209" s="1"/>
     </row>
-    <row r="210" spans="2:2">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B210" s="1"/>
     </row>
-    <row r="211" spans="2:2">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B211" s="1"/>
     </row>
-    <row r="212" spans="2:2">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" s="1"/>
     </row>
-    <row r="213" spans="2:2">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B213" s="1"/>
     </row>
-    <row r="214" spans="2:2">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B214" s="1"/>
     </row>
-    <row r="215" spans="2:2">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B215" s="1"/>
     </row>
-    <row r="216" spans="2:2">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B216" s="1"/>
     </row>
-    <row r="217" spans="2:2">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B217" s="1"/>
     </row>
-    <row r="218" spans="2:2">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B218" s="1"/>
     </row>
-    <row r="219" spans="2:2">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B219" s="1"/>
     </row>
-    <row r="220" spans="2:2">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B220" s="1"/>
     </row>
-    <row r="221" spans="2:2">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B221" s="1"/>
     </row>
-    <row r="222" spans="2:2">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B222" s="1"/>
     </row>
-    <row r="223" spans="2:2">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B223" s="1"/>
     </row>
-    <row r="224" spans="2:2">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B224" s="1"/>
     </row>
-    <row r="225" spans="2:2">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B225" s="1"/>
     </row>
-    <row r="226" spans="2:2">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B226" s="1"/>
     </row>
-    <row r="227" spans="2:2">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B227" s="1"/>
     </row>
-    <row r="228" spans="2:2">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B228" s="1"/>
     </row>
-    <row r="229" spans="2:2">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B229" s="1"/>
     </row>
-    <row r="230" spans="2:2">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B230" s="1"/>
     </row>
-    <row r="231" spans="2:2">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B231" s="1"/>
     </row>
-    <row r="232" spans="2:2">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B232" s="1"/>
     </row>
-    <row r="233" spans="2:2">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233" s="1"/>
     </row>
-    <row r="234" spans="2:2">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B234" s="1"/>
     </row>
-    <row r="235" spans="2:2">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B235" s="1"/>
     </row>
-    <row r="236" spans="2:2">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B236" s="1"/>
     </row>
-    <row r="237" spans="2:2">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B237" s="1"/>
     </row>
-    <row r="238" spans="2:2">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B238" s="1"/>
     </row>
-    <row r="239" spans="2:2">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B239" s="1"/>
     </row>
-    <row r="240" spans="2:2">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B240" s="1"/>
     </row>
-    <row r="241" spans="2:2">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B241" s="1"/>
     </row>
-    <row r="242" spans="2:2">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B242" s="1"/>
     </row>
-    <row r="243" spans="2:2">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B243" s="1"/>
     </row>
-    <row r="244" spans="2:2">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B244" s="1"/>
     </row>
-    <row r="245" spans="2:2">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B245" s="1"/>
     </row>
-    <row r="246" spans="2:2">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B246" s="1"/>
     </row>
-    <row r="247" spans="2:2">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B247" s="1"/>
     </row>
-    <row r="248" spans="2:2">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B248" s="1"/>
     </row>
-    <row r="249" spans="2:2">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B249" s="1"/>
     </row>
-    <row r="250" spans="2:2">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B250" s="1"/>
     </row>
-    <row r="251" spans="2:2">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B251" s="1"/>
     </row>
-    <row r="252" spans="2:2">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B252" s="1"/>
     </row>
-    <row r="253" spans="2:2">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B253" s="1"/>
     </row>
-    <row r="254" spans="2:2">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B254" s="1"/>
     </row>
-    <row r="255" spans="2:2">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B255" s="1"/>
     </row>
-    <row r="256" spans="2:2">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B256" s="1"/>
     </row>
-    <row r="257" spans="2:2">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B257" s="1"/>
     </row>
-    <row r="258" spans="2:2">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B258" s="1"/>
     </row>
-    <row r="259" spans="2:2">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B259" s="1"/>
     </row>
-    <row r="260" spans="2:2">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B260" s="1"/>
     </row>
-    <row r="261" spans="2:2">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B261" s="1"/>
     </row>
-    <row r="262" spans="2:2">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B262" s="1"/>
     </row>
-    <row r="263" spans="2:2">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B263" s="1"/>
     </row>
-    <row r="264" spans="2:2">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B264" s="1"/>
     </row>
-    <row r="265" spans="2:2">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B265" s="1"/>
     </row>
-    <row r="266" spans="2:2">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B266" s="1"/>
     </row>
-    <row r="267" spans="2:2">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B267" s="1"/>
     </row>
-    <row r="268" spans="2:2">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B268" s="1"/>
     </row>
-    <row r="269" spans="2:2">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B269" s="1"/>
     </row>
-    <row r="270" spans="2:2">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B270" s="1"/>
     </row>
-    <row r="271" spans="2:2">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B271" s="1"/>
     </row>
-    <row r="272" spans="2:2">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B272" s="1"/>
     </row>
-    <row r="273" spans="2:2">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B273" s="1"/>
     </row>
-    <row r="274" spans="2:2">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B274" s="1"/>
     </row>
-    <row r="275" spans="2:2">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B275" s="1"/>
     </row>
-    <row r="276" spans="2:2">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B276" s="1"/>
     </row>
-    <row r="277" spans="2:2">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B277" s="1"/>
     </row>
-    <row r="278" spans="2:2">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B278" s="1"/>
     </row>
-    <row r="279" spans="2:2">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B279" s="1"/>
     </row>
-    <row r="280" spans="2:2">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B280" s="1"/>
     </row>
-    <row r="281" spans="2:2">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B281" s="1"/>
     </row>
-    <row r="282" spans="2:2">
+    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B282" s="1"/>
     </row>
-    <row r="283" spans="2:2">
+    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B283" s="1"/>
     </row>
-    <row r="284" spans="2:2">
+    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B284" s="1"/>
     </row>
-    <row r="285" spans="2:2">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B285" s="1"/>
     </row>
-    <row r="286" spans="2:2">
+    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B286" s="1"/>
     </row>
-    <row r="287" spans="2:2">
+    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B287" s="1"/>
     </row>
-    <row r="288" spans="2:2">
+    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B288" s="1"/>
     </row>
-    <row r="289" spans="2:2">
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B289" s="1"/>
     </row>
-    <row r="290" spans="2:2">
+    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B290" s="1"/>
     </row>
-    <row r="291" spans="2:2">
+    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B291" s="1"/>
     </row>
-    <row r="292" spans="2:2">
+    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B292" s="1"/>
     </row>
-    <row r="293" spans="2:2">
+    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B293" s="1"/>
     </row>
-    <row r="294" spans="2:2">
+    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B294" s="1"/>
     </row>
-    <row r="295" spans="2:2">
+    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B295" s="1"/>
     </row>
-    <row r="296" spans="2:2">
+    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B296" s="1"/>
     </row>
-    <row r="297" spans="2:2">
+    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B297" s="1"/>
     </row>
-    <row r="298" spans="2:2">
+    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B298" s="1"/>
     </row>
-    <row r="299" spans="2:2">
+    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B299" s="1"/>
     </row>
-    <row r="300" spans="2:2">
+    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B300" s="1"/>
     </row>
-    <row r="301" spans="2:2">
+    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B301" s="1"/>
     </row>
-    <row r="302" spans="2:2">
+    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B302" s="1"/>
     </row>
-    <row r="303" spans="2:2">
+    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B303" s="1"/>
     </row>
-    <row r="304" spans="2:2">
+    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B304" s="1"/>
     </row>
-    <row r="305" spans="2:2">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B305" s="1"/>
     </row>
-    <row r="306" spans="2:2">
+    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B306" s="1"/>
     </row>
-    <row r="307" spans="2:2">
+    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B307" s="1"/>
     </row>
-    <row r="308" spans="2:2">
+    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B308" s="1"/>
     </row>
-    <row r="309" spans="2:2">
+    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B309" s="1"/>
     </row>
-    <row r="310" spans="2:2">
+    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B310" s="1"/>
     </row>
-    <row r="311" spans="2:2">
+    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B311" s="1"/>
     </row>
-    <row r="312" spans="2:2">
+    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B312" s="1"/>
     </row>
-    <row r="313" spans="2:2">
+    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B313" s="1"/>
     </row>
-    <row r="314" spans="2:2">
+    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B314" s="1"/>
     </row>
-    <row r="315" spans="2:2">
+    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B315" s="1"/>
     </row>
-    <row r="316" spans="2:2">
+    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B316" s="1"/>
     </row>
-    <row r="317" spans="2:2">
+    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B317" s="1"/>
     </row>
-    <row r="318" spans="2:2">
+    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B318" s="1"/>
     </row>
-    <row r="319" spans="2:2">
+    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B319" s="1"/>
     </row>
-    <row r="320" spans="2:2">
+    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B320" s="1"/>
     </row>
-    <row r="321" spans="2:2">
+    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B321" s="1"/>
     </row>
-    <row r="322" spans="2:2">
+    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B322" s="1"/>
     </row>
-    <row r="323" spans="2:2">
+    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B323" s="1"/>
     </row>
-    <row r="324" spans="2:2">
+    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B324" s="1"/>
     </row>
-    <row r="325" spans="2:2">
+    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B325" s="1"/>
     </row>
-    <row r="326" spans="2:2">
+    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B326" s="1"/>
     </row>
-    <row r="327" spans="2:2">
+    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B327" s="1"/>
     </row>
-    <row r="328" spans="2:2">
+    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B328" s="1"/>
     </row>
-    <row r="329" spans="2:2">
+    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B329" s="1"/>
     </row>
-    <row r="330" spans="2:2">
+    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B330" s="1"/>
     </row>
-    <row r="331" spans="2:2">
+    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B331" s="1"/>
     </row>
-    <row r="332" spans="2:2">
+    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B332" s="1"/>
     </row>
-    <row r="333" spans="2:2">
+    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B333" s="1"/>
     </row>
-    <row r="334" spans="2:2">
+    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B334" s="1"/>
     </row>
-    <row r="335" spans="2:2">
+    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B335" s="1"/>
     </row>
-    <row r="336" spans="2:2">
+    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B336" s="1"/>
     </row>
-    <row r="337" spans="2:2">
+    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B337" s="1"/>
     </row>
-    <row r="338" spans="2:2">
+    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B338" s="1"/>
     </row>
-    <row r="339" spans="2:2">
+    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B339" s="1"/>
     </row>
-    <row r="340" spans="2:2">
+    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B340" s="1"/>
     </row>
-    <row r="341" spans="2:2">
+    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B341" s="1"/>
     </row>
-    <row r="342" spans="2:2">
+    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B342" s="1"/>
     </row>
-    <row r="343" spans="2:2">
+    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B343" s="1"/>
     </row>
-    <row r="344" spans="2:2">
+    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B344" s="1"/>
     </row>
-    <row r="345" spans="2:2">
+    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B345" s="1"/>
     </row>
-    <row r="346" spans="2:2">
+    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B346" s="1"/>
     </row>
-    <row r="347" spans="2:2">
+    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B347" s="1"/>
     </row>
-    <row r="348" spans="2:2">
+    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B348" s="1"/>
     </row>
-    <row r="349" spans="2:2">
+    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B349" s="1"/>
     </row>
-    <row r="350" spans="2:2">
+    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B350" s="1"/>
     </row>
-    <row r="351" spans="2:2">
+    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B351" s="1"/>
     </row>
-    <row r="352" spans="2:2">
+    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B352" s="1"/>
     </row>
-    <row r="353" spans="2:2">
+    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B353" s="1"/>
     </row>
-    <row r="354" spans="2:2">
+    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B354" s="1"/>
     </row>
-    <row r="355" spans="2:2">
+    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B355" s="1"/>
     </row>
-    <row r="356" spans="2:2">
+    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B356" s="1"/>
     </row>
-    <row r="357" spans="2:2">
+    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B357" s="1"/>
     </row>
-    <row r="358" spans="2:2">
+    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B358" s="1"/>
     </row>
-    <row r="359" spans="2:2">
+    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B359" s="1"/>
     </row>
-    <row r="360" spans="2:2">
+    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B360" s="1"/>
     </row>
-    <row r="361" spans="2:2">
+    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B361" s="1"/>
     </row>
-    <row r="362" spans="2:2">
+    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B362" s="1"/>
     </row>
-    <row r="363" spans="2:2">
+    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B363" s="1"/>
     </row>
-    <row r="364" spans="2:2">
+    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B364" s="1"/>
     </row>
-    <row r="365" spans="2:2">
+    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B365" s="1"/>
     </row>
-    <row r="366" spans="2:2">
+    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B366" s="1"/>
     </row>
-    <row r="367" spans="2:2">
+    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B367" s="1"/>
     </row>
-    <row r="368" spans="2:2">
+    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B368" s="1"/>
     </row>
-    <row r="369" spans="2:2">
+    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B369" s="1"/>
     </row>
-    <row r="370" spans="2:2">
+    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B370" s="1"/>
     </row>
-    <row r="371" spans="2:2">
+    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B371" s="1"/>
     </row>
-    <row r="372" spans="2:2">
+    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B372" s="1"/>
     </row>
-    <row r="373" spans="2:2">
+    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B373" s="1"/>
     </row>
-    <row r="374" spans="2:2">
+    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B374" s="1"/>
     </row>
-    <row r="375" spans="2:2">
+    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B375" s="1"/>
     </row>
-    <row r="376" spans="2:2">
+    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B376" s="1"/>
     </row>
-    <row r="377" spans="2:2">
+    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B377" s="1"/>
     </row>
-    <row r="378" spans="2:2">
+    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B378" s="1"/>
     </row>
-    <row r="379" spans="2:2">
+    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B379" s="1"/>
     </row>
-    <row r="380" spans="2:2">
+    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B380" s="1"/>
     </row>
-    <row r="381" spans="2:2">
+    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B381" s="1"/>
     </row>
-    <row r="382" spans="2:2">
+    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B382" s="1"/>
     </row>
-    <row r="383" spans="2:2">
+    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B383" s="1"/>
     </row>
-    <row r="384" spans="2:2">
+    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B384" s="1"/>
     </row>
-    <row r="385" spans="2:2">
+    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B385" s="1"/>
     </row>
-    <row r="386" spans="2:2">
+    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B386" s="1"/>
     </row>
-    <row r="387" spans="2:2">
+    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B387" s="1"/>
     </row>
-    <row r="388" spans="2:2">
+    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B388" s="1"/>
     </row>
   </sheetData>
@@ -4429,230 +4122,4 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A727D08-BAC7-4E36-A458-CE744FA923B1}">
-  <dimension ref="A2:P8"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:16" ht="18.75">
-      <c r="B2" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="1:16" ht="22.5" customHeight="1">
-      <c r="B3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-    </row>
-    <row r="4" spans="1:16" ht="25.5" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8">
-        <v>10</v>
-      </c>
-      <c r="C4" s="9">
-        <v>16</v>
-      </c>
-      <c r="D4" s="10">
-        <v>22</v>
-      </c>
-      <c r="E4" s="10">
-        <v>22</v>
-      </c>
-      <c r="F4" s="9">
-        <v>28</v>
-      </c>
-      <c r="G4" s="8">
-        <v>34</v>
-      </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="23"/>
-    </row>
-    <row r="5" spans="1:16" ht="23.25" customHeight="1">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="11">
-        <v>9</v>
-      </c>
-      <c r="C5" s="12">
-        <v>14.25</v>
-      </c>
-      <c r="D5" s="13">
-        <v>19.5</v>
-      </c>
-      <c r="E5" s="13">
-        <v>19.5</v>
-      </c>
-      <c r="F5" s="14">
-        <v>24.75</v>
-      </c>
-      <c r="G5" s="11">
-        <v>30</v>
-      </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="11">
-        <v>8</v>
-      </c>
-      <c r="C6" s="14">
-        <v>12</v>
-      </c>
-      <c r="D6" s="13">
-        <v>16</v>
-      </c>
-      <c r="E6" s="13">
-        <v>16</v>
-      </c>
-      <c r="F6" s="14">
-        <v>20</v>
-      </c>
-      <c r="G6" s="11">
-        <v>24</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="27">
-        <v>10</v>
-      </c>
-      <c r="L6" s="18">
-        <v>16</v>
-      </c>
-      <c r="M6" s="28">
-        <v>22</v>
-      </c>
-      <c r="N6" s="28">
-        <v>22</v>
-      </c>
-      <c r="O6" s="18">
-        <v>28</v>
-      </c>
-      <c r="P6" s="27">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="45">
-      <c r="J7" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="27">
-        <v>9</v>
-      </c>
-      <c r="L7" s="18">
-        <v>14.25</v>
-      </c>
-      <c r="M7" s="28">
-        <v>19.5</v>
-      </c>
-      <c r="N7" s="28">
-        <v>19.5</v>
-      </c>
-      <c r="O7" s="18">
-        <v>24.75</v>
-      </c>
-      <c r="P7" s="27">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="30">
-      <c r="J8" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="27">
-        <v>8</v>
-      </c>
-      <c r="L8" s="18">
-        <v>12</v>
-      </c>
-      <c r="M8" s="28">
-        <v>16</v>
-      </c>
-      <c r="N8" s="28">
-        <v>16</v>
-      </c>
-      <c r="O8" s="18">
-        <v>20</v>
-      </c>
-      <c r="P8" s="27">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="K4:P4"/>
-    <mergeCell ref="M5:N5"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/SPRINT2/Gráfico de dados - Arq Comp.xlsx
+++ b/SPRINT2/Gráfico de dados - Arq Comp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d42371d61bd3278c/Área de Trabalho/Sprint 2/TECCHICKEN DOCUMENTAÇÃO/TECCHICKEN/SPRINT2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="8_{62474EAC-AE3B-4880-98EA-58B4B340A074}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3D3DD2B2-AF07-4873-928B-402ACEE4025F}"/>
+  <xr:revisionPtr revIDLastSave="216" documentId="8_{62474EAC-AE3B-4880-98EA-58B4B340A074}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D849DA6B-F309-42A7-8A9A-2F7F9ACD14BA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C8895A7-3856-42C1-B635-8216F5FF32B9}"/>
   </bookViews>
@@ -327,97 +327,97 @@
                 <c:formatCode>0.0\°</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>34.609064117843886</c:v>
+                  <c:v>36.185338303571392</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.214738133825197</c:v>
+                  <c:v>28.384409872598635</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.546755351890461</c:v>
+                  <c:v>35.076064679651751</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.496253744496627</c:v>
+                  <c:v>30.681832819740283</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.823690626822131</c:v>
+                  <c:v>28.686353185249704</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.397451457863532</c:v>
+                  <c:v>34.51980156282</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.732822861829725</c:v>
+                  <c:v>32.748084916782958</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.774166553767511</c:v>
+                  <c:v>27.296432120569619</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.876520192928687</c:v>
+                  <c:v>38.238055813124554</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32.552601451726161</c:v>
+                  <c:v>29.562184400655987</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32.241284556054531</c:v>
+                  <c:v>34.842619399466116</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29.184444418690376</c:v>
+                  <c:v>29.449707936363858</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>33.394133465352098</c:v>
+                  <c:v>30.359023599637005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38.636591880900305</c:v>
+                  <c:v>37.103565462225674</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37.894630926817065</c:v>
+                  <c:v>32.078076202841267</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29.505458776713436</c:v>
+                  <c:v>36.363470455598538</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>31.482264898733654</c:v>
+                  <c:v>33.344863338318753</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36.329917632690041</c:v>
+                  <c:v>31.617454015652434</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>35.224288775804517</c:v>
+                  <c:v>31.521704038529609</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36.731624477875563</c:v>
+                  <c:v>35.263731584301901</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>29.080509817639417</c:v>
+                  <c:v>30.652354304209403</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>28.344939922526791</c:v>
+                  <c:v>34.214265750907565</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>30.864978036569802</c:v>
+                  <c:v>28.665341276963172</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>32.254268575511844</c:v>
+                  <c:v>32.27998068509762</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>33.334587211023489</c:v>
+                  <c:v>33.355826743801302</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>30.025861291880723</c:v>
+                  <c:v>35.724974743351027</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>39.309844308315292</c:v>
+                  <c:v>34.912259702626713</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30.032213224945451</c:v>
+                  <c:v>31.469562046742162</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>31.632873724559825</c:v>
+                  <c:v>29.297763936043683</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>34.434417983214388</c:v>
+                  <c:v>31.440781931445649</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>35.185791480242827</c:v>
+                  <c:v>31.33391086171946</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -741,97 +741,97 @@
                 <c:formatCode>0.0\°</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>30.032213224945451</c:v>
+                  <c:v>30.359023599637005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.032213224945451</c:v>
+                  <c:v>30.359023599637005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.032213224945451</c:v>
+                  <c:v>30.359023599637005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.032213224945451</c:v>
+                  <c:v>30.359023599637005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.032213224945451</c:v>
+                  <c:v>30.359023599637005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.032213224945451</c:v>
+                  <c:v>30.359023599637005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.032213224945451</c:v>
+                  <c:v>30.359023599637005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.032213224945451</c:v>
+                  <c:v>30.359023599637005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.032213224945451</c:v>
+                  <c:v>30.359023599637005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.032213224945451</c:v>
+                  <c:v>30.359023599637005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.032213224945451</c:v>
+                  <c:v>30.359023599637005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30.032213224945451</c:v>
+                  <c:v>30.359023599637005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30.032213224945451</c:v>
+                  <c:v>30.359023599637005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.032213224945451</c:v>
+                  <c:v>30.359023599637005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.032213224945451</c:v>
+                  <c:v>30.359023599637005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30.032213224945451</c:v>
+                  <c:v>30.359023599637005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>30.032213224945451</c:v>
+                  <c:v>30.359023599637005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30.032213224945451</c:v>
+                  <c:v>30.359023599637005</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>30.032213224945451</c:v>
+                  <c:v>30.359023599637005</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>30.032213224945451</c:v>
+                  <c:v>30.359023599637005</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>30.032213224945451</c:v>
+                  <c:v>30.359023599637005</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>30.032213224945451</c:v>
+                  <c:v>30.359023599637005</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>30.032213224945451</c:v>
+                  <c:v>30.359023599637005</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>30.032213224945451</c:v>
+                  <c:v>30.359023599637005</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>30.032213224945451</c:v>
+                  <c:v>30.359023599637005</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>30.032213224945451</c:v>
+                  <c:v>30.359023599637005</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>30.032213224945451</c:v>
+                  <c:v>30.359023599637005</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30.032213224945451</c:v>
+                  <c:v>30.359023599637005</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>30.032213224945451</c:v>
+                  <c:v>30.359023599637005</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.032213224945451</c:v>
+                  <c:v>30.359023599637005</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30.032213224945451</c:v>
+                  <c:v>30.359023599637005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -879,97 +879,97 @@
                 <c:formatCode>0.0\°</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>35.224288775804517</c:v>
+                  <c:v>34.912259702626713</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.224288775804517</c:v>
+                  <c:v>34.912259702626713</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.224288775804517</c:v>
+                  <c:v>34.912259702626713</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.224288775804517</c:v>
+                  <c:v>34.912259702626713</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.224288775804517</c:v>
+                  <c:v>34.912259702626713</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.224288775804517</c:v>
+                  <c:v>34.912259702626713</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.224288775804517</c:v>
+                  <c:v>34.912259702626713</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.224288775804517</c:v>
+                  <c:v>34.912259702626713</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.224288775804517</c:v>
+                  <c:v>34.912259702626713</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.224288775804517</c:v>
+                  <c:v>34.912259702626713</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35.224288775804517</c:v>
+                  <c:v>34.912259702626713</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35.224288775804517</c:v>
+                  <c:v>34.912259702626713</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35.224288775804517</c:v>
+                  <c:v>34.912259702626713</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35.224288775804517</c:v>
+                  <c:v>34.912259702626713</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35.224288775804517</c:v>
+                  <c:v>34.912259702626713</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35.224288775804517</c:v>
+                  <c:v>34.912259702626713</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35.224288775804517</c:v>
+                  <c:v>34.912259702626713</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35.224288775804517</c:v>
+                  <c:v>34.912259702626713</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>35.224288775804517</c:v>
+                  <c:v>34.912259702626713</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>35.224288775804517</c:v>
+                  <c:v>34.912259702626713</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35.224288775804517</c:v>
+                  <c:v>34.912259702626713</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>35.224288775804517</c:v>
+                  <c:v>34.912259702626713</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>35.224288775804517</c:v>
+                  <c:v>34.912259702626713</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>35.224288775804517</c:v>
+                  <c:v>34.912259702626713</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>35.224288775804517</c:v>
+                  <c:v>34.912259702626713</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>35.224288775804517</c:v>
+                  <c:v>34.912259702626713</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>35.224288775804517</c:v>
+                  <c:v>34.912259702626713</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>35.224288775804517</c:v>
+                  <c:v>34.912259702626713</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>35.224288775804517</c:v>
+                  <c:v>34.912259702626713</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>35.224288775804517</c:v>
+                  <c:v>34.912259702626713</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>35.224288775804517</c:v>
+                  <c:v>34.912259702626713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2224,8 +2224,8 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
-        <v>34.609064117843886</v>
+        <f t="shared" ref="B2:B32" ca="1" si="0">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
+        <v>36.185338303571392</v>
       </c>
       <c r="C2" s="2">
         <f>$J$2</f>
@@ -2237,11 +2237,11 @@
       </c>
       <c r="E2" s="2">
         <f ca="1">$J$6</f>
-        <v>30.032213224945451</v>
+        <v>30.359023599637005</v>
       </c>
       <c r="F2" s="2">
         <f ca="1">$J$7</f>
-        <v>35.224288775804517</v>
+        <v>34.912259702626713</v>
       </c>
       <c r="I2" t="s">
         <v>2</v>
@@ -2255,24 +2255,24 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
-        <v>31.214738133825197</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>28.384409872598635</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C32" si="0">$J$2</f>
+        <f t="shared" ref="C3:C32" si="1">$J$2</f>
         <v>27</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D32" si="1">$J$3</f>
+        <f t="shared" ref="D3:D32" si="2">$J$3</f>
         <v>40</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E32" ca="1" si="2">$J$6</f>
-        <v>30.032213224945451</v>
+        <f t="shared" ref="E3:E32" ca="1" si="3">$J$6</f>
+        <v>30.359023599637005</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F32" ca="1" si="3">$J$7</f>
-        <v>35.224288775804517</v>
+        <f t="shared" ref="F3:F32" ca="1" si="4">$J$7</f>
+        <v>34.912259702626713</v>
       </c>
       <c r="I3" t="s">
         <v>7</v>
@@ -2286,31 +2286,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
-        <v>32.546755351890461</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>35.076064679651751</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>30.032213224945451</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30.359023599637005</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>35.224288775804517</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34.912259702626713</v>
       </c>
       <c r="I4" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="2">
         <f ca="1">AVERAGE($B$2:$B$32)</f>
-        <v>33.037064189646948</v>
+        <v>32.473219215826056</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2318,31 +2318,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
-        <v>33.496253744496627</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>30.681832819740283</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>30.032213224945451</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30.359023599637005</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>35.224288775804517</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34.912259702626713</v>
       </c>
       <c r="I5" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="2">
         <f ca="1">MEDIAN($B$2:$B$32)</f>
-        <v>32.546755351890461</v>
+        <v>32.078076202841267</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2350,31 +2350,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
-        <v>31.823690626822131</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>28.686353185249704</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>30.032213224945451</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30.359023599637005</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>35.224288775804517</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34.912259702626713</v>
       </c>
       <c r="I6" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="2">
         <f ca="1">_xlfn.QUARTILE.EXC($B$2:$B$32,1)</f>
-        <v>30.032213224945451</v>
+        <v>30.359023599637005</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2382,31 +2382,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
-        <v>36.397451457863532</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>34.51980156282</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>30.032213224945451</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30.359023599637005</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>35.224288775804517</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34.912259702626713</v>
       </c>
       <c r="I7" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="2">
         <f ca="1">_xlfn.QUARTILE.EXC($B$2:$B$32,3)</f>
-        <v>35.224288775804517</v>
+        <v>34.912259702626713</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2414,24 +2414,24 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
-        <v>28.732822861829725</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>32.748084916782958</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>30.032213224945451</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30.359023599637005</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>35.224288775804517</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34.912259702626713</v>
       </c>
       <c r="J8" s="2"/>
     </row>
@@ -2440,24 +2440,24 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
-        <v>29.774166553767511</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>27.296432120569619</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>30.032213224945451</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30.359023599637005</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>35.224288775804517</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34.912259702626713</v>
       </c>
       <c r="J9" s="2"/>
     </row>
@@ -2466,24 +2466,24 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
-        <v>37.876520192928687</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>38.238055813124554</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>30.032213224945451</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30.359023599637005</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>35.224288775804517</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34.912259702626713</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2491,24 +2491,24 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
-        <v>32.552601451726161</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>29.562184400655987</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>30.032213224945451</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30.359023599637005</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>35.224288775804517</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34.912259702626713</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2516,24 +2516,24 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
-        <v>32.241284556054531</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>34.842619399466116</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>30.032213224945451</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30.359023599637005</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>35.224288775804517</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34.912259702626713</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2541,24 +2541,24 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
-        <v>29.184444418690376</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>29.449707936363858</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>30.032213224945451</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30.359023599637005</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>35.224288775804517</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34.912259702626713</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2566,24 +2566,24 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
-        <v>33.394133465352098</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>30.359023599637005</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>30.032213224945451</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30.359023599637005</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>35.224288775804517</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34.912259702626713</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2591,24 +2591,24 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
-        <v>38.636591880900305</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>37.103565462225674</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>30.032213224945451</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30.359023599637005</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>35.224288775804517</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34.912259702626713</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2616,24 +2616,24 @@
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
-        <v>37.894630926817065</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>32.078076202841267</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>30.032213224945451</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30.359023599637005</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>35.224288775804517</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34.912259702626713</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2641,24 +2641,24 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
-        <v>29.505458776713436</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>36.363470455598538</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>30.032213224945451</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30.359023599637005</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>35.224288775804517</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34.912259702626713</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2666,24 +2666,24 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
-        <v>31.482264898733654</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>33.344863338318753</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>30.032213224945451</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30.359023599637005</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>35.224288775804517</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34.912259702626713</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2691,24 +2691,24 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
-        <v>36.329917632690041</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>31.617454015652434</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>30.032213224945451</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30.359023599637005</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>35.224288775804517</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34.912259702626713</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2716,24 +2716,24 @@
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
-        <v>35.224288775804517</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>31.521704038529609</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>30.032213224945451</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30.359023599637005</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>35.224288775804517</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34.912259702626713</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2741,24 +2741,24 @@
         <v>20</v>
       </c>
       <c r="B21" s="3">
-        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
-        <v>36.731624477875563</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>35.263731584301901</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>30.032213224945451</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30.359023599637005</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>35.224288775804517</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34.912259702626713</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2766,24 +2766,24 @@
         <v>21</v>
       </c>
       <c r="B22" s="3">
-        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
-        <v>29.080509817639417</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>30.652354304209403</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>30.032213224945451</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30.359023599637005</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>35.224288775804517</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34.912259702626713</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2791,24 +2791,24 @@
         <v>22</v>
       </c>
       <c r="B23" s="3">
-        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
-        <v>28.344939922526791</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>34.214265750907565</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>30.032213224945451</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30.359023599637005</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>35.224288775804517</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34.912259702626713</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2816,24 +2816,24 @@
         <v>23</v>
       </c>
       <c r="B24" s="3">
-        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
-        <v>30.864978036569802</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>28.665341276963172</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>30.032213224945451</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30.359023599637005</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>35.224288775804517</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34.912259702626713</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2841,24 +2841,24 @@
         <v>24</v>
       </c>
       <c r="B25" s="3">
-        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
-        <v>32.254268575511844</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>32.27998068509762</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>30.032213224945451</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30.359023599637005</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>35.224288775804517</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34.912259702626713</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2866,24 +2866,24 @@
         <v>25</v>
       </c>
       <c r="B26" s="3">
-        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
-        <v>33.334587211023489</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>33.355826743801302</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>30.032213224945451</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30.359023599637005</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>35.224288775804517</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34.912259702626713</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2891,24 +2891,24 @@
         <v>26</v>
       </c>
       <c r="B27" s="3">
-        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
-        <v>30.025861291880723</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>35.724974743351027</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>30.032213224945451</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30.359023599637005</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>35.224288775804517</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34.912259702626713</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2916,24 +2916,24 @@
         <v>27</v>
       </c>
       <c r="B28" s="3">
-        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
-        <v>39.309844308315292</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>34.912259702626713</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>30.032213224945451</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30.359023599637005</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>35.224288775804517</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34.912259702626713</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2941,24 +2941,24 @@
         <v>28</v>
       </c>
       <c r="B29" s="3">
-        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
-        <v>30.032213224945451</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>31.469562046742162</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>30.032213224945451</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30.359023599637005</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>35.224288775804517</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34.912259702626713</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2966,24 +2966,24 @@
         <v>29</v>
       </c>
       <c r="B30" s="3">
-        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
-        <v>31.632873724559825</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>29.297763936043683</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>30.032213224945451</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30.359023599637005</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>35.224288775804517</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34.912259702626713</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2991,24 +2991,24 @@
         <v>30</v>
       </c>
       <c r="B31" s="3">
-        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
-        <v>34.434417983214388</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>31.440781931445649</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>30.032213224945451</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30.359023599637005</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>35.224288775804517</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34.912259702626713</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3016,24 +3016,24 @@
         <v>31</v>
       </c>
       <c r="B32" s="3">
-        <f ca="1">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
-        <v>35.185791480242827</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>31.33391086171946</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>30.032213224945451</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>30.359023599637005</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>35.224288775804517</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34.912259702626713</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>15</v>

--- a/SPRINT2/Gráfico de dados - Arq Comp.xlsx
+++ b/SPRINT2/Gráfico de dados - Arq Comp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d42371d61bd3278c/Área de Trabalho/Sprint 2/TECCHICKEN DOCUMENTAÇÃO/TECCHICKEN/SPRINT2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/luiz_nardi_bandtec_com_br/Documents/Área de Trabalho/TECCHICKEN/SPRINT2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="216" documentId="8_{62474EAC-AE3B-4880-98EA-58B4B340A074}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D849DA6B-F309-42A7-8A9A-2F7F9ACD14BA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{BA5115D4-9737-499D-B943-5B13F2EFBF49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C8895A7-3856-42C1-B635-8216F5FF32B9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9C8895A7-3856-42C1-B635-8216F5FF32B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Coleta de dados" sheetId="3" r:id="rId1"/>
@@ -33,26 +33,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={E2B7ECD1-082D-4519-A9EF-1471AC9F7FC4}</author>
-  </authors>
-  <commentList>
-    <comment ref="H32" authorId="0" shapeId="0" xr:uid="{E2B7ECD1-082D-4519-A9EF-1471AC9F7FC4}">
-      <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
-    Exclua essa célula ;)</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Dia</t>
   </si>
@@ -97,9 +79,6 @@
   </si>
   <si>
     <t>Dessa maneira, é impossível que o valor ultrapasse a máxima e mínima, assim como torna muito difícil que ele atinja os limites</t>
-  </si>
-  <si>
-    <t>Antes de enviar, copie e cole valores na coluna "temperatura", para fixar os valores visualizados</t>
   </si>
 </sst>
 </file>
@@ -183,9 +162,89 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Gráfico </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.5772175188038823E-2"/>
+          <c:y val="9.1792079556783479E-2"/>
+          <c:w val="0.85140553295878296"/>
+          <c:h val="0.81910987765118459"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -204,14 +263,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:schemeClr val="bg1"/>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
@@ -327,97 +389,97 @@
                 <c:formatCode>0.0\°</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>36.185338303571392</c:v>
+                  <c:v>33.097065005894578</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.384409872598635</c:v>
+                  <c:v>28.33740185211915</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.076064679651751</c:v>
+                  <c:v>38.592150629798937</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.681832819740283</c:v>
+                  <c:v>30.479783529078265</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.686353185249704</c:v>
+                  <c:v>37.223902688386076</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.51980156282</c:v>
+                  <c:v>35.4246992970169</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.748084916782958</c:v>
+                  <c:v>35.731333381372586</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.296432120569619</c:v>
+                  <c:v>31.649057242527181</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.238055813124554</c:v>
+                  <c:v>37.638636741540083</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.562184400655987</c:v>
+                  <c:v>29.609099682091522</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.842619399466116</c:v>
+                  <c:v>37.192636228042787</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29.449707936363858</c:v>
+                  <c:v>28.21813686240683</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30.359023599637005</c:v>
+                  <c:v>30.876261109434932</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37.103565462225674</c:v>
+                  <c:v>32.131593048554365</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32.078076202841267</c:v>
+                  <c:v>38.492429561739598</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36.363470455598538</c:v>
+                  <c:v>29.176267620700383</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>33.344863338318753</c:v>
+                  <c:v>37.656563352902886</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>31.617454015652434</c:v>
+                  <c:v>32.924343538628477</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>31.521704038529609</c:v>
+                  <c:v>38.582954889131656</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>35.263731584301901</c:v>
+                  <c:v>36.48214568381735</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>30.652354304209403</c:v>
+                  <c:v>33.562742891160603</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>34.214265750907565</c:v>
+                  <c:v>28.642292019458871</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>28.665341276963172</c:v>
+                  <c:v>29.793513851122974</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>32.27998068509762</c:v>
+                  <c:v>29.920782605157729</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>33.355826743801302</c:v>
+                  <c:v>34.98677781950331</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>35.724974743351027</c:v>
+                  <c:v>30.789586066548509</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>34.912259702626713</c:v>
+                  <c:v>34.258207297220899</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>31.469562046742162</c:v>
+                  <c:v>33.417592886800236</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29.297763936043683</c:v>
+                  <c:v>31.383805974278431</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>31.440781931445649</c:v>
+                  <c:v>29.127325489716171</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31.33391086171946</c:v>
+                  <c:v>28.270899684978517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -444,14 +506,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="0070C0"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="002060"/>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
@@ -582,14 +647,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="FF0000"/>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
@@ -720,14 +788,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="00B0F0"/>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
@@ -741,97 +814,97 @@
                 <c:formatCode>0.0\°</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>30.359023599637005</c:v>
+                  <c:v>29.793513851122974</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.359023599637005</c:v>
+                  <c:v>29.793513851122974</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.359023599637005</c:v>
+                  <c:v>29.793513851122974</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.359023599637005</c:v>
+                  <c:v>29.793513851122974</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.359023599637005</c:v>
+                  <c:v>29.793513851122974</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.359023599637005</c:v>
+                  <c:v>29.793513851122974</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.359023599637005</c:v>
+                  <c:v>29.793513851122974</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.359023599637005</c:v>
+                  <c:v>29.793513851122974</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.359023599637005</c:v>
+                  <c:v>29.793513851122974</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.359023599637005</c:v>
+                  <c:v>29.793513851122974</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.359023599637005</c:v>
+                  <c:v>29.793513851122974</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30.359023599637005</c:v>
+                  <c:v>29.793513851122974</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30.359023599637005</c:v>
+                  <c:v>29.793513851122974</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.359023599637005</c:v>
+                  <c:v>29.793513851122974</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.359023599637005</c:v>
+                  <c:v>29.793513851122974</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30.359023599637005</c:v>
+                  <c:v>29.793513851122974</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>30.359023599637005</c:v>
+                  <c:v>29.793513851122974</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30.359023599637005</c:v>
+                  <c:v>29.793513851122974</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>30.359023599637005</c:v>
+                  <c:v>29.793513851122974</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>30.359023599637005</c:v>
+                  <c:v>29.793513851122974</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>30.359023599637005</c:v>
+                  <c:v>29.793513851122974</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>30.359023599637005</c:v>
+                  <c:v>29.793513851122974</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>30.359023599637005</c:v>
+                  <c:v>29.793513851122974</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>30.359023599637005</c:v>
+                  <c:v>29.793513851122974</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>30.359023599637005</c:v>
+                  <c:v>29.793513851122974</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>30.359023599637005</c:v>
+                  <c:v>29.793513851122974</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>30.359023599637005</c:v>
+                  <c:v>29.793513851122974</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30.359023599637005</c:v>
+                  <c:v>29.793513851122974</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>30.359023599637005</c:v>
+                  <c:v>29.793513851122974</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>30.359023599637005</c:v>
+                  <c:v>29.793513851122974</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30.359023599637005</c:v>
+                  <c:v>29.793513851122974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -858,14 +931,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FFC000"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="FFC000"/>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
               </a:outerShdw>
             </a:effectLst>
           </c:spPr>
@@ -879,97 +957,97 @@
                 <c:formatCode>0.0\°</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>34.912259702626713</c:v>
+                  <c:v>36.48214568381735</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.912259702626713</c:v>
+                  <c:v>36.48214568381735</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.912259702626713</c:v>
+                  <c:v>36.48214568381735</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.912259702626713</c:v>
+                  <c:v>36.48214568381735</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.912259702626713</c:v>
+                  <c:v>36.48214568381735</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.912259702626713</c:v>
+                  <c:v>36.48214568381735</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.912259702626713</c:v>
+                  <c:v>36.48214568381735</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.912259702626713</c:v>
+                  <c:v>36.48214568381735</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>34.912259702626713</c:v>
+                  <c:v>36.48214568381735</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.912259702626713</c:v>
+                  <c:v>36.48214568381735</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.912259702626713</c:v>
+                  <c:v>36.48214568381735</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.912259702626713</c:v>
+                  <c:v>36.48214568381735</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.912259702626713</c:v>
+                  <c:v>36.48214568381735</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.912259702626713</c:v>
+                  <c:v>36.48214568381735</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>34.912259702626713</c:v>
+                  <c:v>36.48214568381735</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34.912259702626713</c:v>
+                  <c:v>36.48214568381735</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34.912259702626713</c:v>
+                  <c:v>36.48214568381735</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>34.912259702626713</c:v>
+                  <c:v>36.48214568381735</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34.912259702626713</c:v>
+                  <c:v>36.48214568381735</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.912259702626713</c:v>
+                  <c:v>36.48214568381735</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>34.912259702626713</c:v>
+                  <c:v>36.48214568381735</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>34.912259702626713</c:v>
+                  <c:v>36.48214568381735</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>34.912259702626713</c:v>
+                  <c:v>36.48214568381735</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>34.912259702626713</c:v>
+                  <c:v>36.48214568381735</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>34.912259702626713</c:v>
+                  <c:v>36.48214568381735</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>34.912259702626713</c:v>
+                  <c:v>36.48214568381735</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>34.912259702626713</c:v>
+                  <c:v>36.48214568381735</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>34.912259702626713</c:v>
+                  <c:v>36.48214568381735</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>34.912259702626713</c:v>
+                  <c:v>36.48214568381735</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>34.912259702626713</c:v>
+                  <c:v>36.48214568381735</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>34.912259702626713</c:v>
+                  <c:v>36.48214568381735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1006,20 +1084,23 @@
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:pPr algn="ctr">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
+                        <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR" sz="1200"/>
+                  <a:rPr lang="pt-BR">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t>Dia</a:t>
                 </a:r>
               </a:p>
@@ -1037,16 +1118,16 @@
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:pPr algn="ctr">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
+                      <a:lumMod val="85000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="pt-BR"/>
@@ -1059,8 +1140,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1069,10 +1156,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1102,23 +1189,12 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1131,19 +1207,22 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
-                        <a:lumMod val="75000"/>
+                        <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-BR" sz="1200"/>
+                  <a:rPr lang="pt-BR" sz="900">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t>Temperatura</a:t>
                 </a:r>
               </a:p>
@@ -1162,15 +1241,15 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
+                      <a:lumMod val="85000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="pt-BR"/>
@@ -1193,10 +1272,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1219,15 +1298,73 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.90644275301531818"/>
+          <c:y val="0.35542817940071253"/>
+          <c:w val="9.3557246984681999E-2"/>
+          <c:h val="0.2220994749965283"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:noFill/>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
       <a:noFill/>
-      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1287,17 +1424,17 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1305,9 +1442,20 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea>
@@ -1318,23 +1466,28 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1342,7 +1495,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1352,17 +1505,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1371,131 +1521,72 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1512,15 +1603,15 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1532,22 +1623,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1556,16 +1647,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1574,13 +1666,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1592,7 +1684,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -1600,27 +1692,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -1630,30 +1711,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1662,16 +1729,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1680,16 +1748,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1699,7 +1767,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1709,7 +1777,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -1717,7 +1785,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1726,9 +1794,20 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1736,13 +1815,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1755,10 +1835,18 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1767,14 +1855,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="25400" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -1785,7 +1871,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1795,21 +1881,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1819,7 +1903,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1829,7 +1913,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -1839,16 +1923,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>90486</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314960</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1874,12 +1958,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Antonio" id="{D36A8D29-0CFF-4D48-914E-84FF56767D2A}" userId="d42371d61bd3278c" providerId="Windows Live"/>
-</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2177,29 +2255,24 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="H32" dT="2021-04-01T20:21:39.98" personId="{D36A8D29-0CFF-4D48-914E-84FF56767D2A}" id="{E2B7ECD1-082D-4519-A9EF-1471AC9F7FC4}">
-    <text>Exclua essa célula ;)</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F80F733-13BE-4CD8-87FA-4678D668E983}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F80F733-13BE-4CD8-87FA-4678D668E983}">
   <dimension ref="A1:J388"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" customWidth="1"/>
+    <col min="27" max="27" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2219,13 +2292,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="3">
         <f t="shared" ref="B2:B32" ca="1" si="0">RANDBETWEEN($J$2+1,$J$3-1)+RAND()-RAND()</f>
-        <v>36.185338303571392</v>
+        <v>33.097065005894578</v>
       </c>
       <c r="C2" s="2">
         <f>$J$2</f>
@@ -2237,11 +2310,11 @@
       </c>
       <c r="E2" s="2">
         <f ca="1">$J$6</f>
-        <v>30.359023599637005</v>
+        <v>29.793513851122974</v>
       </c>
       <c r="F2" s="2">
         <f ca="1">$J$7</f>
-        <v>34.912259702626713</v>
+        <v>36.48214568381735</v>
       </c>
       <c r="I2" t="s">
         <v>2</v>
@@ -2250,13 +2323,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>28.384409872598635</v>
+        <v>28.33740185211915</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C32" si="1">$J$2</f>
@@ -2268,11 +2341,11 @@
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E32" ca="1" si="3">$J$6</f>
-        <v>30.359023599637005</v>
+        <v>29.793513851122974</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" ref="F3:F32" ca="1" si="4">$J$7</f>
-        <v>34.912259702626713</v>
+        <v>36.48214568381735</v>
       </c>
       <c r="I3" t="s">
         <v>7</v>
@@ -2281,13 +2354,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>35.076064679651751</v>
+        <v>38.592150629798937</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="1"/>
@@ -2299,27 +2372,27 @@
       </c>
       <c r="E4" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>30.359023599637005</v>
+        <v>29.793513851122974</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>34.912259702626713</v>
+        <v>36.48214568381735</v>
       </c>
       <c r="I4" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="2">
         <f ca="1">AVERAGE($B$2:$B$32)</f>
-        <v>32.473219215826056</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>33.021612533262285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>30.681832819740283</v>
+        <v>30.479783529078265</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="1"/>
@@ -2331,27 +2404,27 @@
       </c>
       <c r="E5" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>30.359023599637005</v>
+        <v>29.793513851122974</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>34.912259702626713</v>
+        <v>36.48214568381735</v>
       </c>
       <c r="I5" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="2">
         <f ca="1">MEDIAN($B$2:$B$32)</f>
-        <v>32.078076202841267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>32.924343538628477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>28.686353185249704</v>
+        <v>37.223902688386076</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="1"/>
@@ -2363,27 +2436,27 @@
       </c>
       <c r="E6" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>30.359023599637005</v>
+        <v>29.793513851122974</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>34.912259702626713</v>
+        <v>36.48214568381735</v>
       </c>
       <c r="I6" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="2">
         <f ca="1">_xlfn.QUARTILE.EXC($B$2:$B$32,1)</f>
-        <v>30.359023599637005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29.793513851122974</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>34.51980156282</v>
+        <v>35.4246992970169</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="1"/>
@@ -2395,27 +2468,27 @@
       </c>
       <c r="E7" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>30.359023599637005</v>
+        <v>29.793513851122974</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>34.912259702626713</v>
+        <v>36.48214568381735</v>
       </c>
       <c r="I7" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="2">
         <f ca="1">_xlfn.QUARTILE.EXC($B$2:$B$32,3)</f>
-        <v>34.912259702626713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>36.48214568381735</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>32.748084916782958</v>
+        <v>35.731333381372586</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="1"/>
@@ -2427,21 +2500,21 @@
       </c>
       <c r="E8" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>30.359023599637005</v>
+        <v>29.793513851122974</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>34.912259702626713</v>
+        <v>36.48214568381735</v>
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>27.296432120569619</v>
+        <v>31.649057242527181</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="1"/>
@@ -2453,21 +2526,21 @@
       </c>
       <c r="E9" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>30.359023599637005</v>
+        <v>29.793513851122974</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>34.912259702626713</v>
+        <v>36.48214568381735</v>
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>38.238055813124554</v>
+        <v>37.638636741540083</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="1"/>
@@ -2479,20 +2552,20 @@
       </c>
       <c r="E10" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>30.359023599637005</v>
+        <v>29.793513851122974</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>34.912259702626713</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>36.48214568381735</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>29.562184400655987</v>
+        <v>29.609099682091522</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="1"/>
@@ -2504,20 +2577,20 @@
       </c>
       <c r="E11" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>30.359023599637005</v>
+        <v>29.793513851122974</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>34.912259702626713</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>36.48214568381735</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>34.842619399466116</v>
+        <v>37.192636228042787</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="1"/>
@@ -2529,20 +2602,20 @@
       </c>
       <c r="E12" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>30.359023599637005</v>
+        <v>29.793513851122974</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>34.912259702626713</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>36.48214568381735</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>29.449707936363858</v>
+        <v>28.21813686240683</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="1"/>
@@ -2554,20 +2627,20 @@
       </c>
       <c r="E13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>30.359023599637005</v>
+        <v>29.793513851122974</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>34.912259702626713</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>36.48214568381735</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>30.359023599637005</v>
+        <v>30.876261109434932</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="1"/>
@@ -2579,20 +2652,20 @@
       </c>
       <c r="E14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>30.359023599637005</v>
+        <v>29.793513851122974</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>34.912259702626713</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>36.48214568381735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>37.103565462225674</v>
+        <v>32.131593048554365</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="1"/>
@@ -2604,20 +2677,20 @@
       </c>
       <c r="E15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>30.359023599637005</v>
+        <v>29.793513851122974</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>34.912259702626713</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>36.48214568381735</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>32.078076202841267</v>
+        <v>38.492429561739598</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="1"/>
@@ -2629,20 +2702,20 @@
       </c>
       <c r="E16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>30.359023599637005</v>
+        <v>29.793513851122974</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>34.912259702626713</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36.48214568381735</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>36.363470455598538</v>
+        <v>29.176267620700383</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="1"/>
@@ -2654,20 +2727,20 @@
       </c>
       <c r="E17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>30.359023599637005</v>
+        <v>29.793513851122974</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>34.912259702626713</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36.48214568381735</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>33.344863338318753</v>
+        <v>37.656563352902886</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="1"/>
@@ -2679,20 +2752,20 @@
       </c>
       <c r="E18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>30.359023599637005</v>
+        <v>29.793513851122974</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>34.912259702626713</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36.48214568381735</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>31.617454015652434</v>
+        <v>32.924343538628477</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="1"/>
@@ -2704,20 +2777,20 @@
       </c>
       <c r="E19" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>30.359023599637005</v>
+        <v>29.793513851122974</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>34.912259702626713</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36.48214568381735</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>31.521704038529609</v>
+        <v>38.582954889131656</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="1"/>
@@ -2729,20 +2802,20 @@
       </c>
       <c r="E20" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>30.359023599637005</v>
+        <v>29.793513851122974</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>34.912259702626713</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36.48214568381735</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>35.263731584301901</v>
+        <v>36.48214568381735</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="1"/>
@@ -2754,20 +2827,20 @@
       </c>
       <c r="E21" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>30.359023599637005</v>
+        <v>29.793513851122974</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>34.912259702626713</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36.48214568381735</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>30.652354304209403</v>
+        <v>33.562742891160603</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="1"/>
@@ -2779,20 +2852,20 @@
       </c>
       <c r="E22" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>30.359023599637005</v>
+        <v>29.793513851122974</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>34.912259702626713</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36.48214568381735</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>34.214265750907565</v>
+        <v>28.642292019458871</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
@@ -2804,20 +2877,20 @@
       </c>
       <c r="E23" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>30.359023599637005</v>
+        <v>29.793513851122974</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>34.912259702626713</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36.48214568381735</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>28.665341276963172</v>
+        <v>29.793513851122974</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="1"/>
@@ -2829,20 +2902,20 @@
       </c>
       <c r="E24" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>30.359023599637005</v>
+        <v>29.793513851122974</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>34.912259702626713</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36.48214568381735</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>32.27998068509762</v>
+        <v>29.920782605157729</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="1"/>
@@ -2854,20 +2927,20 @@
       </c>
       <c r="E25" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>30.359023599637005</v>
+        <v>29.793513851122974</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>34.912259702626713</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36.48214568381735</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>33.355826743801302</v>
+        <v>34.98677781950331</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="1"/>
@@ -2879,20 +2952,20 @@
       </c>
       <c r="E26" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>30.359023599637005</v>
+        <v>29.793513851122974</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>34.912259702626713</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36.48214568381735</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>35.724974743351027</v>
+        <v>30.789586066548509</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="1"/>
@@ -2904,20 +2977,20 @@
       </c>
       <c r="E27" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>30.359023599637005</v>
+        <v>29.793513851122974</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>34.912259702626713</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36.48214568381735</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>34.912259702626713</v>
+        <v>34.258207297220899</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="1"/>
@@ -2929,20 +3002,20 @@
       </c>
       <c r="E28" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>30.359023599637005</v>
+        <v>29.793513851122974</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>34.912259702626713</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36.48214568381735</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>31.469562046742162</v>
+        <v>33.417592886800236</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="1"/>
@@ -2954,20 +3027,20 @@
       </c>
       <c r="E29" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>30.359023599637005</v>
+        <v>29.793513851122974</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>34.912259702626713</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36.48214568381735</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>29.297763936043683</v>
+        <v>31.383805974278431</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="1"/>
@@ -2979,20 +3052,20 @@
       </c>
       <c r="E30" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>30.359023599637005</v>
+        <v>29.793513851122974</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>34.912259702626713</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36.48214568381735</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>31.440781931445649</v>
+        <v>29.127325489716171</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="1"/>
@@ -3004,20 +3077,20 @@
       </c>
       <c r="E31" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>30.359023599637005</v>
+        <v>29.793513851122974</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>34.912259702626713</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36.48214568381735</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>31.33391086171946</v>
+        <v>28.270899684978517</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="1"/>
@@ -3029,1097 +3102,1094 @@
       </c>
       <c r="E32" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>30.359023599637005</v>
+        <v>29.793513851122974</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>34.912259702626713</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36.48214568381735</v>
+      </c>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>13</v>
       </c>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B127" s="1"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135" s="1"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145" s="1"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146" s="1"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147" s="1"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155" s="1"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B157" s="1"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B158" s="1"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B159" s="1"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B160" s="1"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B161" s="1"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B163" s="1"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B165" s="1"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B166" s="1"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B167" s="1"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B169" s="1"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B170" s="1"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B171" s="1"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B172" s="1"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B173" s="1"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B174" s="1"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B175" s="1"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B177" s="1"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B178" s="1"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B179" s="1"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B180" s="1"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B181" s="1"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B182" s="1"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B183" s="1"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B184" s="1"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B185" s="1"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B186" s="1"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B187" s="1"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B188" s="1"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B189" s="1"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B190" s="1"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B191" s="1"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B192" s="1"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B193" s="1"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B194" s="1"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B195" s="1"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B196" s="1"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B197" s="1"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B198" s="1"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B199" s="1"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B200" s="1"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B201" s="1"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B202" s="1"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B203" s="1"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B204" s="1"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B205" s="1"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B206" s="1"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B207" s="1"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B208" s="1"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B209" s="1"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B210" s="1"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B211" s="1"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B212" s="1"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B213" s="1"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B214" s="1"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B215" s="1"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B216" s="1"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B217" s="1"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B218" s="1"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B219" s="1"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B220" s="1"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B221" s="1"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B222" s="1"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B223" s="1"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B224" s="1"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B225" s="1"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B226" s="1"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B227" s="1"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B228" s="1"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B229" s="1"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B230" s="1"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B231" s="1"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B232" s="1"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B233" s="1"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B234" s="1"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B235" s="1"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B236" s="1"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B237" s="1"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B238" s="1"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B239" s="1"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B240" s="1"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B241" s="1"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B242" s="1"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B243" s="1"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B244" s="1"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B245" s="1"/>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B246" s="1"/>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B247" s="1"/>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B248" s="1"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B249" s="1"/>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B250" s="1"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B251" s="1"/>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B252" s="1"/>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B253" s="1"/>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B254" s="1"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B255" s="1"/>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B256" s="1"/>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B257" s="1"/>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B258" s="1"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B259" s="1"/>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B260" s="1"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B261" s="1"/>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B262" s="1"/>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B263" s="1"/>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B264" s="1"/>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B265" s="1"/>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B266" s="1"/>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B267" s="1"/>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B268" s="1"/>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B269" s="1"/>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B270" s="1"/>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B271" s="1"/>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B272" s="1"/>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B273" s="1"/>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B274" s="1"/>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B275" s="1"/>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B276" s="1"/>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B277" s="1"/>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B278" s="1"/>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B279" s="1"/>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B280" s="1"/>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B281" s="1"/>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B282" s="1"/>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B283" s="1"/>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B284" s="1"/>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B285" s="1"/>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B286" s="1"/>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B287" s="1"/>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B288" s="1"/>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B289" s="1"/>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B290" s="1"/>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B291" s="1"/>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B292" s="1"/>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B293" s="1"/>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B294" s="1"/>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B295" s="1"/>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B296" s="1"/>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B297" s="1"/>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B298" s="1"/>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B299" s="1"/>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B300" s="1"/>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B301" s="1"/>
     </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B302" s="1"/>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B303" s="1"/>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B304" s="1"/>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B305" s="1"/>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B306" s="1"/>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B307" s="1"/>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B308" s="1"/>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B309" s="1"/>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B310" s="1"/>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B311" s="1"/>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B312" s="1"/>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B313" s="1"/>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B314" s="1"/>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B315" s="1"/>
     </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B316" s="1"/>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B317" s="1"/>
     </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B318" s="1"/>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B319" s="1"/>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B320" s="1"/>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B321" s="1"/>
     </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B322" s="1"/>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B323" s="1"/>
     </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B324" s="1"/>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B325" s="1"/>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B326" s="1"/>
     </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B327" s="1"/>
     </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B328" s="1"/>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B329" s="1"/>
     </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B330" s="1"/>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B331" s="1"/>
     </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B332" s="1"/>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B333" s="1"/>
     </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B334" s="1"/>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B335" s="1"/>
     </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B336" s="1"/>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B337" s="1"/>
     </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B338" s="1"/>
     </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B339" s="1"/>
     </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B340" s="1"/>
     </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B341" s="1"/>
     </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B342" s="1"/>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B343" s="1"/>
     </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B344" s="1"/>
     </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B345" s="1"/>
     </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B346" s="1"/>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B347" s="1"/>
     </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B348" s="1"/>
     </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B349" s="1"/>
     </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B350" s="1"/>
     </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B351" s="1"/>
     </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B352" s="1"/>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B353" s="1"/>
     </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B354" s="1"/>
     </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B355" s="1"/>
     </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B356" s="1"/>
     </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B357" s="1"/>
     </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B358" s="1"/>
     </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B359" s="1"/>
     </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B360" s="1"/>
     </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B361" s="1"/>
     </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B362" s="1"/>
     </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B363" s="1"/>
     </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B364" s="1"/>
     </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B365" s="1"/>
     </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B366" s="1"/>
     </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B367" s="1"/>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B368" s="1"/>
     </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B369" s="1"/>
     </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B370" s="1"/>
     </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B371" s="1"/>
     </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B372" s="1"/>
     </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B373" s="1"/>
     </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B374" s="1"/>
     </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B375" s="1"/>
     </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B376" s="1"/>
     </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B377" s="1"/>
     </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B378" s="1"/>
     </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B379" s="1"/>
     </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B380" s="1"/>
     </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B381" s="1"/>
     </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B382" s="1"/>
     </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B383" s="1"/>
     </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B384" s="1"/>
     </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B385" s="1"/>
     </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B386" s="1"/>
     </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B387" s="1"/>
     </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B388" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>